--- a/data/trans_orig/IP33A-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP33A-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6F0D6E6F-4EC2-466B-9C97-F329F2A864BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D5867BAD-4F77-4CB9-B794-226CB410F91F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{2A73967B-21BD-4ECF-86CE-5DC6EC983C39}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{053CF760-F394-4A58-95D7-BF999B1E8363}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1036" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1060" uniqueCount="375">
   <si>
     <t>Adultos según si viven actualmente en pareja en 2007 (Tasa respuesta: 13,97%)</t>
   </si>
@@ -68,13 +68,166 @@
     <t>lím sup IC</t>
   </si>
   <si>
+    <t>Menos de 2</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>69,43%</t>
+  </si>
+  <si>
+    <t>996.0</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>79,48%</t>
+  </si>
+  <si>
+    <t>52,78%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>64,98%</t>
+  </si>
+  <si>
+    <t>38,31%</t>
+  </si>
+  <si>
+    <t>82,92%</t>
+  </si>
+  <si>
+    <t>72,27%</t>
+  </si>
+  <si>
+    <t>53,85%</t>
+  </si>
+  <si>
+    <t>85,45%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>47,22%</t>
+  </si>
+  <si>
+    <t>35,02%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>61,69%</t>
+  </si>
+  <si>
+    <t>27,73%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>46,15%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
     <t>10/50</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
+    <t>61,13%</t>
+  </si>
+  <si>
+    <t>42,58%</t>
+  </si>
+  <si>
+    <t>77,45%</t>
+  </si>
+  <si>
+    <t>70,34%</t>
+  </si>
+  <si>
+    <t>54,6%</t>
+  </si>
+  <si>
+    <t>83,69%</t>
+  </si>
+  <si>
+    <t>66,05%</t>
+  </si>
+  <si>
+    <t>54,28%</t>
+  </si>
+  <si>
+    <t>76,54%</t>
+  </si>
+  <si>
+    <t>38,87%</t>
+  </si>
+  <si>
+    <t>22,55%</t>
+  </si>
+  <si>
+    <t>57,42%</t>
+  </si>
+  <si>
+    <t>29,66%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>45,4%</t>
+  </si>
+  <si>
+    <t>33,95%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>45,72%</t>
   </si>
   <si>
     <t>5,96%</t>
@@ -86,136 +239,127 @@
     <t>2,77%</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>61,13%</t>
-  </si>
-  <si>
-    <t>42,58%</t>
-  </si>
-  <si>
-    <t>77,45%</t>
-  </si>
-  <si>
-    <t>70,34%</t>
-  </si>
-  <si>
-    <t>54,6%</t>
-  </si>
-  <si>
-    <t>83,69%</t>
-  </si>
-  <si>
-    <t>66,05%</t>
-  </si>
-  <si>
-    <t>54,28%</t>
-  </si>
-  <si>
-    <t>76,54%</t>
-  </si>
-  <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>38,87%</t>
-  </si>
-  <si>
-    <t>22,55%</t>
-  </si>
-  <si>
-    <t>57,42%</t>
-  </si>
-  <si>
-    <t>29,66%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>45,4%</t>
-  </si>
-  <si>
-    <t>33,95%</t>
-  </si>
-  <si>
-    <t>23,46%</t>
-  </si>
-  <si>
-    <t>45,72%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>79,48%</t>
-  </si>
-  <si>
-    <t>52,78%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>64,98%</t>
-  </si>
-  <si>
-    <t>38,31%</t>
-  </si>
-  <si>
-    <t>82,92%</t>
-  </si>
-  <si>
-    <t>72,27%</t>
-  </si>
-  <si>
-    <t>53,85%</t>
-  </si>
-  <si>
-    <t>85,45%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>47,22%</t>
-  </si>
-  <si>
-    <t>35,02%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>61,69%</t>
-  </si>
-  <si>
-    <t>27,73%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>46,15%</t>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>65,24%</t>
+  </si>
+  <si>
+    <t>46,03%</t>
+  </si>
+  <si>
+    <t>81,78%</t>
+  </si>
+  <si>
+    <t>62,81%</t>
+  </si>
+  <si>
+    <t>45,92%</t>
+  </si>
+  <si>
+    <t>76,72%</t>
+  </si>
+  <si>
+    <t>63,97%</t>
+  </si>
+  <si>
+    <t>52,51%</t>
+  </si>
+  <si>
+    <t>74,59%</t>
+  </si>
+  <si>
+    <t>34,76%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>53,97%</t>
+  </si>
+  <si>
+    <t>37,19%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>54,08%</t>
+  </si>
+  <si>
+    <t>36,03%</t>
+  </si>
+  <si>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>47,49%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
   </si>
   <si>
     <t>Capitales</t>
   </si>
   <si>
-    <t>2,9%</t>
+    <t>57,18%</t>
+  </si>
+  <si>
+    <t>44,84%</t>
+  </si>
+  <si>
+    <t>69,48%</t>
+  </si>
+  <si>
+    <t>72,94%</t>
+  </si>
+  <si>
+    <t>61,89%</t>
+  </si>
+  <si>
+    <t>84,26%</t>
+  </si>
+  <si>
+    <t>64,84%</t>
+  </si>
+  <si>
+    <t>56,1%</t>
+  </si>
+  <si>
+    <t>73,64%</t>
+  </si>
+  <si>
+    <t>42,82%</t>
+  </si>
+  <si>
+    <t>30,52%</t>
+  </si>
+  <si>
+    <t>55,16%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>38,11%</t>
+  </si>
+  <si>
+    <t>35,16%</t>
+  </si>
+  <si>
+    <t>26,36%</t>
+  </si>
+  <si>
+    <t>43,9%</t>
   </si>
   <si>
     <t>3,42%</t>
@@ -224,145 +368,58 @@
     <t>1,58%</t>
   </si>
   <si>
-    <t>57,18%</t>
-  </si>
-  <si>
-    <t>44,84%</t>
-  </si>
-  <si>
-    <t>69,48%</t>
-  </si>
-  <si>
-    <t>72,94%</t>
-  </si>
-  <si>
-    <t>61,89%</t>
-  </si>
-  <si>
-    <t>84,26%</t>
-  </si>
-  <si>
-    <t>64,84%</t>
-  </si>
-  <si>
-    <t>56,1%</t>
-  </si>
-  <si>
-    <t>73,64%</t>
-  </si>
-  <si>
-    <t>42,82%</t>
-  </si>
-  <si>
-    <t>30,52%</t>
-  </si>
-  <si>
-    <t>55,16%</t>
-  </si>
-  <si>
-    <t>27,06%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>38,11%</t>
-  </si>
-  <si>
-    <t>35,16%</t>
-  </si>
-  <si>
-    <t>26,36%</t>
-  </si>
-  <si>
-    <t>43,9%</t>
-  </si>
-  <si>
-    <t>Menos de 2</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>69,43%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>65,24%</t>
-  </si>
-  <si>
-    <t>46,03%</t>
-  </si>
-  <si>
-    <t>81,78%</t>
-  </si>
-  <si>
-    <t>62,81%</t>
-  </si>
-  <si>
-    <t>45,92%</t>
-  </si>
-  <si>
-    <t>76,72%</t>
-  </si>
-  <si>
-    <t>63,97%</t>
-  </si>
-  <si>
-    <t>52,51%</t>
-  </si>
-  <si>
-    <t>74,59%</t>
-  </si>
-  <si>
-    <t>34,76%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>53,97%</t>
-  </si>
-  <si>
-    <t>37,19%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>54,08%</t>
-  </si>
-  <si>
-    <t>36,03%</t>
-  </si>
-  <si>
-    <t>25,41%</t>
-  </si>
-  <si>
-    <t>47,49%</t>
+    <t>60,4%</t>
+  </si>
+  <si>
+    <t>50,78%</t>
+  </si>
+  <si>
+    <t>67,88%</t>
+  </si>
+  <si>
+    <t>68,67%</t>
+  </si>
+  <si>
+    <t>60,78%</t>
+  </si>
+  <si>
+    <t>75,77%</t>
+  </si>
+  <si>
+    <t>64,53%</t>
+  </si>
+  <si>
+    <t>58,99%</t>
+  </si>
+  <si>
+    <t>69,86%</t>
+  </si>
+  <si>
+    <t>39,6%</t>
+  </si>
+  <si>
+    <t>32,12%</t>
+  </si>
+  <si>
+    <t>49,22%</t>
+  </si>
+  <si>
+    <t>31,33%</t>
+  </si>
+  <si>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>39,22%</t>
+  </si>
+  <si>
+    <t>35,47%</t>
+  </si>
+  <si>
+    <t>30,14%</t>
+  </si>
+  <si>
+    <t>41,01%</t>
   </si>
   <si>
     <t>1,29%</t>
@@ -374,181 +431,268 @@
     <t>0,65%</t>
   </si>
   <si>
-    <t>60,4%</t>
-  </si>
-  <si>
-    <t>50,78%</t>
-  </si>
-  <si>
-    <t>67,88%</t>
-  </si>
-  <si>
-    <t>68,67%</t>
-  </si>
-  <si>
-    <t>60,78%</t>
-  </si>
-  <si>
-    <t>75,77%</t>
-  </si>
-  <si>
-    <t>64,53%</t>
-  </si>
-  <si>
-    <t>58,99%</t>
-  </si>
-  <si>
-    <t>69,86%</t>
-  </si>
-  <si>
-    <t>39,6%</t>
-  </si>
-  <si>
-    <t>32,12%</t>
-  </si>
-  <si>
-    <t>49,22%</t>
-  </si>
-  <si>
-    <t>31,33%</t>
-  </si>
-  <si>
-    <t>24,23%</t>
-  </si>
-  <si>
-    <t>39,22%</t>
-  </si>
-  <si>
-    <t>35,47%</t>
-  </si>
-  <si>
-    <t>30,14%</t>
-  </si>
-  <si>
-    <t>41,01%</t>
-  </si>
-  <si>
     <t>Adultos según si viven actualmente en pareja en 2012 (Tasa respuesta: 18,34%)</t>
   </si>
   <si>
+    <t>46,82%</t>
+  </si>
+  <si>
+    <t>28,05%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>80,55%</t>
+  </si>
+  <si>
+    <t>53,18%</t>
+  </si>
+  <si>
+    <t>71,95%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>89,72%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>75,06%</t>
+  </si>
+  <si>
+    <t>55,92%</t>
+  </si>
+  <si>
+    <t>89,54%</t>
+  </si>
+  <si>
+    <t>54,93%</t>
+  </si>
+  <si>
+    <t>36,82%</t>
+  </si>
+  <si>
+    <t>73,71%</t>
+  </si>
+  <si>
+    <t>65,71%</t>
+  </si>
+  <si>
+    <t>52,48%</t>
+  </si>
+  <si>
+    <t>77,43%</t>
+  </si>
+  <si>
+    <t>24,94%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>44,08%</t>
+  </si>
+  <si>
+    <t>45,07%</t>
+  </si>
+  <si>
+    <t>26,29%</t>
+  </si>
+  <si>
+    <t>63,18%</t>
+  </si>
+  <si>
+    <t>34,29%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>47,52%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>64,52%</t>
+  </si>
+  <si>
+    <t>47,95%</t>
+  </si>
+  <si>
+    <t>78,54%</t>
+  </si>
+  <si>
+    <t>58,2%</t>
+  </si>
+  <si>
+    <t>45,81%</t>
+  </si>
+  <si>
+    <t>71,15%</t>
+  </si>
+  <si>
+    <t>60,9%</t>
+  </si>
+  <si>
+    <t>50,51%</t>
+  </si>
+  <si>
+    <t>70,07%</t>
+  </si>
+  <si>
+    <t>35,48%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>52,05%</t>
+  </si>
+  <si>
+    <t>41,8%</t>
+  </si>
+  <si>
+    <t>28,85%</t>
+  </si>
+  <si>
+    <t>54,19%</t>
+  </si>
+  <si>
+    <t>39,1%</t>
+  </si>
+  <si>
+    <t>29,93%</t>
+  </si>
+  <si>
+    <t>49,49%</t>
+  </si>
+  <si>
     <t>4,78%</t>
   </si>
   <si>
-    <t>3,3%</t>
-  </si>
-  <si>
     <t>1,98%</t>
   </si>
   <si>
-    <t>64,52%</t>
-  </si>
-  <si>
-    <t>47,95%</t>
-  </si>
-  <si>
-    <t>78,54%</t>
-  </si>
-  <si>
-    <t>58,2%</t>
-  </si>
-  <si>
-    <t>45,81%</t>
-  </si>
-  <si>
-    <t>71,15%</t>
-  </si>
-  <si>
-    <t>60,9%</t>
-  </si>
-  <si>
-    <t>50,51%</t>
-  </si>
-  <si>
-    <t>70,07%</t>
-  </si>
-  <si>
-    <t>35,48%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>52,05%</t>
-  </si>
-  <si>
-    <t>41,8%</t>
-  </si>
-  <si>
-    <t>28,85%</t>
-  </si>
-  <si>
-    <t>54,19%</t>
-  </si>
-  <si>
-    <t>39,1%</t>
-  </si>
-  <si>
-    <t>29,93%</t>
-  </si>
-  <si>
-    <t>49,49%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>75,06%</t>
-  </si>
-  <si>
-    <t>55,92%</t>
-  </si>
-  <si>
-    <t>89,54%</t>
-  </si>
-  <si>
-    <t>54,93%</t>
-  </si>
-  <si>
-    <t>36,82%</t>
-  </si>
-  <si>
-    <t>73,71%</t>
-  </si>
-  <si>
-    <t>65,71%</t>
-  </si>
-  <si>
-    <t>52,48%</t>
-  </si>
-  <si>
-    <t>77,43%</t>
-  </si>
-  <si>
-    <t>24,94%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>44,08%</t>
-  </si>
-  <si>
-    <t>45,07%</t>
-  </si>
-  <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>63,18%</t>
-  </si>
-  <si>
-    <t>34,29%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>47,52%</t>
+    <t>67,18%</t>
+  </si>
+  <si>
+    <t>52,29%</t>
+  </si>
+  <si>
+    <t>80,87%</t>
+  </si>
+  <si>
+    <t>58,21%</t>
+  </si>
+  <si>
+    <t>44,01%</t>
+  </si>
+  <si>
+    <t>72,18%</t>
+  </si>
+  <si>
+    <t>62,83%</t>
+  </si>
+  <si>
+    <t>51,33%</t>
+  </si>
+  <si>
+    <t>73,53%</t>
+  </si>
+  <si>
+    <t>32,82%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>47,71%</t>
+  </si>
+  <si>
+    <t>41,79%</t>
+  </si>
+  <si>
+    <t>27,82%</t>
+  </si>
+  <si>
+    <t>55,99%</t>
+  </si>
+  <si>
+    <t>37,17%</t>
+  </si>
+  <si>
+    <t>26,47%</t>
+  </si>
+  <si>
+    <t>48,67%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>64,59%</t>
+  </si>
+  <si>
+    <t>52,79%</t>
+  </si>
+  <si>
+    <t>75,35%</t>
+  </si>
+  <si>
+    <t>56,28%</t>
+  </si>
+  <si>
+    <t>43,72%</t>
+  </si>
+  <si>
+    <t>67,58%</t>
+  </si>
+  <si>
+    <t>60,41%</t>
+  </si>
+  <si>
+    <t>52,28%</t>
+  </si>
+  <si>
+    <t>68,58%</t>
+  </si>
+  <si>
+    <t>35,41%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>47,21%</t>
+  </si>
+  <si>
+    <t>32,42%</t>
+  </si>
+  <si>
+    <t>39,59%</t>
+  </si>
+  <si>
+    <t>31,42%</t>
+  </si>
+  <si>
+    <t>47,72%</t>
   </si>
   <si>
     <t>2,82%</t>
@@ -560,145 +704,58 @@
     <t>1,43%</t>
   </si>
   <si>
-    <t>64,59%</t>
-  </si>
-  <si>
-    <t>52,79%</t>
-  </si>
-  <si>
-    <t>75,35%</t>
-  </si>
-  <si>
-    <t>56,28%</t>
-  </si>
-  <si>
-    <t>43,72%</t>
-  </si>
-  <si>
-    <t>67,58%</t>
-  </si>
-  <si>
-    <t>60,41%</t>
-  </si>
-  <si>
-    <t>52,28%</t>
-  </si>
-  <si>
-    <t>68,58%</t>
-  </si>
-  <si>
-    <t>35,41%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>47,21%</t>
-  </si>
-  <si>
-    <t>32,42%</t>
-  </si>
-  <si>
-    <t>39,59%</t>
-  </si>
-  <si>
-    <t>31,42%</t>
-  </si>
-  <si>
-    <t>47,72%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>46,82%</t>
-  </si>
-  <si>
-    <t>28,05%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>80,55%</t>
-  </si>
-  <si>
-    <t>53,18%</t>
-  </si>
-  <si>
-    <t>71,95%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>89,72%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>67,18%</t>
-  </si>
-  <si>
-    <t>52,29%</t>
-  </si>
-  <si>
-    <t>80,87%</t>
-  </si>
-  <si>
-    <t>58,21%</t>
-  </si>
-  <si>
-    <t>44,01%</t>
-  </si>
-  <si>
-    <t>72,18%</t>
-  </si>
-  <si>
-    <t>62,83%</t>
-  </si>
-  <si>
-    <t>51,33%</t>
-  </si>
-  <si>
-    <t>73,53%</t>
-  </si>
-  <si>
-    <t>32,82%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>47,71%</t>
-  </si>
-  <si>
-    <t>41,79%</t>
-  </si>
-  <si>
-    <t>27,82%</t>
-  </si>
-  <si>
-    <t>55,99%</t>
-  </si>
-  <si>
-    <t>37,17%</t>
-  </si>
-  <si>
-    <t>26,47%</t>
-  </si>
-  <si>
-    <t>48,67%</t>
+    <t>66,45%</t>
+  </si>
+  <si>
+    <t>59,11%</t>
+  </si>
+  <si>
+    <t>73,33%</t>
+  </si>
+  <si>
+    <t>56,51%</t>
+  </si>
+  <si>
+    <t>49,16%</t>
+  </si>
+  <si>
+    <t>63,4%</t>
+  </si>
+  <si>
+    <t>61,4%</t>
+  </si>
+  <si>
+    <t>56,29%</t>
+  </si>
+  <si>
+    <t>66,43%</t>
+  </si>
+  <si>
+    <t>33,55%</t>
+  </si>
+  <si>
+    <t>26,67%</t>
+  </si>
+  <si>
+    <t>40,89%</t>
+  </si>
+  <si>
+    <t>43,49%</t>
+  </si>
+  <si>
+    <t>36,6%</t>
+  </si>
+  <si>
+    <t>50,84%</t>
+  </si>
+  <si>
+    <t>38,6%</t>
+  </si>
+  <si>
+    <t>33,57%</t>
+  </si>
+  <si>
+    <t>43,71%</t>
   </si>
   <si>
     <t>1,02%</t>
@@ -710,63 +767,159 @@
     <t>0,5%</t>
   </si>
   <si>
-    <t>66,45%</t>
-  </si>
-  <si>
-    <t>59,11%</t>
-  </si>
-  <si>
-    <t>73,33%</t>
-  </si>
-  <si>
-    <t>56,51%</t>
-  </si>
-  <si>
-    <t>49,16%</t>
-  </si>
-  <si>
-    <t>63,4%</t>
-  </si>
-  <si>
-    <t>61,4%</t>
-  </si>
-  <si>
-    <t>56,29%</t>
-  </si>
-  <si>
-    <t>66,43%</t>
-  </si>
-  <si>
-    <t>33,55%</t>
-  </si>
-  <si>
-    <t>26,67%</t>
-  </si>
-  <si>
-    <t>40,89%</t>
-  </si>
-  <si>
-    <t>43,49%</t>
-  </si>
-  <si>
-    <t>36,6%</t>
-  </si>
-  <si>
-    <t>50,84%</t>
-  </si>
-  <si>
-    <t>38,6%</t>
-  </si>
-  <si>
-    <t>33,57%</t>
-  </si>
-  <si>
-    <t>43,71%</t>
-  </si>
-  <si>
     <t>Adultos según si viven actualmente en pareja en 2015 (Tasa respuesta: 26,15%)</t>
   </si>
   <si>
+    <t>68,95%</t>
+  </si>
+  <si>
+    <t>40,35%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>81,98%</t>
+  </si>
+  <si>
+    <t>32,14%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>63,87%</t>
+  </si>
+  <si>
+    <t>31,05%</t>
+  </si>
+  <si>
+    <t>59,65%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>91,96%</t>
+  </si>
+  <si>
+    <t>67,86%</t>
+  </si>
+  <si>
+    <t>36,13%</t>
+  </si>
+  <si>
+    <t>88,27%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>51,66%</t>
+  </si>
+  <si>
+    <t>32,51%</t>
+  </si>
+  <si>
+    <t>68,75%</t>
+  </si>
+  <si>
+    <t>69,35%</t>
+  </si>
+  <si>
+    <t>53,1%</t>
+  </si>
+  <si>
+    <t>81,66%</t>
+  </si>
+  <si>
+    <t>61,82%</t>
+  </si>
+  <si>
+    <t>50,25%</t>
+  </si>
+  <si>
+    <t>48,34%</t>
+  </si>
+  <si>
+    <t>31,25%</t>
+  </si>
+  <si>
+    <t>67,49%</t>
+  </si>
+  <si>
+    <t>30,65%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>46,9%</t>
+  </si>
+  <si>
+    <t>38,18%</t>
+  </si>
+  <si>
+    <t>49,75%</t>
+  </si>
+  <si>
+    <t>64,1%</t>
+  </si>
+  <si>
+    <t>53,26%</t>
+  </si>
+  <si>
+    <t>74,98%</t>
+  </si>
+  <si>
+    <t>58,0%</t>
+  </si>
+  <si>
+    <t>46,52%</t>
+  </si>
+  <si>
+    <t>68,71%</t>
+  </si>
+  <si>
+    <t>61,15%</t>
+  </si>
+  <si>
+    <t>53,53%</t>
+  </si>
+  <si>
+    <t>68,18%</t>
+  </si>
+  <si>
+    <t>35,9%</t>
+  </si>
+  <si>
+    <t>25,02%</t>
+  </si>
+  <si>
+    <t>46,74%</t>
+  </si>
+  <si>
+    <t>42,0%</t>
+  </si>
+  <si>
+    <t>31,29%</t>
+  </si>
+  <si>
+    <t>53,48%</t>
+  </si>
+  <si>
+    <t>38,85%</t>
+  </si>
+  <si>
+    <t>31,82%</t>
+  </si>
+  <si>
+    <t>46,47%</t>
+  </si>
+  <si>
     <t>2,39%</t>
   </si>
   <si>
@@ -776,106 +929,118 @@
     <t>1,18%</t>
   </si>
   <si>
-    <t>64,1%</t>
-  </si>
-  <si>
-    <t>53,26%</t>
-  </si>
-  <si>
-    <t>74,98%</t>
-  </si>
-  <si>
-    <t>58,0%</t>
-  </si>
-  <si>
-    <t>46,52%</t>
-  </si>
-  <si>
-    <t>68,71%</t>
-  </si>
-  <si>
-    <t>61,15%</t>
-  </si>
-  <si>
-    <t>53,53%</t>
-  </si>
-  <si>
-    <t>68,18%</t>
-  </si>
-  <si>
-    <t>35,9%</t>
-  </si>
-  <si>
-    <t>25,02%</t>
-  </si>
-  <si>
-    <t>46,74%</t>
-  </si>
-  <si>
-    <t>42,0%</t>
-  </si>
-  <si>
-    <t>31,29%</t>
-  </si>
-  <si>
-    <t>53,48%</t>
-  </si>
-  <si>
-    <t>38,85%</t>
-  </si>
-  <si>
-    <t>31,82%</t>
-  </si>
-  <si>
-    <t>46,47%</t>
-  </si>
-  <si>
-    <t>51,66%</t>
-  </si>
-  <si>
-    <t>32,51%</t>
-  </si>
-  <si>
-    <t>68,75%</t>
-  </si>
-  <si>
-    <t>69,35%</t>
-  </si>
-  <si>
-    <t>53,1%</t>
-  </si>
-  <si>
-    <t>81,66%</t>
-  </si>
-  <si>
-    <t>61,82%</t>
-  </si>
-  <si>
-    <t>50,25%</t>
-  </si>
-  <si>
-    <t>48,34%</t>
-  </si>
-  <si>
-    <t>31,25%</t>
-  </si>
-  <si>
-    <t>67,49%</t>
-  </si>
-  <si>
-    <t>30,65%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>46,9%</t>
-  </si>
-  <si>
-    <t>38,18%</t>
-  </si>
-  <si>
-    <t>49,75%</t>
+    <t>72,86%</t>
+  </si>
+  <si>
+    <t>61,63%</t>
+  </si>
+  <si>
+    <t>81,67%</t>
+  </si>
+  <si>
+    <t>64,36%</t>
+  </si>
+  <si>
+    <t>52,93%</t>
+  </si>
+  <si>
+    <t>76,03%</t>
+  </si>
+  <si>
+    <t>69,18%</t>
+  </si>
+  <si>
+    <t>60,87%</t>
+  </si>
+  <si>
+    <t>76,44%</t>
+  </si>
+  <si>
+    <t>27,14%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>38,37%</t>
+  </si>
+  <si>
+    <t>35,64%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>47,07%</t>
+  </si>
+  <si>
+    <t>30,82%</t>
+  </si>
+  <si>
+    <t>23,56%</t>
+  </si>
+  <si>
+    <t>39,13%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>62,05%</t>
+  </si>
+  <si>
+    <t>52,0%</t>
+  </si>
+  <si>
+    <t>71,62%</t>
+  </si>
+  <si>
+    <t>56,53%</t>
+  </si>
+  <si>
+    <t>45,3%</t>
+  </si>
+  <si>
+    <t>66,58%</t>
+  </si>
+  <si>
+    <t>59,2%</t>
+  </si>
+  <si>
+    <t>52,08%</t>
+  </si>
+  <si>
+    <t>66,13%</t>
+  </si>
+  <si>
+    <t>37,95%</t>
+  </si>
+  <si>
+    <t>28,38%</t>
+  </si>
+  <si>
+    <t>48,0%</t>
+  </si>
+  <si>
+    <t>43,47%</t>
+  </si>
+  <si>
+    <t>33,42%</t>
+  </si>
+  <si>
+    <t>54,7%</t>
+  </si>
+  <si>
+    <t>40,8%</t>
+  </si>
+  <si>
+    <t>33,87%</t>
+  </si>
+  <si>
+    <t>47,92%</t>
   </si>
   <si>
     <t>2,2%</t>
@@ -887,166 +1052,58 @@
     <t>1,09%</t>
   </si>
   <si>
-    <t>62,05%</t>
-  </si>
-  <si>
-    <t>52,0%</t>
-  </si>
-  <si>
-    <t>71,62%</t>
-  </si>
-  <si>
-    <t>56,53%</t>
-  </si>
-  <si>
-    <t>45,3%</t>
-  </si>
-  <si>
-    <t>66,58%</t>
-  </si>
-  <si>
-    <t>59,2%</t>
-  </si>
-  <si>
-    <t>52,08%</t>
-  </si>
-  <si>
-    <t>66,13%</t>
-  </si>
-  <si>
-    <t>37,95%</t>
-  </si>
-  <si>
-    <t>28,38%</t>
-  </si>
-  <si>
-    <t>48,0%</t>
-  </si>
-  <si>
-    <t>43,47%</t>
-  </si>
-  <si>
-    <t>33,42%</t>
-  </si>
-  <si>
-    <t>54,7%</t>
-  </si>
-  <si>
-    <t>40,8%</t>
-  </si>
-  <si>
-    <t>33,87%</t>
-  </si>
-  <si>
-    <t>47,92%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>68,95%</t>
-  </si>
-  <si>
-    <t>40,35%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>81,98%</t>
-  </si>
-  <si>
-    <t>32,14%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>63,87%</t>
-  </si>
-  <si>
-    <t>31,05%</t>
-  </si>
-  <si>
-    <t>59,65%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>91,96%</t>
-  </si>
-  <si>
-    <t>67,86%</t>
-  </si>
-  <si>
-    <t>36,13%</t>
-  </si>
-  <si>
-    <t>88,27%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>72,86%</t>
-  </si>
-  <si>
-    <t>61,63%</t>
-  </si>
-  <si>
-    <t>81,67%</t>
-  </si>
-  <si>
-    <t>64,36%</t>
-  </si>
-  <si>
-    <t>52,93%</t>
-  </si>
-  <si>
-    <t>76,03%</t>
-  </si>
-  <si>
-    <t>69,18%</t>
-  </si>
-  <si>
-    <t>60,87%</t>
-  </si>
-  <si>
-    <t>76,44%</t>
-  </si>
-  <si>
-    <t>27,14%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>38,37%</t>
-  </si>
-  <si>
-    <t>35,64%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>47,07%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>23,56%</t>
-  </si>
-  <si>
-    <t>39,13%</t>
+    <t>63,07%</t>
+  </si>
+  <si>
+    <t>57,11%</t>
+  </si>
+  <si>
+    <t>68,2%</t>
+  </si>
+  <si>
+    <t>59,79%</t>
+  </si>
+  <si>
+    <t>54,33%</t>
+  </si>
+  <si>
+    <t>65,67%</t>
+  </si>
+  <si>
+    <t>61,45%</t>
+  </si>
+  <si>
+    <t>57,16%</t>
+  </si>
+  <si>
+    <t>65,55%</t>
+  </si>
+  <si>
+    <t>36,93%</t>
+  </si>
+  <si>
+    <t>31,8%</t>
+  </si>
+  <si>
+    <t>42,89%</t>
+  </si>
+  <si>
+    <t>40,21%</t>
+  </si>
+  <si>
+    <t>34,33%</t>
+  </si>
+  <si>
+    <t>45,67%</t>
+  </si>
+  <si>
+    <t>38,55%</t>
+  </si>
+  <si>
+    <t>34,45%</t>
+  </si>
+  <si>
+    <t>42,84%</t>
   </si>
   <si>
     <t>0,7%</t>
@@ -1058,94 +1115,46 @@
     <t>0,34%</t>
   </si>
   <si>
-    <t>63,07%</t>
-  </si>
-  <si>
-    <t>57,11%</t>
-  </si>
-  <si>
-    <t>68,2%</t>
-  </si>
-  <si>
-    <t>59,79%</t>
-  </si>
-  <si>
-    <t>54,33%</t>
-  </si>
-  <si>
-    <t>65,67%</t>
-  </si>
-  <si>
-    <t>61,45%</t>
-  </si>
-  <si>
-    <t>57,16%</t>
-  </si>
-  <si>
-    <t>65,55%</t>
-  </si>
-  <si>
-    <t>36,93%</t>
-  </si>
-  <si>
-    <t>31,8%</t>
-  </si>
-  <si>
-    <t>42,89%</t>
-  </si>
-  <si>
-    <t>40,21%</t>
-  </si>
-  <si>
-    <t>34,33%</t>
-  </si>
-  <si>
-    <t>45,67%</t>
-  </si>
-  <si>
-    <t>38,55%</t>
-  </si>
-  <si>
-    <t>34,45%</t>
-  </si>
-  <si>
-    <t>42,84%</t>
-  </si>
-  <si>
     <t>Adultos según si viven actualmente en pareja en 2023 (Tasa respuesta: 2,5%)</t>
   </si>
   <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>73,58%</t>
+  </si>
+  <si>
     <t>55,59%</t>
   </si>
   <si>
     <t>79,25%</t>
   </si>
   <si>
-    <t>73,58%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>85,49%</t>
+  </si>
+  <si>
+    <t>88,85%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
   </si>
   <si>
     <t>87,39%</t>
   </si>
   <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>88,85%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
   </si>
   <si>
     <t>89,47%</t>
@@ -1155,12 +1164,6 @@
   </si>
   <si>
     <t>96,1%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
   </si>
 </sst>
 </file>
@@ -1552,7 +1555,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A9C2701-0BBA-44F3-A9CA-CACC4904FE36}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A1523B1-91EB-4B6D-904D-64450564CE27}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1666,8 +1669,8 @@
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="5">
-        <v>996</v>
+      <c r="B4" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C4" s="7">
         <v>0</v>
@@ -1676,13 +1679,13 @@
         <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -1691,13 +1694,13 @@
         <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -1706,115 +1709,115 @@
         <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="D5" s="7">
-        <v>12343</v>
+        <v>3260</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="7">
+        <v>1</v>
+      </c>
+      <c r="I5" s="7">
+        <v>714</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="7">
-        <v>26</v>
-      </c>
-      <c r="I5" s="7">
-        <v>16325</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>19</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M5" s="7">
+        <v>5</v>
+      </c>
+      <c r="N5" s="7">
+        <v>3974</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="M5" s="7">
-        <v>45</v>
-      </c>
-      <c r="N5" s="7">
-        <v>28669</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>23</v>
-      </c>
       <c r="Q5" s="7" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C6" s="7">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D6" s="7">
-        <v>7849</v>
+        <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="I6" s="7">
-        <v>6885</v>
+        <v>0</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="M6" s="7">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="N6" s="7">
-        <v>14734</v>
+        <v>0</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1823,204 +1826,204 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="D7" s="7">
-        <v>20192</v>
+        <v>3260</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="H7" s="7">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="I7" s="7">
-        <v>23210</v>
+        <v>714</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="M7" s="7">
-        <v>68</v>
+        <v>5</v>
       </c>
       <c r="N7" s="7">
-        <v>43403</v>
+        <v>3974</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" s="5">
-        <v>996</v>
+        <v>23</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D8" s="7">
-        <v>0</v>
+        <v>9610</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="H8" s="7">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="I8" s="7">
-        <v>0</v>
+        <v>7788</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="M8" s="7">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="N8" s="7">
-        <v>0</v>
+        <v>17399</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C9" s="7">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="D9" s="7">
-        <v>9610</v>
+        <v>2481</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H9" s="7">
+        <v>6</v>
+      </c>
+      <c r="I9" s="7">
+        <v>4197</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="M9" s="7">
+        <v>10</v>
+      </c>
+      <c r="N9" s="7">
+        <v>6677</v>
+      </c>
+      <c r="O9" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="P9" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="H9" s="7">
-        <v>12</v>
-      </c>
-      <c r="I9" s="7">
-        <v>7788</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="M9" s="7">
-        <v>26</v>
-      </c>
-      <c r="N9" s="7">
-        <v>17399</v>
-      </c>
-      <c r="O9" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C10" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>2481</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="H10" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>4197</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="M10" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="N10" s="7">
-        <v>6677</v>
+        <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2035,13 +2038,13 @@
         <v>12091</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="H11" s="7">
         <v>18</v>
@@ -2050,13 +2053,13 @@
         <v>11985</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="M11" s="7">
         <v>36</v>
@@ -2065,168 +2068,168 @@
         <v>24076</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B12" s="5">
-        <v>996</v>
+        <v>44</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D12" s="7">
-        <v>0</v>
+        <v>12343</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="H12" s="7">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="I12" s="7">
-        <v>0</v>
+        <v>16325</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="M12" s="7">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="N12" s="7">
-        <v>0</v>
+        <v>28669</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C13" s="7">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="D13" s="7">
-        <v>25477</v>
+        <v>7849</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H13" s="7">
+        <v>11</v>
+      </c>
+      <c r="I13" s="7">
+        <v>6885</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="M13" s="7">
+        <v>23</v>
+      </c>
+      <c r="N13" s="7">
+        <v>14734</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="H13" s="7">
-        <v>40</v>
-      </c>
-      <c r="I13" s="7">
-        <v>30695</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="M13" s="7">
-        <v>78</v>
-      </c>
-      <c r="N13" s="7">
-        <v>56172</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C14" s="7">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="D14" s="7">
-        <v>19075</v>
+        <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>70</v>
+        <v>11</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="H14" s="7">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I14" s="7">
-        <v>11387</v>
+        <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="M14" s="7">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="N14" s="7">
-        <v>30462</v>
+        <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2235,204 +2238,204 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="D15" s="7">
-        <v>44552</v>
+        <v>20192</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="H15" s="7">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="I15" s="7">
-        <v>42082</v>
+        <v>23210</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="M15" s="7">
-        <v>120</v>
+        <v>68</v>
       </c>
       <c r="N15" s="7">
-        <v>86634</v>
+        <v>43403</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B16" s="5">
-        <v>996</v>
+        <v>66</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D16" s="7">
-        <v>0</v>
+        <v>12710</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>10</v>
+        <v>67</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>11</v>
+        <v>68</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="H16" s="7">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="I16" s="7">
-        <v>0</v>
+        <v>13447</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>11</v>
+        <v>71</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="M16" s="7">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="N16" s="7">
-        <v>0</v>
+        <v>26157</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D17" s="7">
-        <v>0</v>
+        <v>6771</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>11</v>
+        <v>77</v>
       </c>
       <c r="G17" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="H17" s="7">
+        <v>13</v>
+      </c>
+      <c r="I17" s="7">
+        <v>7961</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="H17" s="7">
-        <v>0</v>
-      </c>
-      <c r="I17" s="7">
-        <v>0</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>81</v>
       </c>
       <c r="M17" s="7">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="N17" s="7">
-        <v>0</v>
+        <v>14733</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>10</v>
+        <v>82</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>11</v>
+        <v>83</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C18" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D18" s="7">
-        <v>3260</v>
+        <v>0</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>83</v>
+        <v>11</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>35</v>
+        <v>85</v>
       </c>
       <c r="H18" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" s="7">
-        <v>714</v>
+        <v>0</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>83</v>
+        <v>11</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>85</v>
+        <v>12</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>35</v>
+        <v>86</v>
       </c>
       <c r="M18" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N18" s="7">
-        <v>3974</v>
+        <v>0</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>83</v>
+        <v>11</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>86</v>
+        <v>12</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>35</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2441,204 +2444,204 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="D19" s="7">
-        <v>3260</v>
+        <v>19481</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H19" s="7">
         <v>35</v>
       </c>
-      <c r="F19" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="H19" s="7">
-        <v>1</v>
-      </c>
       <c r="I19" s="7">
-        <v>714</v>
+        <v>21408</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="M19" s="7">
-        <v>5</v>
+        <v>65</v>
       </c>
       <c r="N19" s="7">
-        <v>3974</v>
+        <v>40890</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B20" s="5">
-        <v>996</v>
+        <v>88</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C20" s="7">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="D20" s="7">
-        <v>0</v>
+        <v>25477</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>11</v>
+        <v>90</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="H20" s="7">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="I20" s="7">
-        <v>0</v>
+        <v>30695</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>10</v>
+        <v>92</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>11</v>
+        <v>93</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="M20" s="7">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="N20" s="7">
-        <v>0</v>
+        <v>56172</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>10</v>
+        <v>95</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>11</v>
+        <v>96</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>58</v>
+        <v>97</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="7">
+        <v>27</v>
+      </c>
+      <c r="D21" s="7">
+        <v>19075</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="H21" s="7">
         <v>15</v>
       </c>
-      <c r="C21" s="7">
-        <v>20</v>
-      </c>
-      <c r="D21" s="7">
-        <v>12710</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="H21" s="7">
-        <v>22</v>
-      </c>
       <c r="I21" s="7">
-        <v>13447</v>
+        <v>11387</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="M21" s="7">
         <v>42</v>
       </c>
       <c r="N21" s="7">
-        <v>26157</v>
+        <v>30462</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C22" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D22" s="7">
-        <v>6771</v>
+        <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>99</v>
+        <v>11</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="H22" s="7">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="I22" s="7">
-        <v>7961</v>
+        <v>0</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>102</v>
+        <v>11</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>103</v>
+        <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="M22" s="7">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="N22" s="7">
-        <v>14733</v>
+        <v>0</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>105</v>
+        <v>11</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>106</v>
+        <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2647,204 +2650,204 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="D23" s="7">
-        <v>19481</v>
+        <v>44552</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="H23" s="7">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="I23" s="7">
-        <v>21408</v>
+        <v>42082</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="M23" s="7">
-        <v>65</v>
+        <v>120</v>
       </c>
       <c r="N23" s="7">
-        <v>40890</v>
+        <v>86634</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B24" s="5">
-        <v>996</v>
+      <c r="B24" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="D24" s="7">
-        <v>0</v>
+        <v>60140</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>11</v>
+        <v>110</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="H24" s="7">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I24" s="7">
-        <v>0</v>
+        <v>68255</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>10</v>
+        <v>112</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>11</v>
+        <v>113</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="M24" s="7">
-        <v>0</v>
+        <v>191</v>
       </c>
       <c r="N24" s="7">
-        <v>0</v>
+        <v>128396</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>10</v>
+        <v>115</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>11</v>
+        <v>116</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C25" s="7">
-        <v>91</v>
+        <v>57</v>
       </c>
       <c r="D25" s="7">
-        <v>60140</v>
+        <v>39436</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="H25" s="7">
-        <v>100</v>
+        <v>46</v>
       </c>
       <c r="I25" s="7">
-        <v>68255</v>
+        <v>31145</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="M25" s="7">
-        <v>191</v>
+        <v>103</v>
       </c>
       <c r="N25" s="7">
-        <v>128396</v>
+        <v>70581</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C26" s="7">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="D26" s="7">
-        <v>39436</v>
+        <v>0</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>120</v>
+        <v>11</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>121</v>
+        <v>12</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="H26" s="7">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="I26" s="7">
-        <v>31145</v>
+        <v>0</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>123</v>
+        <v>11</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>124</v>
+        <v>12</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="M26" s="7">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="N26" s="7">
-        <v>70581</v>
+        <v>0</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>126</v>
+        <v>11</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>127</v>
+        <v>12</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2859,13 +2862,13 @@
         <v>99576</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="H27" s="7">
         <v>146</v>
@@ -2874,13 +2877,13 @@
         <v>99400</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="M27" s="7">
         <v>294</v>
@@ -2889,13 +2892,13 @@
         <v>198977</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -2916,7 +2919,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11F0E87B-34B5-4EC3-A0E9-CB5AB78C0F0F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09EC6D11-B7AF-4B33-BADD-E9E06C93E42C}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2933,7 +2936,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3030,155 +3033,155 @@
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="5">
-        <v>996</v>
+      <c r="B4" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>1641</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>10</v>
+        <v>131</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>130</v>
+        <v>17</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>669</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>10</v>
+        <v>132</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>131</v>
+        <v>17</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>2310</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>10</v>
+        <v>123</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>133</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="D5" s="7">
-        <v>17482</v>
+        <v>1863</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>134</v>
+        <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>135</v>
+        <v>17</v>
       </c>
       <c r="H5" s="7">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="I5" s="7">
-        <v>21192</v>
+        <v>1715</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>136</v>
       </c>
       <c r="K5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="M5" s="7">
+        <v>4</v>
+      </c>
+      <c r="N5" s="7">
+        <v>3579</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="M5" s="7">
-        <v>58</v>
-      </c>
-      <c r="N5" s="7">
-        <v>38673</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C6" s="7">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="D6" s="7">
-        <v>9612</v>
+        <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>142</v>
+        <v>11</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>143</v>
+        <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>144</v>
+        <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="I6" s="7">
-        <v>15220</v>
+        <v>0</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>145</v>
+        <v>11</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>146</v>
+        <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="M6" s="7">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="N6" s="7">
-        <v>24832</v>
+        <v>0</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>148</v>
+        <v>11</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>149</v>
+        <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3187,204 +3190,204 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="D7" s="7">
-        <v>27094</v>
+        <v>3504</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="H7" s="7">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="I7" s="7">
-        <v>36412</v>
+        <v>2384</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="M7" s="7">
-        <v>96</v>
+        <v>7</v>
       </c>
       <c r="N7" s="7">
-        <v>63505</v>
+        <v>5889</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" s="5">
-        <v>996</v>
+        <v>23</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="D8" s="7">
-        <v>0</v>
+        <v>16610</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>10</v>
+        <v>141</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>11</v>
+        <v>142</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>88</v>
+        <v>143</v>
       </c>
       <c r="H8" s="7">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I8" s="7">
-        <v>0</v>
+        <v>10533</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>10</v>
+        <v>144</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>11</v>
+        <v>145</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="M8" s="7">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="N8" s="7">
-        <v>0</v>
+        <v>27143</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>10</v>
+        <v>147</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>11</v>
+        <v>148</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C9" s="7">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="D9" s="7">
-        <v>16610</v>
+        <v>5517</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="H9" s="7">
+        <v>12</v>
+      </c>
+      <c r="I9" s="7">
+        <v>8644</v>
+      </c>
+      <c r="J9" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="K9" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="H9" s="7">
-        <v>15</v>
-      </c>
-      <c r="I9" s="7">
-        <v>10533</v>
-      </c>
-      <c r="J9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="M9" s="7">
+        <v>18</v>
+      </c>
+      <c r="N9" s="7">
+        <v>14161</v>
+      </c>
+      <c r="O9" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="L9" s="7" t="s">
+      <c r="P9" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="M9" s="7">
-        <v>39</v>
-      </c>
-      <c r="N9" s="7">
-        <v>27143</v>
-      </c>
-      <c r="O9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C10" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>5517</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>161</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>162</v>
+        <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>163</v>
+        <v>85</v>
       </c>
       <c r="H10" s="7">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>8644</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>164</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>165</v>
+        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="M10" s="7">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="N10" s="7">
-        <v>14161</v>
+        <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>167</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>168</v>
+        <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3399,13 +3402,13 @@
         <v>22127</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="H11" s="7">
         <v>27</v>
@@ -3414,13 +3417,13 @@
         <v>19177</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="M11" s="7">
         <v>57</v>
@@ -3429,168 +3432,168 @@
         <v>41304</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B12" s="5">
-        <v>996</v>
+        <v>44</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="D12" s="7">
-        <v>0</v>
+        <v>17482</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>10</v>
+        <v>161</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>11</v>
+        <v>162</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="H12" s="7">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="I12" s="7">
-        <v>0</v>
+        <v>21192</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>10</v>
+        <v>164</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>11</v>
+        <v>165</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="M12" s="7">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="N12" s="7">
-        <v>0</v>
+        <v>38673</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>10</v>
+        <v>167</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>11</v>
+        <v>168</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C13" s="7">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="D13" s="7">
-        <v>31682</v>
+        <v>9612</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="H13" s="7">
+        <v>24</v>
+      </c>
+      <c r="I13" s="7">
+        <v>15220</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="H13" s="7">
-        <v>37</v>
-      </c>
-      <c r="I13" s="7">
-        <v>27993</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>38</v>
+      </c>
+      <c r="N13" s="7">
+        <v>24832</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="M13" s="7">
-        <v>80</v>
-      </c>
-      <c r="N13" s="7">
-        <v>59675</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C14" s="7">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="D14" s="7">
-        <v>17367</v>
+        <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>182</v>
+        <v>11</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>183</v>
+        <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="H14" s="7">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="I14" s="7">
-        <v>21748</v>
+        <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>177</v>
+        <v>11</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>185</v>
+        <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="M14" s="7">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="N14" s="7">
-        <v>39115</v>
+        <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>186</v>
+        <v>11</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>187</v>
+        <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3599,204 +3602,204 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="D15" s="7">
-        <v>49049</v>
+        <v>27094</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="H15" s="7">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="I15" s="7">
-        <v>49741</v>
+        <v>36412</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="M15" s="7">
-        <v>133</v>
+        <v>96</v>
       </c>
       <c r="N15" s="7">
-        <v>98790</v>
+        <v>63505</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B16" s="5">
-        <v>996</v>
+        <v>66</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="D16" s="7">
-        <v>0</v>
+        <v>20165</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>10</v>
+        <v>181</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>11</v>
+        <v>182</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>80</v>
+        <v>183</v>
       </c>
       <c r="H16" s="7">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="I16" s="7">
-        <v>0</v>
+        <v>16428</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>10</v>
+        <v>184</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>11</v>
+        <v>185</v>
       </c>
       <c r="L16" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="M16" s="7">
+        <v>58</v>
+      </c>
+      <c r="N16" s="7">
+        <v>36592</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="M16" s="7">
-        <v>0</v>
-      </c>
-      <c r="N16" s="7">
-        <v>0</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="7">
         <v>15</v>
       </c>
-      <c r="C17" s="7">
-        <v>2</v>
-      </c>
       <c r="D17" s="7">
-        <v>1641</v>
+        <v>9853</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>10</v>
-      </c>
       <c r="G17" s="7" t="s">
-        <v>83</v>
+        <v>192</v>
       </c>
       <c r="H17" s="7">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="I17" s="7">
-        <v>669</v>
+        <v>11794</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>10</v>
+        <v>194</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>83</v>
+        <v>195</v>
       </c>
       <c r="M17" s="7">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="N17" s="7">
-        <v>2310</v>
+        <v>21648</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>125</v>
+        <v>196</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C18" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D18" s="7">
-        <v>1863</v>
+        <v>0</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>195</v>
+        <v>11</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>83</v>
+        <v>199</v>
       </c>
       <c r="H18" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" s="7">
-        <v>1715</v>
+        <v>0</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>196</v>
+        <v>11</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>83</v>
+        <v>200</v>
       </c>
       <c r="M18" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N18" s="7">
-        <v>3579</v>
+        <v>0</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>115</v>
+        <v>11</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>197</v>
+        <v>12</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3805,204 +3808,204 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="D19" s="7">
-        <v>3504</v>
+        <v>30018</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="H19" s="7">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="I19" s="7">
-        <v>2384</v>
+        <v>28222</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="M19" s="7">
-        <v>7</v>
+        <v>92</v>
       </c>
       <c r="N19" s="7">
-        <v>5889</v>
+        <v>58240</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B20" s="5">
-        <v>996</v>
+        <v>88</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C20" s="7">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="D20" s="7">
-        <v>0</v>
+        <v>31682</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>10</v>
+        <v>202</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>11</v>
+        <v>203</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="H20" s="7">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="I20" s="7">
-        <v>0</v>
+        <v>27993</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>10</v>
+        <v>205</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>11</v>
+        <v>206</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="M20" s="7">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="N20" s="7">
-        <v>0</v>
+        <v>59675</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>10</v>
+        <v>208</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>11</v>
+        <v>209</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C21" s="7">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D21" s="7">
-        <v>20165</v>
+        <v>17367</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="H21" s="7">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I21" s="7">
-        <v>16428</v>
+        <v>21748</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="K21" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>207</v>
-      </c>
       <c r="M21" s="7">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="N21" s="7">
-        <v>36592</v>
+        <v>39115</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C22" s="7">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D22" s="7">
-        <v>9853</v>
+        <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>211</v>
+        <v>11</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>212</v>
+        <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="H22" s="7">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="I22" s="7">
-        <v>11794</v>
+        <v>0</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>214</v>
+        <v>11</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>215</v>
+        <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="M22" s="7">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="N22" s="7">
-        <v>21648</v>
+        <v>0</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>217</v>
+        <v>11</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>218</v>
+        <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4011,204 +4014,204 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="D23" s="7">
-        <v>30018</v>
+        <v>49049</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="H23" s="7">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="I23" s="7">
-        <v>28222</v>
+        <v>49741</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="M23" s="7">
-        <v>92</v>
+        <v>133</v>
       </c>
       <c r="N23" s="7">
-        <v>58240</v>
+        <v>98790</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B24" s="5">
-        <v>996</v>
+      <c r="B24" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="D24" s="7">
-        <v>0</v>
+        <v>87578</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>10</v>
+        <v>221</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>11</v>
+        <v>222</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="H24" s="7">
-        <v>0</v>
+        <v>112</v>
       </c>
       <c r="I24" s="7">
-        <v>0</v>
+        <v>76814</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>10</v>
+        <v>224</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>11</v>
+        <v>225</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="M24" s="7">
-        <v>0</v>
+        <v>238</v>
       </c>
       <c r="N24" s="7">
-        <v>0</v>
+        <v>164392</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>10</v>
+        <v>227</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>11</v>
+        <v>228</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C25" s="7">
-        <v>126</v>
+        <v>61</v>
       </c>
       <c r="D25" s="7">
-        <v>87578</v>
+        <v>44214</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="H25" s="7">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="I25" s="7">
-        <v>76814</v>
+        <v>59122</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="M25" s="7">
+        <v>147</v>
+      </c>
+      <c r="N25" s="7">
+        <v>103336</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="N25" s="7">
-        <v>164392</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C26" s="7">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="D26" s="7">
-        <v>44214</v>
+        <v>0</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>232</v>
+        <v>11</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>233</v>
+        <v>12</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="H26" s="7">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="I26" s="7">
-        <v>59122</v>
+        <v>0</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>235</v>
+        <v>11</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>236</v>
+        <v>12</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="M26" s="7">
-        <v>147</v>
+        <v>0</v>
       </c>
       <c r="N26" s="7">
-        <v>103336</v>
+        <v>0</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>238</v>
+        <v>11</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>239</v>
+        <v>12</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4223,13 +4226,13 @@
         <v>131792</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="H27" s="7">
         <v>198</v>
@@ -4238,13 +4241,13 @@
         <v>135936</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="M27" s="7">
         <v>385</v>
@@ -4253,13 +4256,13 @@
         <v>267728</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -4280,7 +4283,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{976AF933-C08A-458D-90A9-73D8DFB6C7BA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E393FBF9-8AE7-4E67-B949-9C382C4225CB}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4297,7 +4300,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4394,155 +4397,155 @@
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="5">
-        <v>996</v>
+      <c r="B4" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>1648</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>10</v>
+        <v>122</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>2646</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>10</v>
+        <v>244</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>245</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>4294</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>10</v>
+        <v>247</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>248</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="D5" s="7">
-        <v>35001</v>
+        <v>5154</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>245</v>
+        <v>114</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>247</v>
+        <v>17</v>
       </c>
       <c r="H5" s="7">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="I5" s="7">
-        <v>29581</v>
+        <v>3911</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="M5" s="7">
-        <v>96</v>
+        <v>10</v>
       </c>
       <c r="N5" s="7">
-        <v>64581</v>
+        <v>9064</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C6" s="7">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="D6" s="7">
-        <v>19605</v>
+        <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>254</v>
+        <v>11</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>255</v>
+        <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H6" s="7">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="I6" s="7">
-        <v>21420</v>
+        <v>0</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>257</v>
+        <v>11</v>
       </c>
       <c r="K6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="M6" s="7">
+        <v>0</v>
+      </c>
+      <c r="N6" s="7">
+        <v>0</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="M6" s="7">
-        <v>65</v>
-      </c>
-      <c r="N6" s="7">
-        <v>41026</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4551,204 +4554,204 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>79</v>
+        <v>8</v>
       </c>
       <c r="D7" s="7">
-        <v>54606</v>
+        <v>6802</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="H7" s="7">
-        <v>82</v>
+        <v>7</v>
       </c>
       <c r="I7" s="7">
-        <v>51001</v>
+        <v>6557</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="M7" s="7">
-        <v>161</v>
+        <v>15</v>
       </c>
       <c r="N7" s="7">
-        <v>105607</v>
+        <v>13358</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" s="5">
-        <v>996</v>
+        <v>23</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D8" s="7">
-        <v>0</v>
+        <v>10158</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>10</v>
+        <v>259</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>11</v>
+        <v>260</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>151</v>
+        <v>261</v>
       </c>
       <c r="H8" s="7">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="I8" s="7">
-        <v>0</v>
+        <v>18418</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>10</v>
+        <v>262</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>11</v>
+        <v>263</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>130</v>
+        <v>264</v>
       </c>
       <c r="M8" s="7">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="N8" s="7">
-        <v>0</v>
+        <v>28576</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>10</v>
+        <v>265</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>11</v>
+        <v>266</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>171</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C9" s="7">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D9" s="7">
-        <v>10158</v>
+        <v>9506</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="H9" s="7">
+        <v>13</v>
+      </c>
+      <c r="I9" s="7">
+        <v>8141</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="M9" s="7">
         <v>26</v>
       </c>
-      <c r="I9" s="7">
-        <v>18418</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="M9" s="7">
-        <v>40</v>
-      </c>
       <c r="N9" s="7">
-        <v>28576</v>
+        <v>17648</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>270</v>
+        <v>132</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>196</v>
+        <v>274</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C10" s="7">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>9506</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>271</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>272</v>
+        <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>273</v>
+        <v>159</v>
       </c>
       <c r="H10" s="7">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>8141</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>274</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>275</v>
+        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>276</v>
+        <v>179</v>
       </c>
       <c r="M10" s="7">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="N10" s="7">
-        <v>17648</v>
+        <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>277</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>192</v>
+        <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>278</v>
+        <v>219</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4763,13 +4766,13 @@
         <v>19664</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="H11" s="7">
         <v>39</v>
@@ -4778,13 +4781,13 @@
         <v>26559</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="M11" s="7">
         <v>66</v>
@@ -4793,168 +4796,168 @@
         <v>46224</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B12" s="5">
-        <v>996</v>
+        <v>44</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="D12" s="7">
-        <v>0</v>
+        <v>35001</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>10</v>
+        <v>275</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>11</v>
+        <v>276</v>
       </c>
       <c r="G12" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="H12" s="7">
+        <v>46</v>
+      </c>
+      <c r="I12" s="7">
+        <v>29581</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="H12" s="7">
-        <v>0</v>
-      </c>
-      <c r="I12" s="7">
-        <v>0</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>280</v>
       </c>
       <c r="M12" s="7">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="N12" s="7">
-        <v>0</v>
+        <v>64581</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>10</v>
+        <v>281</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>11</v>
+        <v>282</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C13" s="7">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="D13" s="7">
-        <v>37785</v>
+        <v>19605</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="H13" s="7">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="I13" s="7">
-        <v>36630</v>
+        <v>21420</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="M13" s="7">
-        <v>101</v>
+        <v>65</v>
       </c>
       <c r="N13" s="7">
-        <v>74416</v>
+        <v>41026</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C14" s="7">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="D14" s="7">
-        <v>23111</v>
+        <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>291</v>
+        <v>11</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>292</v>
+        <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>293</v>
       </c>
       <c r="H14" s="7">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="I14" s="7">
-        <v>28169</v>
+        <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>0</v>
+      </c>
+      <c r="N14" s="7">
+        <v>0</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>295</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="M14" s="7">
-        <v>74</v>
-      </c>
-      <c r="N14" s="7">
-        <v>51279</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4963,201 +4966,201 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="D15" s="7">
-        <v>60896</v>
+        <v>54606</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="H15" s="7">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="I15" s="7">
-        <v>64799</v>
+        <v>51001</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="M15" s="7">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="N15" s="7">
-        <v>125695</v>
+        <v>105607</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B16" s="5">
-        <v>996</v>
+        <v>66</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="D16" s="7">
-        <v>0</v>
+        <v>36813</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>10</v>
+        <v>296</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>11</v>
+        <v>297</v>
       </c>
       <c r="G16" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="H16" s="7">
+        <v>41</v>
+      </c>
+      <c r="I16" s="7">
+        <v>24820</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="H16" s="7">
-        <v>0</v>
-      </c>
-      <c r="I16" s="7">
-        <v>0</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="L16" s="7" t="s">
-        <v>190</v>
+        <v>301</v>
       </c>
       <c r="M16" s="7">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="N16" s="7">
-        <v>0</v>
+        <v>61633</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>10</v>
+        <v>302</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>11</v>
+        <v>303</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="D17" s="7">
-        <v>1648</v>
+        <v>13715</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>124</v>
+        <v>305</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>10</v>
+        <v>306</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="H17" s="7">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="I17" s="7">
-        <v>2646</v>
+        <v>13743</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="M17" s="7">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="N17" s="7">
-        <v>4294</v>
+        <v>27458</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C18" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D18" s="7">
-        <v>5154</v>
+        <v>0</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>116</v>
+        <v>11</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>309</v>
+        <v>12</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>83</v>
+        <v>314</v>
       </c>
       <c r="H18" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I18" s="7">
-        <v>3911</v>
+        <v>0</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>310</v>
+        <v>11</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>311</v>
+        <v>12</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>312</v>
+        <v>87</v>
       </c>
       <c r="M18" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="N18" s="7">
-        <v>9064</v>
+        <v>0</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>313</v>
+        <v>11</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>314</v>
+        <v>12</v>
       </c>
       <c r="Q18" s="7" t="s">
         <v>315</v>
@@ -5169,204 +5172,204 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>8</v>
+        <v>74</v>
       </c>
       <c r="D19" s="7">
-        <v>6802</v>
+        <v>50528</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="H19" s="7">
-        <v>7</v>
+        <v>65</v>
       </c>
       <c r="I19" s="7">
-        <v>6557</v>
+        <v>38563</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="M19" s="7">
-        <v>15</v>
+        <v>139</v>
       </c>
       <c r="N19" s="7">
-        <v>13358</v>
+        <v>89091</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B20" s="5">
-        <v>996</v>
+        <v>88</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C20" s="7">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="D20" s="7">
-        <v>0</v>
+        <v>37785</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>10</v>
+        <v>316</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>11</v>
+        <v>317</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="H20" s="7">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="I20" s="7">
-        <v>0</v>
+        <v>36630</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>10</v>
+        <v>319</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>11</v>
+        <v>320</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>58</v>
+        <v>321</v>
       </c>
       <c r="M20" s="7">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="N20" s="7">
-        <v>0</v>
+        <v>74416</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>10</v>
+        <v>322</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>11</v>
+        <v>323</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C21" s="7">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="D21" s="7">
-        <v>36813</v>
+        <v>23111</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="H21" s="7">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I21" s="7">
-        <v>24820</v>
+        <v>28169</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="M21" s="7">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="N21" s="7">
-        <v>61633</v>
+        <v>51279</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C22" s="7">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="D22" s="7">
-        <v>13715</v>
+        <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>327</v>
+        <v>11</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>328</v>
+        <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="H22" s="7">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="I22" s="7">
-        <v>13743</v>
+        <v>0</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>330</v>
+        <v>11</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>331</v>
+        <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="M22" s="7">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="N22" s="7">
-        <v>27458</v>
+        <v>0</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>333</v>
+        <v>11</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>334</v>
+        <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5375,204 +5378,204 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="D23" s="7">
-        <v>50528</v>
+        <v>60896</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="H23" s="7">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="I23" s="7">
-        <v>38563</v>
+        <v>64799</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="M23" s="7">
-        <v>139</v>
+        <v>175</v>
       </c>
       <c r="N23" s="7">
-        <v>89091</v>
+        <v>125695</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B24" s="5">
-        <v>996</v>
+      <c r="B24" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>0</v>
+        <v>171</v>
       </c>
       <c r="D24" s="7">
-        <v>0</v>
+        <v>121405</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>10</v>
+        <v>337</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>11</v>
+        <v>338</v>
       </c>
       <c r="G24" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="H24" s="7">
+        <v>165</v>
+      </c>
+      <c r="I24" s="7">
+        <v>112095</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="M24" s="7">
         <v>336</v>
       </c>
-      <c r="H24" s="7">
-        <v>0</v>
-      </c>
-      <c r="I24" s="7">
-        <v>0</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="M24" s="7">
-        <v>0</v>
-      </c>
       <c r="N24" s="7">
-        <v>0</v>
+        <v>233500</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>10</v>
+        <v>343</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>11</v>
+        <v>344</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C25" s="7">
-        <v>171</v>
+        <v>103</v>
       </c>
       <c r="D25" s="7">
-        <v>121405</v>
+        <v>71091</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="H25" s="7">
-        <v>165</v>
+        <v>117</v>
       </c>
       <c r="I25" s="7">
-        <v>112095</v>
+        <v>75384</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="M25" s="7">
-        <v>336</v>
+        <v>220</v>
       </c>
       <c r="N25" s="7">
-        <v>233500</v>
+        <v>146475</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C26" s="7">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="D26" s="7">
-        <v>71091</v>
+        <v>0</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>348</v>
+        <v>11</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>349</v>
+        <v>12</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="H26" s="7">
-        <v>117</v>
+        <v>0</v>
       </c>
       <c r="I26" s="7">
-        <v>75384</v>
+        <v>0</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>351</v>
+        <v>11</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>352</v>
+        <v>12</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="M26" s="7">
-        <v>220</v>
+        <v>0</v>
       </c>
       <c r="N26" s="7">
-        <v>146475</v>
+        <v>0</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>354</v>
+        <v>11</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>355</v>
+        <v>12</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5587,13 +5590,13 @@
         <v>192496</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="H27" s="7">
         <v>282</v>
@@ -5602,13 +5605,13 @@
         <v>187479</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="M27" s="7">
         <v>556</v>
@@ -5617,13 +5620,13 @@
         <v>379975</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -5644,7 +5647,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D12434F0-3627-4CCA-84C2-5F05F40909F9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02A31185-FE56-4D0A-AF63-FE850D8EC958}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5661,7 +5664,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5758,155 +5761,137 @@
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="5">
-        <v>996</v>
+      <c r="B4" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>5</v>
-      </c>
-      <c r="D4" s="7">
-        <v>4313</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>83</v>
+        <v>359</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>86</v>
+        <v>359</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>35</v>
+        <v>359</v>
       </c>
       <c r="H4" s="7">
-        <v>3</v>
-      </c>
-      <c r="I4" s="7">
-        <v>1696</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>83</v>
+        <v>359</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>35</v>
+        <v>359</v>
       </c>
       <c r="M4" s="7">
-        <v>8</v>
-      </c>
-      <c r="N4" s="7">
-        <v>6010</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>83</v>
+        <v>359</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>359</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>35</v>
+        <v>359</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
       </c>
-      <c r="D5" s="7">
-        <v>0</v>
-      </c>
+      <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>10</v>
+        <v>359</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>11</v>
+        <v>359</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>82</v>
+        <v>359</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
-      <c r="I5" s="7">
-        <v>0</v>
-      </c>
+      <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>10</v>
+        <v>359</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>11</v>
+        <v>359</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>189</v>
+        <v>359</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
-      <c r="N5" s="7">
-        <v>0</v>
-      </c>
+      <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>10</v>
+        <v>359</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>11</v>
+        <v>359</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>300</v>
+        <v>359</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C6" s="7">
         <v>0</v>
       </c>
-      <c r="D6" s="7">
-        <v>0</v>
-      </c>
+      <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>10</v>
+        <v>359</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>11</v>
+        <v>359</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>82</v>
+        <v>359</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
-      <c r="I6" s="7">
-        <v>0</v>
-      </c>
+      <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>10</v>
+        <v>359</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>11</v>
+        <v>359</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>189</v>
+        <v>359</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
-      <c r="N6" s="7">
-        <v>0</v>
-      </c>
+      <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>10</v>
+        <v>359</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>11</v>
+        <v>359</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>300</v>
+        <v>359</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5915,108 +5900,102 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>5</v>
-      </c>
-      <c r="D7" s="7">
-        <v>4313</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D7" s="7"/>
       <c r="E7" s="7" t="s">
-        <v>35</v>
+        <v>359</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>35</v>
+        <v>359</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>35</v>
+        <v>359</v>
       </c>
       <c r="H7" s="7">
-        <v>3</v>
-      </c>
-      <c r="I7" s="7">
-        <v>1696</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" s="7"/>
       <c r="J7" s="7" t="s">
-        <v>35</v>
+        <v>359</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>35</v>
+        <v>359</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>35</v>
+        <v>359</v>
       </c>
       <c r="M7" s="7">
-        <v>8</v>
-      </c>
-      <c r="N7" s="7">
-        <v>6010</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N7" s="7"/>
       <c r="O7" s="7" t="s">
-        <v>35</v>
+        <v>359</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>35</v>
+        <v>359</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>35</v>
+        <v>359</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" s="5">
-        <v>996</v>
+        <v>23</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D8" s="7">
-        <v>2468</v>
+        <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>83</v>
+        <v>11</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="H8" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I8" s="7">
-        <v>3739</v>
+        <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>83</v>
+        <v>11</v>
       </c>
       <c r="K8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>360</v>
       </c>
-      <c r="L8" s="7" t="s">
-        <v>35</v>
-      </c>
       <c r="M8" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="N8" s="7">
-        <v>6207</v>
+        <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>83</v>
+        <v>11</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C9" s="7">
         <v>0</v>
@@ -6025,13 +6004,13 @@
         <v>0</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -6040,13 +6019,13 @@
         <v>0</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -6055,64 +6034,64 @@
         <v>0</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C10" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D10" s="7">
-        <v>0</v>
+        <v>2468</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" s="7">
+        <v>6</v>
+      </c>
+      <c r="I10" s="7">
+        <v>3739</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M10" s="7">
         <v>10</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="H10" s="7">
-        <v>0</v>
-      </c>
-      <c r="I10" s="7">
-        <v>0</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="M10" s="7">
-        <v>0</v>
-      </c>
       <c r="N10" s="7">
-        <v>0</v>
+        <v>6207</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>52</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6127,13 +6106,13 @@
         <v>2468</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="H11" s="7">
         <v>6</v>
@@ -6142,13 +6121,13 @@
         <v>3739</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="M11" s="7">
         <v>10</v>
@@ -6157,88 +6136,88 @@
         <v>6207</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B12" s="5">
-        <v>996</v>
+        <v>44</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D12" s="7">
-        <v>3704</v>
+        <v>0</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>83</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="H12" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I12" s="7">
-        <v>6989</v>
+        <v>0</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>83</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>35</v>
+        <v>139</v>
       </c>
       <c r="M12" s="7">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="N12" s="7">
-        <v>10693</v>
+        <v>0</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>83</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>362</v>
+        <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>35</v>
+        <v>257</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="7">
+        <v>0</v>
+      </c>
+      <c r="D13" s="7">
+        <v>0</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="7">
-        <v>0</v>
-      </c>
-      <c r="D13" s="7">
-        <v>0</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>80</v>
-      </c>
       <c r="H13" s="7">
         <v>0</v>
       </c>
@@ -6246,13 +6225,13 @@
         <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>52</v>
+        <v>139</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -6261,64 +6240,64 @@
         <v>0</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>363</v>
+        <v>257</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>4313</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>80</v>
+        <v>19</v>
       </c>
       <c r="H14" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I14" s="7">
-        <v>0</v>
+        <v>1696</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>11</v>
+        <v>362</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="M14" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="N14" s="7">
-        <v>0</v>
+        <v>6010</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>11</v>
+        <v>363</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>363</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6327,80 +6306,84 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D15" s="7">
-        <v>3704</v>
+        <v>4313</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="H15" s="7">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="I15" s="7">
-        <v>6989</v>
+        <v>1696</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="M15" s="7">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="N15" s="7">
-        <v>10693</v>
+        <v>6010</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B16" s="5">
-        <v>996</v>
+        <v>66</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C16" s="7">
         <v>0</v>
       </c>
-      <c r="D16" s="7"/>
+      <c r="D16" s="7">
+        <v>0</v>
+      </c>
       <c r="E16" s="7" t="s">
-        <v>364</v>
+        <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>364</v>
+        <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>364</v>
+        <v>13</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
       </c>
-      <c r="I16" s="7"/>
+      <c r="I16" s="7">
+        <v>0</v>
+      </c>
       <c r="J16" s="7" t="s">
-        <v>364</v>
+        <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>364</v>
+        <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>364</v>
@@ -6408,44 +6391,50 @@
       <c r="M16" s="7">
         <v>0</v>
       </c>
-      <c r="N16" s="7"/>
+      <c r="N16" s="7">
+        <v>0</v>
+      </c>
       <c r="O16" s="7" t="s">
-        <v>364</v>
+        <v>11</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>364</v>
+        <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
         <v>0</v>
       </c>
-      <c r="D17" s="7"/>
+      <c r="D17" s="7">
+        <v>0</v>
+      </c>
       <c r="E17" s="7" t="s">
-        <v>364</v>
+        <v>11</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>364</v>
+        <v>12</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>364</v>
+        <v>13</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
       </c>
-      <c r="I17" s="7"/>
+      <c r="I17" s="7">
+        <v>0</v>
+      </c>
       <c r="J17" s="7" t="s">
-        <v>364</v>
+        <v>11</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>364</v>
+        <v>12</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>364</v>
@@ -6453,60 +6442,68 @@
       <c r="M17" s="7">
         <v>0</v>
       </c>
-      <c r="N17" s="7"/>
+      <c r="N17" s="7">
+        <v>0</v>
+      </c>
       <c r="O17" s="7" t="s">
-        <v>364</v>
+        <v>11</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>364</v>
+        <v>12</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C18" s="7">
-        <v>0</v>
-      </c>
-      <c r="D18" s="7"/>
+        <v>4</v>
+      </c>
+      <c r="D18" s="7">
+        <v>3098</v>
+      </c>
       <c r="E18" s="7" t="s">
-        <v>364</v>
+        <v>17</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>364</v>
+        <v>18</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>364</v>
+        <v>19</v>
       </c>
       <c r="H18" s="7">
-        <v>0</v>
-      </c>
-      <c r="I18" s="7"/>
+        <v>12</v>
+      </c>
+      <c r="I18" s="7">
+        <v>7629</v>
+      </c>
       <c r="J18" s="7" t="s">
-        <v>364</v>
+        <v>17</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>364</v>
+        <v>19</v>
       </c>
       <c r="M18" s="7">
-        <v>0</v>
-      </c>
-      <c r="N18" s="7"/>
+        <v>16</v>
+      </c>
+      <c r="N18" s="7">
+        <v>10726</v>
+      </c>
       <c r="O18" s="7" t="s">
-        <v>364</v>
+        <v>17</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>364</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6515,102 +6512,108 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>0</v>
-      </c>
-      <c r="D19" s="7"/>
+        <v>4</v>
+      </c>
+      <c r="D19" s="7">
+        <v>3098</v>
+      </c>
       <c r="E19" s="7" t="s">
-        <v>364</v>
+        <v>19</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>364</v>
+        <v>19</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>364</v>
+        <v>19</v>
       </c>
       <c r="H19" s="7">
-        <v>0</v>
-      </c>
-      <c r="I19" s="7"/>
+        <v>12</v>
+      </c>
+      <c r="I19" s="7">
+        <v>7629</v>
+      </c>
       <c r="J19" s="7" t="s">
-        <v>364</v>
+        <v>19</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>364</v>
+        <v>19</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>364</v>
+        <v>19</v>
       </c>
       <c r="M19" s="7">
-        <v>0</v>
-      </c>
-      <c r="N19" s="7"/>
+        <v>16</v>
+      </c>
+      <c r="N19" s="7">
+        <v>10726</v>
+      </c>
       <c r="O19" s="7" t="s">
-        <v>364</v>
+        <v>19</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>364</v>
+        <v>19</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>364</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B20" s="5">
-        <v>996</v>
+        <v>88</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C20" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D20" s="7">
-        <v>3098</v>
+        <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>83</v>
+        <v>11</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="H20" s="7">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="I20" s="7">
-        <v>7629</v>
+        <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>83</v>
+        <v>11</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>365</v>
+        <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M20" s="7">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="N20" s="7">
-        <v>10726</v>
+        <v>0</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>83</v>
+        <v>11</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>366</v>
+        <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>35</v>
+        <v>368</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C21" s="7">
         <v>0</v>
@@ -6619,13 +6622,13 @@
         <v>0</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -6634,13 +6637,13 @@
         <v>0</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>367</v>
+        <v>37</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -6649,10 +6652,10 @@
         <v>0</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q21" s="7" t="s">
         <v>368</v>
@@ -6661,52 +6664,52 @@
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C22" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D22" s="7">
-        <v>0</v>
+        <v>3704</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H22" s="7">
         <v>10</v>
       </c>
-      <c r="F22" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="H22" s="7">
-        <v>0</v>
-      </c>
       <c r="I22" s="7">
-        <v>0</v>
+        <v>6989</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>367</v>
+        <v>19</v>
       </c>
       <c r="M22" s="7">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="N22" s="7">
-        <v>0</v>
+        <v>10693</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>11</v>
+        <v>369</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>368</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6718,105 +6721,105 @@
         <v>4</v>
       </c>
       <c r="D23" s="7">
-        <v>3098</v>
+        <v>3704</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="H23" s="7">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I23" s="7">
-        <v>7629</v>
+        <v>6989</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="M23" s="7">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N23" s="7">
-        <v>10726</v>
+        <v>10693</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B24" s="5">
-        <v>996</v>
+      <c r="B24" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="D24" s="7">
-        <v>13583</v>
+        <v>0</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>83</v>
+        <v>11</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>369</v>
+        <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>35</v>
+        <v>370</v>
       </c>
       <c r="H24" s="7">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="I24" s="7">
-        <v>20053</v>
+        <v>0</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>83</v>
+        <v>11</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>370</v>
+        <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="M24" s="7">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="N24" s="7">
-        <v>33636</v>
+        <v>0</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>83</v>
+        <v>11</v>
       </c>
       <c r="P24" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>371</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C25" s="7">
         <v>0</v>
@@ -6825,13 +6828,13 @@
         <v>0</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -6840,13 +6843,13 @@
         <v>0</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -6855,64 +6858,64 @@
         <v>0</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C26" s="7">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D26" s="7">
-        <v>0</v>
+        <v>13583</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>11</v>
+        <v>372</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>372</v>
+        <v>19</v>
       </c>
       <c r="H26" s="7">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="I26" s="7">
-        <v>0</v>
+        <v>20053</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>11</v>
+        <v>373</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="M26" s="7">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="N26" s="7">
-        <v>0</v>
+        <v>33636</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>11</v>
+        <v>374</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>373</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6927,13 +6930,13 @@
         <v>13583</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="H27" s="7">
         <v>31</v>
@@ -6942,13 +6945,13 @@
         <v>20053</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="M27" s="7">
         <v>48</v>
@@ -6957,13 +6960,13 @@
         <v>33636</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP33A-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP33A-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D5867BAD-4F77-4CB9-B794-226CB410F91F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4CF155ED-A429-41FA-B507-6A18B4C57271}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{053CF760-F394-4A58-95D7-BF999B1E8363}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F6967501-76A1-4072-925C-0CB966A02953}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1060" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="386">
   <si>
     <t>Adultos según si viven actualmente en pareja en 2007 (Tasa respuesta: 13,97%)</t>
   </si>
@@ -71,1099 +71,1132 @@
     <t>Menos de 2</t>
   </si>
   <si>
+    <t>996.0</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>69,43%</t>
+  </si>
+  <si>
     <t>No</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>69,43%</t>
-  </si>
-  <si>
-    <t>996.0</t>
-  </si>
-  <si>
     <t>2/10</t>
   </si>
   <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>42,34%</t>
+  </si>
+  <si>
+    <t>35,02%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>57,75%</t>
+  </si>
+  <si>
+    <t>27,73%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>44,37%</t>
+  </si>
+  <si>
     <t>79,48%</t>
   </si>
   <si>
-    <t>52,78%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
+    <t>57,66%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
   </si>
   <si>
     <t>64,98%</t>
   </si>
   <si>
-    <t>38,31%</t>
+    <t>42,25%</t>
+  </si>
+  <si>
+    <t>83,3%</t>
+  </si>
+  <si>
+    <t>72,27%</t>
+  </si>
+  <si>
+    <t>55,63%</t>
+  </si>
+  <si>
+    <t>85,36%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>38,87%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>57,33%</t>
+  </si>
+  <si>
+    <t>29,66%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>45,13%</t>
+  </si>
+  <si>
+    <t>33,95%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>45,72%</t>
+  </si>
+  <si>
+    <t>61,13%</t>
+  </si>
+  <si>
+    <t>42,67%</t>
+  </si>
+  <si>
+    <t>79,92%</t>
+  </si>
+  <si>
+    <t>70,34%</t>
+  </si>
+  <si>
+    <t>54,87%</t>
+  </si>
+  <si>
+    <t>83,86%</t>
+  </si>
+  <si>
+    <t>66,05%</t>
+  </si>
+  <si>
+    <t>54,28%</t>
+  </si>
+  <si>
+    <t>77,68%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>34,76%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>55,34%</t>
+  </si>
+  <si>
+    <t>37,19%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>53,79%</t>
+  </si>
+  <si>
+    <t>36,03%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>48,45%</t>
+  </si>
+  <si>
+    <t>65,24%</t>
+  </si>
+  <si>
+    <t>44,66%</t>
+  </si>
+  <si>
+    <t>82,1%</t>
+  </si>
+  <si>
+    <t>62,81%</t>
+  </si>
+  <si>
+    <t>46,21%</t>
+  </si>
+  <si>
+    <t>77,61%</t>
+  </si>
+  <si>
+    <t>63,97%</t>
+  </si>
+  <si>
+    <t>51,55%</t>
+  </si>
+  <si>
+    <t>74,92%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>42,82%</t>
+  </si>
+  <si>
+    <t>32,01%</t>
+  </si>
+  <si>
+    <t>54,98%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>39,97%</t>
+  </si>
+  <si>
+    <t>35,16%</t>
+  </si>
+  <si>
+    <t>26,81%</t>
+  </si>
+  <si>
+    <t>44,08%</t>
+  </si>
+  <si>
+    <t>57,18%</t>
+  </si>
+  <si>
+    <t>45,02%</t>
+  </si>
+  <si>
+    <t>67,99%</t>
+  </si>
+  <si>
+    <t>72,94%</t>
+  </si>
+  <si>
+    <t>60,03%</t>
+  </si>
+  <si>
+    <t>83,01%</t>
+  </si>
+  <si>
+    <t>64,84%</t>
+  </si>
+  <si>
+    <t>55,92%</t>
+  </si>
+  <si>
+    <t>73,19%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>39,6%</t>
+  </si>
+  <si>
+    <t>31,7%</t>
+  </si>
+  <si>
+    <t>46,91%</t>
+  </si>
+  <si>
+    <t>31,33%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>39,32%</t>
+  </si>
+  <si>
+    <t>35,47%</t>
+  </si>
+  <si>
+    <t>30,09%</t>
+  </si>
+  <si>
+    <t>40,81%</t>
+  </si>
+  <si>
+    <t>60,4%</t>
+  </si>
+  <si>
+    <t>53,09%</t>
+  </si>
+  <si>
+    <t>68,3%</t>
+  </si>
+  <si>
+    <t>68,67%</t>
+  </si>
+  <si>
+    <t>60,68%</t>
+  </si>
+  <si>
+    <t>75,8%</t>
+  </si>
+  <si>
+    <t>64,53%</t>
+  </si>
+  <si>
+    <t>59,19%</t>
+  </si>
+  <si>
+    <t>69,91%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Adultos según si viven actualmente en pareja en 2012 (Tasa respuesta: 18,34%)</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>53,18%</t>
+  </si>
+  <si>
+    <t>71,95%</t>
+  </si>
+  <si>
+    <t>60,78%</t>
+  </si>
+  <si>
+    <t>25,28%</t>
+  </si>
+  <si>
+    <t>90,29%</t>
+  </si>
+  <si>
+    <t>46,82%</t>
+  </si>
+  <si>
+    <t>28,05%</t>
+  </si>
+  <si>
+    <t>39,22%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>74,72%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>24,94%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>43,93%</t>
+  </si>
+  <si>
+    <t>45,07%</t>
+  </si>
+  <si>
+    <t>25,61%</t>
+  </si>
+  <si>
+    <t>63,43%</t>
+  </si>
+  <si>
+    <t>34,29%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>47,52%</t>
+  </si>
+  <si>
+    <t>75,06%</t>
+  </si>
+  <si>
+    <t>56,07%</t>
+  </si>
+  <si>
+    <t>91,16%</t>
+  </si>
+  <si>
+    <t>54,93%</t>
+  </si>
+  <si>
+    <t>36,57%</t>
+  </si>
+  <si>
+    <t>74,39%</t>
+  </si>
+  <si>
+    <t>65,71%</t>
+  </si>
+  <si>
+    <t>52,48%</t>
+  </si>
+  <si>
+    <t>78,17%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>35,48%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>51,03%</t>
+  </si>
+  <si>
+    <t>41,8%</t>
+  </si>
+  <si>
+    <t>29,58%</t>
+  </si>
+  <si>
+    <t>55,64%</t>
+  </si>
+  <si>
+    <t>39,1%</t>
+  </si>
+  <si>
+    <t>29,0%</t>
+  </si>
+  <si>
+    <t>49,08%</t>
+  </si>
+  <si>
+    <t>64,52%</t>
+  </si>
+  <si>
+    <t>48,97%</t>
+  </si>
+  <si>
+    <t>78,88%</t>
+  </si>
+  <si>
+    <t>58,2%</t>
+  </si>
+  <si>
+    <t>44,36%</t>
+  </si>
+  <si>
+    <t>70,42%</t>
+  </si>
+  <si>
+    <t>60,9%</t>
+  </si>
+  <si>
+    <t>50,92%</t>
+  </si>
+  <si>
+    <t>71,0%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>32,82%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>46,88%</t>
+  </si>
+  <si>
+    <t>41,79%</t>
+  </si>
+  <si>
+    <t>27,42%</t>
+  </si>
+  <si>
+    <t>56,41%</t>
+  </si>
+  <si>
+    <t>37,17%</t>
+  </si>
+  <si>
+    <t>27,39%</t>
+  </si>
+  <si>
+    <t>48,16%</t>
+  </si>
+  <si>
+    <t>67,18%</t>
+  </si>
+  <si>
+    <t>53,12%</t>
+  </si>
+  <si>
+    <t>80,83%</t>
+  </si>
+  <si>
+    <t>58,21%</t>
+  </si>
+  <si>
+    <t>43,59%</t>
+  </si>
+  <si>
+    <t>72,58%</t>
+  </si>
+  <si>
+    <t>62,83%</t>
+  </si>
+  <si>
+    <t>51,84%</t>
+  </si>
+  <si>
+    <t>72,61%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>35,41%</t>
+  </si>
+  <si>
+    <t>24,85%</t>
+  </si>
+  <si>
+    <t>47,68%</t>
+  </si>
+  <si>
+    <t>43,72%</t>
+  </si>
+  <si>
+    <t>33,22%</t>
+  </si>
+  <si>
+    <t>55,74%</t>
+  </si>
+  <si>
+    <t>39,59%</t>
+  </si>
+  <si>
+    <t>31,21%</t>
+  </si>
+  <si>
+    <t>47,98%</t>
+  </si>
+  <si>
+    <t>64,59%</t>
+  </si>
+  <si>
+    <t>52,32%</t>
+  </si>
+  <si>
+    <t>75,15%</t>
+  </si>
+  <si>
+    <t>56,28%</t>
+  </si>
+  <si>
+    <t>44,26%</t>
+  </si>
+  <si>
+    <t>66,78%</t>
+  </si>
+  <si>
+    <t>60,41%</t>
+  </si>
+  <si>
+    <t>52,02%</t>
+  </si>
+  <si>
+    <t>68,79%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>33,55%</t>
+  </si>
+  <si>
+    <t>26,53%</t>
+  </si>
+  <si>
+    <t>40,41%</t>
+  </si>
+  <si>
+    <t>43,49%</t>
+  </si>
+  <si>
+    <t>36,14%</t>
+  </si>
+  <si>
+    <t>50,11%</t>
+  </si>
+  <si>
+    <t>38,6%</t>
+  </si>
+  <si>
+    <t>33,82%</t>
+  </si>
+  <si>
+    <t>43,9%</t>
+  </si>
+  <si>
+    <t>66,45%</t>
+  </si>
+  <si>
+    <t>59,59%</t>
+  </si>
+  <si>
+    <t>73,47%</t>
+  </si>
+  <si>
+    <t>56,51%</t>
+  </si>
+  <si>
+    <t>49,89%</t>
+  </si>
+  <si>
+    <t>63,86%</t>
+  </si>
+  <si>
+    <t>61,4%</t>
+  </si>
+  <si>
+    <t>56,1%</t>
+  </si>
+  <si>
+    <t>66,18%</t>
+  </si>
+  <si>
+    <t>Adultos según si viven actualmente en pareja en 2015 (Tasa respuesta: 26,15%)</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>75,77%</t>
+  </si>
+  <si>
+    <t>30,01%</t>
+  </si>
+  <si>
+    <t>59,65%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>91,96%</t>
+  </si>
+  <si>
+    <t>67,86%</t>
+  </si>
+  <si>
+    <t>38,63%</t>
+  </si>
+  <si>
+    <t>88,31%</t>
+  </si>
+  <si>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>69,99%</t>
+  </si>
+  <si>
+    <t>40,35%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>81,98%</t>
+  </si>
+  <si>
+    <t>32,14%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>61,37%</t>
+  </si>
+  <si>
+    <t>48,34%</t>
+  </si>
+  <si>
+    <t>29,69%</t>
+  </si>
+  <si>
+    <t>66,96%</t>
+  </si>
+  <si>
+    <t>30,65%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>46,2%</t>
+  </si>
+  <si>
+    <t>38,18%</t>
+  </si>
+  <si>
+    <t>27,17%</t>
+  </si>
+  <si>
+    <t>49,28%</t>
+  </si>
+  <si>
+    <t>51,66%</t>
+  </si>
+  <si>
+    <t>33,04%</t>
+  </si>
+  <si>
+    <t>70,31%</t>
+  </si>
+  <si>
+    <t>69,35%</t>
+  </si>
+  <si>
+    <t>53,8%</t>
+  </si>
+  <si>
+    <t>81,86%</t>
+  </si>
+  <si>
+    <t>61,82%</t>
+  </si>
+  <si>
+    <t>50,72%</t>
+  </si>
+  <si>
+    <t>72,83%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>35,9%</t>
+  </si>
+  <si>
+    <t>24,73%</t>
+  </si>
+  <si>
+    <t>46,99%</t>
+  </si>
+  <si>
+    <t>42,0%</t>
+  </si>
+  <si>
+    <t>30,92%</t>
+  </si>
+  <si>
+    <t>52,06%</t>
+  </si>
+  <si>
+    <t>38,85%</t>
+  </si>
+  <si>
+    <t>31,08%</t>
+  </si>
+  <si>
+    <t>46,19%</t>
+  </si>
+  <si>
+    <t>64,1%</t>
+  </si>
+  <si>
+    <t>53,01%</t>
+  </si>
+  <si>
+    <t>75,27%</t>
+  </si>
+  <si>
+    <t>58,0%</t>
+  </si>
+  <si>
+    <t>47,94%</t>
+  </si>
+  <si>
+    <t>69,08%</t>
+  </si>
+  <si>
+    <t>61,15%</t>
+  </si>
+  <si>
+    <t>53,81%</t>
+  </si>
+  <si>
+    <t>68,92%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>27,14%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>38,01%</t>
+  </si>
+  <si>
+    <t>35,64%</t>
+  </si>
+  <si>
+    <t>25,59%</t>
+  </si>
+  <si>
+    <t>49,22%</t>
+  </si>
+  <si>
+    <t>30,82%</t>
+  </si>
+  <si>
+    <t>23,45%</t>
+  </si>
+  <si>
+    <t>39,02%</t>
+  </si>
+  <si>
+    <t>72,86%</t>
+  </si>
+  <si>
+    <t>61,99%</t>
+  </si>
+  <si>
+    <t>81,68%</t>
+  </si>
+  <si>
+    <t>64,36%</t>
+  </si>
+  <si>
+    <t>50,78%</t>
+  </si>
+  <si>
+    <t>74,41%</t>
+  </si>
+  <si>
+    <t>69,18%</t>
+  </si>
+  <si>
+    <t>60,98%</t>
+  </si>
+  <si>
+    <t>76,55%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>37,95%</t>
+  </si>
+  <si>
+    <t>28,12%</t>
+  </si>
+  <si>
+    <t>48,77%</t>
+  </si>
+  <si>
+    <t>43,47%</t>
+  </si>
+  <si>
+    <t>33,25%</t>
+  </si>
+  <si>
+    <t>53,25%</t>
+  </si>
+  <si>
+    <t>40,8%</t>
+  </si>
+  <si>
+    <t>34,03%</t>
+  </si>
+  <si>
+    <t>48,35%</t>
+  </si>
+  <si>
+    <t>62,05%</t>
+  </si>
+  <si>
+    <t>51,23%</t>
+  </si>
+  <si>
+    <t>71,88%</t>
+  </si>
+  <si>
+    <t>56,53%</t>
+  </si>
+  <si>
+    <t>46,75%</t>
+  </si>
+  <si>
+    <t>66,75%</t>
+  </si>
+  <si>
+    <t>59,2%</t>
+  </si>
+  <si>
+    <t>51,65%</t>
+  </si>
+  <si>
+    <t>65,97%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>36,93%</t>
+  </si>
+  <si>
+    <t>31,58%</t>
+  </si>
+  <si>
+    <t>42,87%</t>
+  </si>
+  <si>
+    <t>40,21%</t>
+  </si>
+  <si>
+    <t>34,58%</t>
+  </si>
+  <si>
+    <t>46,41%</t>
+  </si>
+  <si>
+    <t>38,55%</t>
+  </si>
+  <si>
+    <t>34,64%</t>
+  </si>
+  <si>
+    <t>42,8%</t>
+  </si>
+  <si>
+    <t>63,07%</t>
+  </si>
+  <si>
+    <t>57,13%</t>
+  </si>
+  <si>
+    <t>68,42%</t>
+  </si>
+  <si>
+    <t>59,79%</t>
+  </si>
+  <si>
+    <t>53,59%</t>
+  </si>
+  <si>
+    <t>65,42%</t>
+  </si>
+  <si>
+    <t>61,45%</t>
+  </si>
+  <si>
+    <t>57,2%</t>
+  </si>
+  <si>
+    <t>65,36%</t>
+  </si>
+  <si>
+    <t>Adultos según si viven actualmente en pareja en 2023 (Tasa respuesta: 2,5%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>73,58%</t>
   </si>
   <si>
     <t>82,92%</t>
   </si>
   <si>
-    <t>72,27%</t>
-  </si>
-  <si>
-    <t>53,85%</t>
-  </si>
-  <si>
-    <t>85,45%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>47,22%</t>
-  </si>
-  <si>
-    <t>35,02%</t>
+    <t>26,42%</t>
   </si>
   <si>
     <t>17,08%</t>
   </si>
   <si>
-    <t>61,69%</t>
-  </si>
-  <si>
-    <t>27,73%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>46,15%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>61,13%</t>
-  </si>
-  <si>
-    <t>42,58%</t>
-  </si>
-  <si>
-    <t>77,45%</t>
-  </si>
-  <si>
-    <t>70,34%</t>
-  </si>
-  <si>
-    <t>54,6%</t>
-  </si>
-  <si>
-    <t>83,69%</t>
-  </si>
-  <si>
-    <t>66,05%</t>
-  </si>
-  <si>
-    <t>54,28%</t>
-  </si>
-  <si>
-    <t>76,54%</t>
-  </si>
-  <si>
-    <t>38,87%</t>
-  </si>
-  <si>
-    <t>22,55%</t>
-  </si>
-  <si>
-    <t>57,42%</t>
-  </si>
-  <si>
-    <t>29,66%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>45,4%</t>
-  </si>
-  <si>
-    <t>33,95%</t>
-  </si>
-  <si>
-    <t>23,46%</t>
-  </si>
-  <si>
-    <t>45,72%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>65,24%</t>
-  </si>
-  <si>
-    <t>46,03%</t>
-  </si>
-  <si>
-    <t>81,78%</t>
-  </si>
-  <si>
-    <t>62,81%</t>
-  </si>
-  <si>
-    <t>45,92%</t>
-  </si>
-  <si>
-    <t>76,72%</t>
-  </si>
-  <si>
-    <t>63,97%</t>
-  </si>
-  <si>
-    <t>52,51%</t>
-  </si>
-  <si>
-    <t>74,59%</t>
-  </si>
-  <si>
-    <t>34,76%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>53,97%</t>
-  </si>
-  <si>
-    <t>37,19%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>54,08%</t>
-  </si>
-  <si>
-    <t>36,03%</t>
-  </si>
-  <si>
-    <t>25,41%</t>
-  </si>
-  <si>
-    <t>47,49%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>57,18%</t>
-  </si>
-  <si>
-    <t>44,84%</t>
-  </si>
-  <si>
-    <t>69,48%</t>
-  </si>
-  <si>
-    <t>72,94%</t>
-  </si>
-  <si>
-    <t>61,89%</t>
-  </si>
-  <si>
-    <t>84,26%</t>
-  </si>
-  <si>
-    <t>64,84%</t>
-  </si>
-  <si>
-    <t>56,1%</t>
-  </si>
-  <si>
-    <t>73,64%</t>
-  </si>
-  <si>
-    <t>42,82%</t>
-  </si>
-  <si>
-    <t>30,52%</t>
-  </si>
-  <si>
-    <t>55,16%</t>
-  </si>
-  <si>
-    <t>27,06%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>38,11%</t>
-  </si>
-  <si>
-    <t>35,16%</t>
-  </si>
-  <si>
-    <t>26,36%</t>
-  </si>
-  <si>
-    <t>43,9%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>60,4%</t>
-  </si>
-  <si>
-    <t>50,78%</t>
-  </si>
-  <si>
-    <t>67,88%</t>
-  </si>
-  <si>
-    <t>68,67%</t>
-  </si>
-  <si>
-    <t>60,78%</t>
-  </si>
-  <si>
-    <t>75,77%</t>
-  </si>
-  <si>
-    <t>64,53%</t>
-  </si>
-  <si>
-    <t>58,99%</t>
-  </si>
-  <si>
-    <t>69,86%</t>
-  </si>
-  <si>
-    <t>39,6%</t>
-  </si>
-  <si>
-    <t>32,12%</t>
-  </si>
-  <si>
-    <t>49,22%</t>
-  </si>
-  <si>
-    <t>31,33%</t>
-  </si>
-  <si>
-    <t>24,23%</t>
-  </si>
-  <si>
-    <t>39,22%</t>
-  </si>
-  <si>
-    <t>35,47%</t>
-  </si>
-  <si>
-    <t>30,14%</t>
-  </si>
-  <si>
-    <t>41,01%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>Adultos según si viven actualmente en pareja en 2012 (Tasa respuesta: 18,34%)</t>
-  </si>
-  <si>
-    <t>46,82%</t>
-  </si>
-  <si>
-    <t>28,05%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>80,55%</t>
-  </si>
-  <si>
-    <t>53,18%</t>
-  </si>
-  <si>
-    <t>71,95%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>89,72%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>75,06%</t>
-  </si>
-  <si>
-    <t>55,92%</t>
-  </si>
-  <si>
-    <t>89,54%</t>
-  </si>
-  <si>
-    <t>54,93%</t>
-  </si>
-  <si>
-    <t>36,82%</t>
-  </si>
-  <si>
-    <t>73,71%</t>
-  </si>
-  <si>
-    <t>65,71%</t>
-  </si>
-  <si>
-    <t>52,48%</t>
-  </si>
-  <si>
-    <t>77,43%</t>
-  </si>
-  <si>
-    <t>24,94%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>44,08%</t>
-  </si>
-  <si>
-    <t>45,07%</t>
-  </si>
-  <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>63,18%</t>
-  </si>
-  <si>
-    <t>34,29%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>47,52%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>64,52%</t>
-  </si>
-  <si>
-    <t>47,95%</t>
-  </si>
-  <si>
-    <t>78,54%</t>
-  </si>
-  <si>
-    <t>58,2%</t>
-  </si>
-  <si>
-    <t>45,81%</t>
-  </si>
-  <si>
-    <t>71,15%</t>
-  </si>
-  <si>
-    <t>60,9%</t>
-  </si>
-  <si>
-    <t>50,51%</t>
-  </si>
-  <si>
-    <t>70,07%</t>
-  </si>
-  <si>
-    <t>35,48%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>52,05%</t>
-  </si>
-  <si>
-    <t>41,8%</t>
-  </si>
-  <si>
-    <t>28,85%</t>
-  </si>
-  <si>
-    <t>54,19%</t>
-  </si>
-  <si>
-    <t>39,1%</t>
-  </si>
-  <si>
-    <t>29,93%</t>
-  </si>
-  <si>
-    <t>49,49%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>67,18%</t>
-  </si>
-  <si>
-    <t>52,29%</t>
-  </si>
-  <si>
-    <t>80,87%</t>
-  </si>
-  <si>
-    <t>58,21%</t>
-  </si>
-  <si>
-    <t>44,01%</t>
-  </si>
-  <si>
-    <t>72,18%</t>
-  </si>
-  <si>
-    <t>62,83%</t>
-  </si>
-  <si>
-    <t>51,33%</t>
-  </si>
-  <si>
-    <t>73,53%</t>
-  </si>
-  <si>
-    <t>32,82%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>47,71%</t>
-  </si>
-  <si>
-    <t>41,79%</t>
-  </si>
-  <si>
-    <t>27,82%</t>
-  </si>
-  <si>
-    <t>55,99%</t>
-  </si>
-  <si>
-    <t>37,17%</t>
-  </si>
-  <si>
-    <t>26,47%</t>
-  </si>
-  <si>
-    <t>48,67%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>64,59%</t>
-  </si>
-  <si>
-    <t>52,79%</t>
-  </si>
-  <si>
-    <t>75,35%</t>
-  </si>
-  <si>
-    <t>56,28%</t>
-  </si>
-  <si>
-    <t>43,72%</t>
-  </si>
-  <si>
-    <t>67,58%</t>
-  </si>
-  <si>
-    <t>60,41%</t>
-  </si>
-  <si>
-    <t>52,28%</t>
-  </si>
-  <si>
-    <t>68,58%</t>
-  </si>
-  <si>
-    <t>35,41%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>47,21%</t>
-  </si>
-  <si>
-    <t>32,42%</t>
-  </si>
-  <si>
-    <t>39,59%</t>
-  </si>
-  <si>
-    <t>31,42%</t>
-  </si>
-  <si>
-    <t>47,72%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>66,45%</t>
-  </si>
-  <si>
-    <t>59,11%</t>
-  </si>
-  <si>
-    <t>73,33%</t>
-  </si>
-  <si>
-    <t>56,51%</t>
-  </si>
-  <si>
-    <t>49,16%</t>
-  </si>
-  <si>
-    <t>63,4%</t>
-  </si>
-  <si>
-    <t>61,4%</t>
-  </si>
-  <si>
-    <t>56,29%</t>
-  </si>
-  <si>
-    <t>66,43%</t>
-  </si>
-  <si>
-    <t>33,55%</t>
-  </si>
-  <si>
-    <t>26,67%</t>
-  </si>
-  <si>
-    <t>40,89%</t>
-  </si>
-  <si>
-    <t>43,49%</t>
-  </si>
-  <si>
-    <t>36,6%</t>
-  </si>
-  <si>
-    <t>50,84%</t>
-  </si>
-  <si>
-    <t>38,6%</t>
-  </si>
-  <si>
-    <t>33,57%</t>
-  </si>
-  <si>
-    <t>43,71%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>Adultos según si viven actualmente en pareja en 2015 (Tasa respuesta: 26,15%)</t>
-  </si>
-  <si>
-    <t>68,95%</t>
-  </si>
-  <si>
-    <t>40,35%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>81,98%</t>
-  </si>
-  <si>
-    <t>32,14%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>63,87%</t>
-  </si>
-  <si>
-    <t>31,05%</t>
-  </si>
-  <si>
-    <t>59,65%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>91,96%</t>
-  </si>
-  <si>
-    <t>67,86%</t>
-  </si>
-  <si>
-    <t>36,13%</t>
-  </si>
-  <si>
-    <t>88,27%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>51,66%</t>
-  </si>
-  <si>
-    <t>32,51%</t>
-  </si>
-  <si>
-    <t>68,75%</t>
-  </si>
-  <si>
-    <t>69,35%</t>
-  </si>
-  <si>
-    <t>53,1%</t>
-  </si>
-  <si>
-    <t>81,66%</t>
-  </si>
-  <si>
-    <t>61,82%</t>
-  </si>
-  <si>
-    <t>50,25%</t>
-  </si>
-  <si>
-    <t>48,34%</t>
-  </si>
-  <si>
-    <t>31,25%</t>
-  </si>
-  <si>
-    <t>67,49%</t>
-  </si>
-  <si>
-    <t>30,65%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>46,9%</t>
-  </si>
-  <si>
-    <t>38,18%</t>
-  </si>
-  <si>
-    <t>49,75%</t>
-  </si>
-  <si>
-    <t>64,1%</t>
-  </si>
-  <si>
-    <t>53,26%</t>
-  </si>
-  <si>
-    <t>74,98%</t>
-  </si>
-  <si>
-    <t>58,0%</t>
-  </si>
-  <si>
-    <t>46,52%</t>
-  </si>
-  <si>
-    <t>68,71%</t>
-  </si>
-  <si>
-    <t>61,15%</t>
-  </si>
-  <si>
-    <t>53,53%</t>
-  </si>
-  <si>
-    <t>68,18%</t>
-  </si>
-  <si>
-    <t>35,9%</t>
-  </si>
-  <si>
-    <t>25,02%</t>
-  </si>
-  <si>
-    <t>46,74%</t>
-  </si>
-  <si>
-    <t>42,0%</t>
-  </si>
-  <si>
-    <t>31,29%</t>
-  </si>
-  <si>
-    <t>53,48%</t>
-  </si>
-  <si>
-    <t>38,85%</t>
-  </si>
-  <si>
-    <t>31,82%</t>
-  </si>
-  <si>
-    <t>46,47%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>72,86%</t>
-  </si>
-  <si>
-    <t>61,63%</t>
-  </si>
-  <si>
-    <t>81,67%</t>
-  </si>
-  <si>
-    <t>64,36%</t>
-  </si>
-  <si>
-    <t>52,93%</t>
-  </si>
-  <si>
-    <t>76,03%</t>
-  </si>
-  <si>
-    <t>69,18%</t>
-  </si>
-  <si>
-    <t>60,87%</t>
-  </si>
-  <si>
-    <t>76,44%</t>
-  </si>
-  <si>
-    <t>27,14%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>38,37%</t>
-  </si>
-  <si>
-    <t>35,64%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>47,07%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>23,56%</t>
-  </si>
-  <si>
-    <t>39,13%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>62,05%</t>
-  </si>
-  <si>
-    <t>52,0%</t>
-  </si>
-  <si>
-    <t>71,62%</t>
-  </si>
-  <si>
-    <t>56,53%</t>
-  </si>
-  <si>
-    <t>45,3%</t>
-  </si>
-  <si>
-    <t>66,58%</t>
-  </si>
-  <si>
-    <t>59,2%</t>
-  </si>
-  <si>
-    <t>52,08%</t>
-  </si>
-  <si>
-    <t>66,13%</t>
-  </si>
-  <si>
-    <t>37,95%</t>
-  </si>
-  <si>
-    <t>28,38%</t>
-  </si>
-  <si>
-    <t>48,0%</t>
-  </si>
-  <si>
-    <t>43,47%</t>
-  </si>
-  <si>
-    <t>33,42%</t>
-  </si>
-  <si>
-    <t>54,7%</t>
-  </si>
-  <si>
-    <t>40,8%</t>
-  </si>
-  <si>
-    <t>33,87%</t>
-  </si>
-  <si>
-    <t>47,92%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>63,07%</t>
-  </si>
-  <si>
-    <t>57,11%</t>
-  </si>
-  <si>
-    <t>68,2%</t>
-  </si>
-  <si>
-    <t>59,79%</t>
-  </si>
-  <si>
-    <t>54,33%</t>
-  </si>
-  <si>
-    <t>65,67%</t>
-  </si>
-  <si>
-    <t>61,45%</t>
-  </si>
-  <si>
-    <t>57,16%</t>
-  </si>
-  <si>
-    <t>65,55%</t>
-  </si>
-  <si>
-    <t>36,93%</t>
-  </si>
-  <si>
-    <t>31,8%</t>
-  </si>
-  <si>
-    <t>42,89%</t>
-  </si>
-  <si>
-    <t>40,21%</t>
-  </si>
-  <si>
-    <t>34,33%</t>
-  </si>
-  <si>
-    <t>45,67%</t>
-  </si>
-  <si>
-    <t>38,55%</t>
-  </si>
-  <si>
-    <t>34,45%</t>
-  </si>
-  <si>
-    <t>42,84%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>Adultos según si viven actualmente en pareja en 2023 (Tasa respuesta: 2,5%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>73,58%</t>
-  </si>
-  <si>
     <t>55,59%</t>
   </si>
   <si>
     <t>79,25%</t>
   </si>
   <si>
+    <t>85,49%</t>
+  </si>
+  <si>
+    <t>88,85%</t>
+  </si>
+  <si>
     <t>14,51%</t>
   </si>
   <si>
     <t>11,15%</t>
   </si>
   <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>88,85%</t>
+    <t>87,39%</t>
   </si>
   <si>
     <t>12,61%</t>
   </si>
   <si>
-    <t>87,39%</t>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
   </si>
   <si>
     <t>10,53%</t>
   </si>
   <si>
     <t>3,9%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
   </si>
 </sst>
 </file>
@@ -1174,7 +1207,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1270,39 +1303,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1354,7 +1387,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1465,13 +1498,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1480,6 +1506,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1544,19 +1577,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A1523B1-91EB-4B6D-904D-64450564CE27}">
-  <dimension ref="A1:Q27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C54539C-2018-4156-A4E9-E4AD8CB5E85A}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1879,49 +1932,49 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="D8" s="7">
-        <v>9610</v>
+        <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="H8" s="7">
+        <v>0</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="M8" s="7">
+        <v>0</v>
+      </c>
+      <c r="N8" s="7">
+        <v>0</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H8" s="7">
-        <v>12</v>
-      </c>
-      <c r="I8" s="7">
-        <v>7788</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="M8" s="7">
-        <v>26</v>
-      </c>
-      <c r="N8" s="7">
-        <v>17399</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1936,13 +1989,13 @@
         <v>2481</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="H9" s="7">
         <v>6</v>
@@ -1951,13 +2004,13 @@
         <v>4197</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="M9" s="7">
         <v>10</v>
@@ -1966,13 +2019,13 @@
         <v>6677</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1981,46 +2034,46 @@
         <v>22</v>
       </c>
       <c r="C10" s="7">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D10" s="7">
-        <v>0</v>
+        <v>9610</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="G10" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10" s="7">
+        <v>12</v>
+      </c>
+      <c r="I10" s="7">
+        <v>7788</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M10" s="7">
+        <v>26</v>
+      </c>
+      <c r="N10" s="7">
+        <v>17399</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="H10" s="7">
-        <v>0</v>
-      </c>
-      <c r="I10" s="7">
-        <v>0</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="M10" s="7">
-        <v>0</v>
-      </c>
-      <c r="N10" s="7">
-        <v>0</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>43</v>
@@ -2085,49 +2138,49 @@
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="D12" s="7">
-        <v>12343</v>
+        <v>0</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="H12" s="7">
+        <v>0</v>
+      </c>
+      <c r="I12" s="7">
+        <v>0</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="M12" s="7">
+        <v>0</v>
+      </c>
+      <c r="N12" s="7">
+        <v>0</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="H12" s="7">
-        <v>26</v>
-      </c>
-      <c r="I12" s="7">
-        <v>16325</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="M12" s="7">
-        <v>45</v>
-      </c>
-      <c r="N12" s="7">
-        <v>28669</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2142,13 +2195,13 @@
         <v>7849</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="H13" s="7">
         <v>11</v>
@@ -2157,13 +2210,13 @@
         <v>6885</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="M13" s="7">
         <v>23</v>
@@ -2172,13 +2225,13 @@
         <v>14734</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2187,46 +2240,46 @@
         <v>22</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>12343</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="G14" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H14" s="7">
+        <v>26</v>
+      </c>
+      <c r="I14" s="7">
+        <v>16325</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="M14" s="7">
+        <v>45</v>
+      </c>
+      <c r="N14" s="7">
+        <v>28669</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="H14" s="7">
-        <v>0</v>
-      </c>
-      <c r="I14" s="7">
-        <v>0</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="M14" s="7">
-        <v>0</v>
-      </c>
-      <c r="N14" s="7">
-        <v>0</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>65</v>
@@ -2291,49 +2344,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D16" s="7">
-        <v>12710</v>
+        <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>0</v>
+      </c>
+      <c r="I16" s="7">
+        <v>0</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>0</v>
+      </c>
+      <c r="N16" s="7">
+        <v>0</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="H16" s="7">
-        <v>22</v>
-      </c>
-      <c r="I16" s="7">
-        <v>13447</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="M16" s="7">
-        <v>42</v>
-      </c>
-      <c r="N16" s="7">
-        <v>26157</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2348,13 +2401,13 @@
         <v>6771</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="H17" s="7">
         <v>13</v>
@@ -2363,13 +2416,13 @@
         <v>7961</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="M17" s="7">
         <v>23</v>
@@ -2378,13 +2431,13 @@
         <v>14733</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2393,46 +2446,46 @@
         <v>22</v>
       </c>
       <c r="C18" s="7">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D18" s="7">
-        <v>0</v>
+        <v>12710</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>11</v>
+        <v>79</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="G18" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="H18" s="7">
+        <v>22</v>
+      </c>
+      <c r="I18" s="7">
+        <v>13447</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="M18" s="7">
+        <v>42</v>
+      </c>
+      <c r="N18" s="7">
+        <v>26157</v>
+      </c>
+      <c r="O18" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="H18" s="7">
-        <v>0</v>
-      </c>
-      <c r="I18" s="7">
-        <v>0</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L18" s="7" t="s">
+      <c r="P18" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="M18" s="7">
-        <v>0</v>
-      </c>
-      <c r="N18" s="7">
-        <v>0</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>12</v>
       </c>
       <c r="Q18" s="7" t="s">
         <v>87</v>
@@ -2497,49 +2550,49 @@
         <v>10</v>
       </c>
       <c r="C20" s="7">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="D20" s="7">
-        <v>25477</v>
+        <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H20" s="7">
+        <v>0</v>
+      </c>
+      <c r="I20" s="7">
+        <v>0</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>0</v>
+      </c>
+      <c r="N20" s="7">
+        <v>0</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="H20" s="7">
-        <v>40</v>
-      </c>
-      <c r="I20" s="7">
-        <v>30695</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="M20" s="7">
-        <v>78</v>
-      </c>
-      <c r="N20" s="7">
-        <v>56172</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2554,13 +2607,13 @@
         <v>19075</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="H21" s="7">
         <v>15</v>
@@ -2569,13 +2622,13 @@
         <v>11387</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="M21" s="7">
         <v>42</v>
@@ -2584,13 +2637,13 @@
         <v>30462</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2599,46 +2652,46 @@
         <v>22</v>
       </c>
       <c r="C22" s="7">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="D22" s="7">
-        <v>0</v>
+        <v>25477</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="H22" s="7">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="I22" s="7">
-        <v>0</v>
+        <v>30695</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>11</v>
+        <v>103</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="L22" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="M22" s="7">
+        <v>78</v>
+      </c>
+      <c r="N22" s="7">
+        <v>56172</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="M22" s="7">
-        <v>0</v>
-      </c>
-      <c r="N22" s="7">
-        <v>0</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>108</v>
@@ -2703,49 +2756,49 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>91</v>
+        <v>0</v>
       </c>
       <c r="D24" s="7">
-        <v>60140</v>
+        <v>0</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="H24" s="7">
+        <v>0</v>
+      </c>
+      <c r="I24" s="7">
+        <v>0</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="M24" s="7">
+        <v>0</v>
+      </c>
+      <c r="N24" s="7">
+        <v>0</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="H24" s="7">
-        <v>100</v>
-      </c>
-      <c r="I24" s="7">
-        <v>68255</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="M24" s="7">
-        <v>191</v>
-      </c>
-      <c r="N24" s="7">
-        <v>128396</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2760,13 +2813,13 @@
         <v>39436</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="H25" s="7">
         <v>46</v>
@@ -2775,13 +2828,13 @@
         <v>31145</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="M25" s="7">
         <v>103</v>
@@ -2790,13 +2843,13 @@
         <v>70581</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2805,46 +2858,46 @@
         <v>22</v>
       </c>
       <c r="C26" s="7">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="D26" s="7">
-        <v>0</v>
+        <v>60140</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>11</v>
+        <v>121</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>12</v>
+        <v>122</v>
       </c>
       <c r="G26" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="H26" s="7">
+        <v>100</v>
+      </c>
+      <c r="I26" s="7">
+        <v>68255</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="M26" s="7">
+        <v>191</v>
+      </c>
+      <c r="N26" s="7">
+        <v>128396</v>
+      </c>
+      <c r="O26" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="H26" s="7">
-        <v>0</v>
-      </c>
-      <c r="I26" s="7">
-        <v>0</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L26" s="7" t="s">
+      <c r="P26" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="M26" s="7">
-        <v>0</v>
-      </c>
-      <c r="N26" s="7">
-        <v>0</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>12</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>129</v>
@@ -2899,6 +2952,11 @@
       </c>
       <c r="Q27" s="7" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -2919,8 +2977,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09EC6D11-B7AF-4B33-BADD-E9E06C93E42C}">
-  <dimension ref="A1:Q27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62EAA80A-F637-49C7-A2A5-A3311F1432A7}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2936,7 +2994,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3037,49 +3095,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>1641</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>131</v>
+        <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>669</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="K4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="M4" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N4" s="7">
-        <v>2310</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>123</v>
+        <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3094,7 +3152,7 @@
         <v>1863</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
@@ -3109,7 +3167,7 @@
         <v>1715</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>11</v>
@@ -3124,7 +3182,7 @@
         <v>3579</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>113</v>
+        <v>136</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>137</v>
@@ -3139,49 +3197,49 @@
         <v>22</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D6" s="7">
-        <v>0</v>
+        <v>1641</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>11</v>
+        <v>139</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" s="7">
-        <v>0</v>
+        <v>669</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>11</v>
+        <v>140</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>139</v>
+        <v>17</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N6" s="7">
-        <v>0</v>
+        <v>2310</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>11</v>
+        <v>141</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>12</v>
+        <v>142</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3243,49 +3301,49 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="D8" s="7">
-        <v>16610</v>
+        <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>141</v>
+        <v>11</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>142</v>
+        <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>143</v>
+        <v>67</v>
       </c>
       <c r="H8" s="7">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I8" s="7">
-        <v>10533</v>
+        <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="M8" s="7">
+        <v>0</v>
+      </c>
+      <c r="N8" s="7">
+        <v>0</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="M8" s="7">
-        <v>39</v>
-      </c>
-      <c r="N8" s="7">
-        <v>27143</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3300,13 +3358,13 @@
         <v>5517</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="H9" s="7">
         <v>12</v>
@@ -3315,13 +3373,13 @@
         <v>8644</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="M9" s="7">
         <v>18</v>
@@ -3330,13 +3388,13 @@
         <v>14161</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3345,49 +3403,49 @@
         <v>22</v>
       </c>
       <c r="C10" s="7">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="D10" s="7">
-        <v>0</v>
+        <v>16610</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>11</v>
+        <v>155</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>12</v>
+        <v>156</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>85</v>
+        <v>157</v>
       </c>
       <c r="H10" s="7">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I10" s="7">
-        <v>0</v>
+        <v>10533</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>11</v>
+        <v>158</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>12</v>
+        <v>159</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M10" s="7">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="N10" s="7">
-        <v>0</v>
+        <v>27143</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>11</v>
+        <v>161</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>12</v>
+        <v>162</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3449,49 +3507,49 @@
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="D12" s="7">
-        <v>17482</v>
+        <v>0</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>161</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>162</v>
+        <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H12" s="7">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="I12" s="7">
-        <v>21192</v>
+        <v>0</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>164</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="M12" s="7">
+        <v>0</v>
+      </c>
+      <c r="N12" s="7">
+        <v>0</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="M12" s="7">
-        <v>58</v>
-      </c>
-      <c r="N12" s="7">
-        <v>38673</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3506,13 +3564,13 @@
         <v>9612</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H13" s="7">
         <v>24</v>
@@ -3521,13 +3579,13 @@
         <v>15220</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="M13" s="7">
         <v>38</v>
@@ -3536,13 +3594,13 @@
         <v>24832</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3551,49 +3609,49 @@
         <v>22</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>17482</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>11</v>
+        <v>175</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>12</v>
+        <v>176</v>
       </c>
       <c r="G14" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="H14" s="7">
+        <v>33</v>
+      </c>
+      <c r="I14" s="7">
+        <v>21192</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="H14" s="7">
-        <v>0</v>
-      </c>
-      <c r="I14" s="7">
-        <v>0</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="L14" s="7" t="s">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="M14" s="7">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="N14" s="7">
-        <v>0</v>
+        <v>38673</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>11</v>
+        <v>181</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>12</v>
+        <v>182</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3655,49 +3713,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="D16" s="7">
-        <v>20165</v>
+        <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>181</v>
+        <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>182</v>
+        <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H16" s="7">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="I16" s="7">
-        <v>16428</v>
+        <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>184</v>
+        <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>0</v>
+      </c>
+      <c r="N16" s="7">
+        <v>0</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="M16" s="7">
-        <v>58</v>
-      </c>
-      <c r="N16" s="7">
-        <v>36592</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3712,13 +3770,13 @@
         <v>9853</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="H17" s="7">
         <v>19</v>
@@ -3727,13 +3785,13 @@
         <v>11794</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="M17" s="7">
         <v>34</v>
@@ -3742,13 +3800,13 @@
         <v>21648</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3757,49 +3815,49 @@
         <v>22</v>
       </c>
       <c r="C18" s="7">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="D18" s="7">
-        <v>0</v>
+        <v>20165</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>11</v>
+        <v>196</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>12</v>
+        <v>197</v>
       </c>
       <c r="G18" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="H18" s="7">
+        <v>26</v>
+      </c>
+      <c r="I18" s="7">
+        <v>16428</v>
+      </c>
+      <c r="J18" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="H18" s="7">
-        <v>0</v>
-      </c>
-      <c r="I18" s="7">
-        <v>0</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="K18" s="7" t="s">
-        <v>12</v>
+        <v>200</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M18" s="7">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="N18" s="7">
-        <v>0</v>
+        <v>36592</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>11</v>
+        <v>202</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>12</v>
+        <v>203</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3861,49 +3919,49 @@
         <v>10</v>
       </c>
       <c r="C20" s="7">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="D20" s="7">
-        <v>31682</v>
+        <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>202</v>
+        <v>11</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>203</v>
+        <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H20" s="7">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="I20" s="7">
-        <v>27993</v>
+        <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>205</v>
+        <v>11</v>
       </c>
       <c r="K20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="L20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>0</v>
+      </c>
+      <c r="N20" s="7">
+        <v>0</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="M20" s="7">
-        <v>80</v>
-      </c>
-      <c r="N20" s="7">
-        <v>59675</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3918,13 +3976,13 @@
         <v>17367</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="H21" s="7">
         <v>29</v>
@@ -3933,13 +3991,13 @@
         <v>21748</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="M21" s="7">
         <v>53</v>
@@ -3948,13 +4006,13 @@
         <v>39115</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3963,49 +4021,49 @@
         <v>22</v>
       </c>
       <c r="C22" s="7">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="D22" s="7">
-        <v>0</v>
+        <v>31682</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>11</v>
+        <v>217</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>12</v>
+        <v>218</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H22" s="7">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="I22" s="7">
-        <v>0</v>
+        <v>27993</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>11</v>
+        <v>220</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>12</v>
+        <v>221</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="M22" s="7">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="N22" s="7">
-        <v>0</v>
+        <v>59675</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>11</v>
+        <v>223</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>12</v>
+        <v>224</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4067,49 +4125,49 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>126</v>
+        <v>0</v>
       </c>
       <c r="D24" s="7">
-        <v>87578</v>
+        <v>0</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>221</v>
+        <v>11</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>222</v>
+        <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="H24" s="7">
-        <v>112</v>
+        <v>0</v>
       </c>
       <c r="I24" s="7">
-        <v>76814</v>
+        <v>0</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>224</v>
+        <v>11</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>225</v>
+        <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M24" s="7">
-        <v>238</v>
+        <v>0</v>
       </c>
       <c r="N24" s="7">
-        <v>164392</v>
+        <v>0</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>227</v>
+        <v>11</v>
       </c>
       <c r="P24" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4124,13 +4182,13 @@
         <v>44214</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>232</v>
       </c>
       <c r="H25" s="7">
         <v>86</v>
@@ -4139,13 +4197,13 @@
         <v>59122</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>235</v>
       </c>
       <c r="M25" s="7">
         <v>147</v>
@@ -4154,13 +4212,13 @@
         <v>103336</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4169,49 +4227,49 @@
         <v>22</v>
       </c>
       <c r="C26" s="7">
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="D26" s="7">
-        <v>0</v>
+        <v>87578</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>11</v>
+        <v>238</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>12</v>
+        <v>239</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H26" s="7">
-        <v>0</v>
+        <v>112</v>
       </c>
       <c r="I26" s="7">
-        <v>0</v>
+        <v>76814</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>11</v>
+        <v>241</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>12</v>
+        <v>242</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="M26" s="7">
-        <v>0</v>
+        <v>238</v>
       </c>
       <c r="N26" s="7">
-        <v>0</v>
+        <v>164392</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>11</v>
+        <v>244</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>12</v>
+        <v>245</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4263,6 +4321,11 @@
       </c>
       <c r="Q27" s="7" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -4283,8 +4346,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E393FBF9-8AE7-4E67-B949-9C382C4225CB}">
-  <dimension ref="A1:Q27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52749D89-DE7C-4CB7-8EC6-70CAFE0B36A8}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4300,7 +4363,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4401,46 +4464,46 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>1648</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>122</v>
+        <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="H4" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>2646</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>244</v>
+        <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>245</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>246</v>
+        <v>133</v>
       </c>
       <c r="M4" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N4" s="7">
-        <v>4294</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>247</v>
+        <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>248</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>249</v>
@@ -4458,10 +4521,10 @@
         <v>5154</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>114</v>
+        <v>250</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>17</v>
@@ -4473,13 +4536,13 @@
         <v>3911</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M5" s="7">
         <v>10</v>
@@ -4488,13 +4551,13 @@
         <v>9064</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4503,49 +4566,49 @@
         <v>22</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D6" s="7">
-        <v>0</v>
+        <v>1648</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>11</v>
+        <v>258</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I6" s="7">
-        <v>0</v>
+        <v>2646</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>11</v>
+        <v>260</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>12</v>
+        <v>261</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>140</v>
+        <v>262</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N6" s="7">
-        <v>0</v>
+        <v>4294</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>11</v>
+        <v>263</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>12</v>
+        <v>264</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4607,49 +4670,49 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="D8" s="7">
-        <v>10158</v>
+        <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>259</v>
+        <v>11</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>260</v>
+        <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>261</v>
+        <v>144</v>
       </c>
       <c r="H8" s="7">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="I8" s="7">
-        <v>18418</v>
+        <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>262</v>
+        <v>11</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>263</v>
+        <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>264</v>
+        <v>164</v>
       </c>
       <c r="M8" s="7">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="N8" s="7">
-        <v>28576</v>
+        <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>265</v>
+        <v>11</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>266</v>
+        <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>136</v>
+        <v>206</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4664,13 +4727,13 @@
         <v>9506</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>269</v>
       </c>
       <c r="H9" s="7">
         <v>13</v>
@@ -4679,13 +4742,13 @@
         <v>8141</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>272</v>
       </c>
       <c r="M9" s="7">
         <v>26</v>
@@ -4694,10 +4757,10 @@
         <v>17648</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="Q9" s="7" t="s">
         <v>274</v>
@@ -4709,49 +4772,49 @@
         <v>22</v>
       </c>
       <c r="C10" s="7">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D10" s="7">
-        <v>0</v>
+        <v>10158</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>11</v>
+        <v>275</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>12</v>
+        <v>276</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>159</v>
+        <v>277</v>
       </c>
       <c r="H10" s="7">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="I10" s="7">
-        <v>0</v>
+        <v>18418</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>11</v>
+        <v>278</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>12</v>
+        <v>279</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>179</v>
+        <v>280</v>
       </c>
       <c r="M10" s="7">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="N10" s="7">
-        <v>0</v>
+        <v>28576</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>11</v>
+        <v>281</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>12</v>
+        <v>282</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>219</v>
+        <v>283</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4813,49 +4876,49 @@
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="D12" s="7">
-        <v>35001</v>
+        <v>0</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>275</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>276</v>
+        <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="H12" s="7">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="I12" s="7">
-        <v>29581</v>
+        <v>0</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>278</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>279</v>
+        <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="M12" s="7">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="N12" s="7">
-        <v>64581</v>
+        <v>0</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>281</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>282</v>
+        <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4870,13 +4933,13 @@
         <v>19605</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="H13" s="7">
         <v>36</v>
@@ -4885,13 +4948,13 @@
         <v>21420</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="M13" s="7">
         <v>65</v>
@@ -4900,13 +4963,13 @@
         <v>41026</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4915,49 +4978,49 @@
         <v>22</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>35001</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>11</v>
+        <v>296</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>12</v>
+        <v>297</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="H14" s="7">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="I14" s="7">
-        <v>0</v>
+        <v>29581</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>11</v>
+        <v>299</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>12</v>
+        <v>300</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="M14" s="7">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="N14" s="7">
-        <v>0</v>
+        <v>64581</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>11</v>
+        <v>302</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>12</v>
+        <v>303</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5019,49 +5082,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="D16" s="7">
-        <v>36813</v>
+        <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>296</v>
+        <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>297</v>
+        <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="H16" s="7">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="I16" s="7">
-        <v>24820</v>
+        <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>299</v>
+        <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>300</v>
+        <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>301</v>
+        <v>69</v>
       </c>
       <c r="M16" s="7">
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="N16" s="7">
-        <v>61633</v>
+        <v>0</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>302</v>
+        <v>11</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>303</v>
+        <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5076,13 +5139,13 @@
         <v>13715</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="H17" s="7">
         <v>24</v>
@@ -5091,13 +5154,13 @@
         <v>13743</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="M17" s="7">
         <v>45</v>
@@ -5106,13 +5169,13 @@
         <v>27458</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5121,49 +5184,49 @@
         <v>22</v>
       </c>
       <c r="C18" s="7">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="D18" s="7">
-        <v>0</v>
+        <v>36813</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>11</v>
+        <v>316</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>12</v>
+        <v>317</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="H18" s="7">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="I18" s="7">
-        <v>0</v>
+        <v>24820</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>11</v>
+        <v>319</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>12</v>
+        <v>320</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>87</v>
+        <v>321</v>
       </c>
       <c r="M18" s="7">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="N18" s="7">
-        <v>0</v>
+        <v>61633</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>11</v>
+        <v>322</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>12</v>
+        <v>323</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5225,49 +5288,49 @@
         <v>10</v>
       </c>
       <c r="C20" s="7">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="D20" s="7">
-        <v>37785</v>
+        <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>316</v>
+        <v>11</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>317</v>
+        <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="H20" s="7">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="I20" s="7">
-        <v>36630</v>
+        <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>319</v>
+        <v>11</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>320</v>
+        <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="M20" s="7">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="N20" s="7">
-        <v>74416</v>
+        <v>0</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>322</v>
+        <v>11</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>323</v>
+        <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5282,13 +5345,13 @@
         <v>23111</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="H21" s="7">
         <v>40</v>
@@ -5297,13 +5360,13 @@
         <v>28169</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="M21" s="7">
         <v>74</v>
@@ -5312,13 +5375,13 @@
         <v>51279</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5327,49 +5390,49 @@
         <v>22</v>
       </c>
       <c r="C22" s="7">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="D22" s="7">
-        <v>0</v>
+        <v>37785</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>11</v>
+        <v>337</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>12</v>
+        <v>338</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="H22" s="7">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="I22" s="7">
-        <v>0</v>
+        <v>36630</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>11</v>
+        <v>340</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>12</v>
+        <v>341</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="M22" s="7">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="N22" s="7">
-        <v>0</v>
+        <v>74416</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>11</v>
+        <v>343</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>12</v>
+        <v>344</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>336</v>
+        <v>345</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5431,49 +5494,49 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>171</v>
+        <v>0</v>
       </c>
       <c r="D24" s="7">
-        <v>121405</v>
+        <v>0</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>337</v>
+        <v>11</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>338</v>
+        <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="H24" s="7">
-        <v>165</v>
+        <v>0</v>
       </c>
       <c r="I24" s="7">
-        <v>112095</v>
+        <v>0</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>340</v>
+        <v>11</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>341</v>
+        <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="M24" s="7">
-        <v>336</v>
+        <v>0</v>
       </c>
       <c r="N24" s="7">
-        <v>233500</v>
+        <v>0</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>343</v>
+        <v>11</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>344</v>
+        <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5488,13 +5551,13 @@
         <v>71091</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="H25" s="7">
         <v>117</v>
@@ -5503,13 +5566,13 @@
         <v>75384</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="M25" s="7">
         <v>220</v>
@@ -5518,13 +5581,13 @@
         <v>146475</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5533,49 +5596,49 @@
         <v>22</v>
       </c>
       <c r="C26" s="7">
-        <v>0</v>
+        <v>171</v>
       </c>
       <c r="D26" s="7">
-        <v>0</v>
+        <v>121405</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>11</v>
+        <v>358</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>12</v>
+        <v>359</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="H26" s="7">
-        <v>0</v>
+        <v>165</v>
       </c>
       <c r="I26" s="7">
-        <v>0</v>
+        <v>112095</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>11</v>
+        <v>361</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>12</v>
+        <v>362</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="M26" s="7">
-        <v>0</v>
+        <v>336</v>
       </c>
       <c r="N26" s="7">
-        <v>0</v>
+        <v>233500</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>11</v>
+        <v>364</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>12</v>
+        <v>365</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5627,6 +5690,11 @@
       </c>
       <c r="Q27" s="7" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -5647,8 +5715,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02A31185-FE56-4D0A-AF63-FE850D8EC958}">
-  <dimension ref="A1:Q27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF21367B-F278-40AA-8FB2-5B927A22EB0C}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5664,7 +5732,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>358</v>
+        <v>367</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5769,39 +5837,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5814,39 +5882,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5859,39 +5927,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5904,39 +5972,39 @@
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
       </c>
       <c r="N7" s="7"/>
       <c r="O7" s="7" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5947,49 +6015,49 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D8" s="7">
-        <v>0</v>
+        <v>2468</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H8" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I8" s="7">
-        <v>0</v>
+        <v>3739</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>12</v>
+        <v>369</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>360</v>
+        <v>19</v>
       </c>
       <c r="M8" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N8" s="7">
-        <v>0</v>
+        <v>6207</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>12</v>
+        <v>370</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6025,7 +6093,7 @@
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>360</v>
+        <v>371</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -6040,7 +6108,7 @@
         <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>37</v>
+        <v>372</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6049,49 +6117,49 @@
         <v>22</v>
       </c>
       <c r="C10" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>2468</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H10" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>3739</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>361</v>
+        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>19</v>
+        <v>371</v>
       </c>
       <c r="M10" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="N10" s="7">
-        <v>6207</v>
+        <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>19</v>
+        <v>372</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6153,49 +6221,49 @@
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D12" s="7">
-        <v>0</v>
+        <v>4313</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I12" s="7">
-        <v>0</v>
+        <v>1696</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>12</v>
+        <v>373</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="N12" s="7">
-        <v>0</v>
+        <v>6010</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>12</v>
+        <v>374</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>257</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6231,7 +6299,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -6246,7 +6314,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6255,49 +6323,49 @@
         <v>22</v>
       </c>
       <c r="C14" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D14" s="7">
-        <v>4313</v>
+        <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="H14" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I14" s="7">
-        <v>1696</v>
+        <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>362</v>
+        <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>19</v>
+        <v>132</v>
       </c>
       <c r="M14" s="7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="N14" s="7">
-        <v>6010</v>
+        <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>363</v>
+        <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>19</v>
+        <v>248</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6359,49 +6427,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D16" s="7">
-        <v>0</v>
+        <v>3098</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H16" s="7">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="I16" s="7">
-        <v>0</v>
+        <v>7629</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>12</v>
+        <v>375</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>364</v>
+        <v>19</v>
       </c>
       <c r="M16" s="7">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="N16" s="7">
-        <v>0</v>
+        <v>10726</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>12</v>
+        <v>376</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>365</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6437,7 +6505,7 @@
         <v>12</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>364</v>
+        <v>377</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -6452,7 +6520,7 @@
         <v>12</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>365</v>
+        <v>378</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6461,49 +6529,49 @@
         <v>22</v>
       </c>
       <c r="C18" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D18" s="7">
-        <v>3098</v>
+        <v>0</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H18" s="7">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="I18" s="7">
-        <v>7629</v>
+        <v>0</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>366</v>
+        <v>12</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>19</v>
+        <v>377</v>
       </c>
       <c r="M18" s="7">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="N18" s="7">
-        <v>10726</v>
+        <v>0</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>367</v>
+        <v>12</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>19</v>
+        <v>378</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6565,49 +6633,49 @@
         <v>10</v>
       </c>
       <c r="C20" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D20" s="7">
-        <v>0</v>
+        <v>3704</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H20" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I20" s="7">
-        <v>0</v>
+        <v>6989</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>12</v>
+        <v>370</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="M20" s="7">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="N20" s="7">
-        <v>0</v>
+        <v>10693</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>12</v>
+        <v>379</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>368</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6643,7 +6711,7 @@
         <v>12</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>37</v>
+        <v>372</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -6658,7 +6726,7 @@
         <v>12</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6667,49 +6735,49 @@
         <v>22</v>
       </c>
       <c r="C22" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D22" s="7">
-        <v>3704</v>
+        <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H22" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I22" s="7">
-        <v>6989</v>
+        <v>0</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>19</v>
+        <v>372</v>
       </c>
       <c r="M22" s="7">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="N22" s="7">
-        <v>10693</v>
+        <v>0</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>369</v>
+        <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>19</v>
+        <v>380</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6771,49 +6839,49 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D24" s="7">
-        <v>0</v>
+        <v>13583</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>12</v>
+        <v>381</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>370</v>
+        <v>19</v>
       </c>
       <c r="H24" s="7">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="I24" s="7">
-        <v>0</v>
+        <v>20053</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>12</v>
+        <v>382</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="M24" s="7">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="N24" s="7">
-        <v>0</v>
+        <v>33636</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>12</v>
+        <v>383</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>371</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6834,7 +6902,7 @@
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>370</v>
+        <v>384</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -6849,7 +6917,7 @@
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -6864,7 +6932,7 @@
         <v>12</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>371</v>
+        <v>385</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6873,49 +6941,49 @@
         <v>22</v>
       </c>
       <c r="C26" s="7">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="D26" s="7">
-        <v>13583</v>
+        <v>0</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>372</v>
+        <v>12</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>19</v>
+        <v>384</v>
       </c>
       <c r="H26" s="7">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="I26" s="7">
-        <v>20053</v>
+        <v>0</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>373</v>
+        <v>12</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="M26" s="7">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="N26" s="7">
-        <v>33636</v>
+        <v>0</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>374</v>
+        <v>12</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>19</v>
+        <v>385</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6967,6 +7035,11 @@
       </c>
       <c r="Q27" s="7" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP33A-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP33A-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4CF155ED-A429-41FA-B507-6A18B4C57271}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A9CAF8E5-B187-44B0-97C9-B52BFE81B523}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F6967501-76A1-4072-925C-0CB966A02953}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{081B265B-2005-42FD-B6FF-8E523B028C68}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="376">
   <si>
     <t>Adultos según si viven actualmente en pareja en 2007 (Tasa respuesta: 13,97%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>996.0</t>
@@ -110,7 +110,7 @@
     <t>No</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>9,99%</t>
@@ -122,58 +122,58 @@
     <t>20,52%</t>
   </si>
   <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>42,34%</t>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>46,55%</t>
   </si>
   <si>
     <t>35,02%</t>
   </si>
   <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>57,75%</t>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>57,91%</t>
   </si>
   <si>
     <t>27,73%</t>
   </si>
   <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>44,37%</t>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>44,88%</t>
   </si>
   <si>
     <t>79,48%</t>
   </si>
   <si>
-    <t>57,66%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
+    <t>53,45%</t>
+  </si>
+  <si>
+    <t>94,89%</t>
   </si>
   <si>
     <t>64,98%</t>
   </si>
   <si>
-    <t>42,25%</t>
-  </si>
-  <si>
-    <t>83,3%</t>
+    <t>42,09%</t>
+  </si>
+  <si>
+    <t>88,1%</t>
   </si>
   <si>
     <t>72,27%</t>
   </si>
   <si>
-    <t>55,63%</t>
-  </si>
-  <si>
-    <t>85,36%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>55,12%</t>
+  </si>
+  <si>
+    <t>86,19%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>5,96%</t>
@@ -188,58 +188,58 @@
     <t>38,87%</t>
   </si>
   <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>57,33%</t>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>58,03%</t>
   </si>
   <si>
     <t>29,66%</t>
   </si>
   <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>45,13%</t>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>48,12%</t>
   </si>
   <si>
     <t>33,95%</t>
   </si>
   <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>45,72%</t>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>45,95%</t>
   </si>
   <si>
     <t>61,13%</t>
   </si>
   <si>
-    <t>42,67%</t>
-  </si>
-  <si>
-    <t>79,92%</t>
+    <t>41,97%</t>
+  </si>
+  <si>
+    <t>77,16%</t>
   </si>
   <si>
     <t>70,34%</t>
   </si>
   <si>
-    <t>54,87%</t>
-  </si>
-  <si>
-    <t>83,86%</t>
+    <t>51,88%</t>
+  </si>
+  <si>
+    <t>83,59%</t>
   </si>
   <si>
     <t>66,05%</t>
   </si>
   <si>
-    <t>54,28%</t>
-  </si>
-  <si>
-    <t>77,68%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>54,05%</t>
+  </si>
+  <si>
+    <t>77,71%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>6,15%</t>
@@ -254,55 +254,55 @@
     <t>34,76%</t>
   </si>
   <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>55,34%</t>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>55,56%</t>
   </si>
   <si>
     <t>37,19%</t>
   </si>
   <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>53,79%</t>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>52,42%</t>
   </si>
   <si>
     <t>36,03%</t>
   </si>
   <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>48,45%</t>
+    <t>25,75%</t>
+  </si>
+  <si>
+    <t>48,58%</t>
   </si>
   <si>
     <t>65,24%</t>
   </si>
   <si>
-    <t>44,66%</t>
-  </si>
-  <si>
-    <t>82,1%</t>
+    <t>44,44%</t>
+  </si>
+  <si>
+    <t>79,73%</t>
   </si>
   <si>
     <t>62,81%</t>
   </si>
   <si>
-    <t>46,21%</t>
-  </si>
-  <si>
-    <t>77,61%</t>
+    <t>47,58%</t>
+  </si>
+  <si>
+    <t>77,14%</t>
   </si>
   <si>
     <t>63,97%</t>
   </si>
   <si>
-    <t>51,55%</t>
-  </si>
-  <si>
-    <t>74,92%</t>
+    <t>51,42%</t>
+  </si>
+  <si>
+    <t>74,25%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -317,55 +317,55 @@
     <t>42,82%</t>
   </si>
   <si>
-    <t>32,01%</t>
-  </si>
-  <si>
-    <t>54,98%</t>
+    <t>31,49%</t>
+  </si>
+  <si>
+    <t>55,96%</t>
   </si>
   <si>
     <t>27,06%</t>
   </si>
   <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>39,97%</t>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>40,73%</t>
   </si>
   <si>
     <t>35,16%</t>
   </si>
   <si>
-    <t>26,81%</t>
-  </si>
-  <si>
-    <t>44,08%</t>
+    <t>26,08%</t>
+  </si>
+  <si>
+    <t>43,23%</t>
   </si>
   <si>
     <t>57,18%</t>
   </si>
   <si>
-    <t>45,02%</t>
-  </si>
-  <si>
-    <t>67,99%</t>
+    <t>44,04%</t>
+  </si>
+  <si>
+    <t>68,51%</t>
   </si>
   <si>
     <t>72,94%</t>
   </si>
   <si>
-    <t>60,03%</t>
-  </si>
-  <si>
-    <t>83,01%</t>
+    <t>59,27%</t>
+  </si>
+  <si>
+    <t>82,46%</t>
   </si>
   <si>
     <t>64,84%</t>
   </si>
   <si>
-    <t>55,92%</t>
-  </si>
-  <si>
-    <t>73,19%</t>
+    <t>56,77%</t>
+  </si>
+  <si>
+    <t>73,92%</t>
   </si>
   <si>
     <t>1,29%</t>
@@ -380,55 +380,49 @@
     <t>39,6%</t>
   </si>
   <si>
-    <t>31,7%</t>
-  </si>
-  <si>
-    <t>46,91%</t>
+    <t>47,52%</t>
   </si>
   <si>
     <t>31,33%</t>
   </si>
   <si>
-    <t>24,2%</t>
-  </si>
-  <si>
-    <t>39,32%</t>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>39,13%</t>
   </si>
   <si>
     <t>35,47%</t>
   </si>
   <si>
-    <t>30,09%</t>
-  </si>
-  <si>
-    <t>40,81%</t>
+    <t>29,86%</t>
+  </si>
+  <si>
+    <t>40,48%</t>
   </si>
   <si>
     <t>60,4%</t>
   </si>
   <si>
-    <t>53,09%</t>
-  </si>
-  <si>
-    <t>68,3%</t>
+    <t>52,48%</t>
   </si>
   <si>
     <t>68,67%</t>
   </si>
   <si>
-    <t>60,68%</t>
-  </si>
-  <si>
-    <t>75,8%</t>
+    <t>60,87%</t>
+  </si>
+  <si>
+    <t>75,22%</t>
   </si>
   <si>
     <t>64,53%</t>
   </si>
   <si>
-    <t>59,19%</t>
-  </si>
-  <si>
-    <t>69,91%</t>
+    <t>59,52%</t>
+  </si>
+  <si>
+    <t>70,14%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -452,10 +446,10 @@
     <t>60,78%</t>
   </si>
   <si>
-    <t>25,28%</t>
-  </si>
-  <si>
-    <t>90,29%</t>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>89,9%</t>
   </si>
   <si>
     <t>46,82%</t>
@@ -467,10 +461,10 @@
     <t>39,22%</t>
   </si>
   <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>74,72%</t>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>82,63%</t>
   </si>
   <si>
     <t>6,81%</t>
@@ -482,55 +476,49 @@
     <t>24,94%</t>
   </si>
   <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>43,93%</t>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>46,84%</t>
   </si>
   <si>
     <t>45,07%</t>
   </si>
   <si>
-    <t>25,61%</t>
-  </si>
-  <si>
-    <t>63,43%</t>
+    <t>26,04%</t>
+  </si>
+  <si>
+    <t>64,12%</t>
   </si>
   <si>
     <t>34,29%</t>
   </si>
   <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>47,52%</t>
+    <t>48,77%</t>
   </si>
   <si>
     <t>75,06%</t>
   </si>
   <si>
-    <t>56,07%</t>
-  </si>
-  <si>
-    <t>91,16%</t>
+    <t>53,16%</t>
+  </si>
+  <si>
+    <t>88,37%</t>
   </si>
   <si>
     <t>54,93%</t>
   </si>
   <si>
-    <t>36,57%</t>
-  </si>
-  <si>
-    <t>74,39%</t>
+    <t>35,88%</t>
+  </si>
+  <si>
+    <t>73,96%</t>
   </si>
   <si>
     <t>65,71%</t>
   </si>
   <si>
-    <t>52,48%</t>
-  </si>
-  <si>
-    <t>78,17%</t>
+    <t>51,23%</t>
   </si>
   <si>
     <t>4,78%</t>
@@ -542,55 +530,55 @@
     <t>35,48%</t>
   </si>
   <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>51,03%</t>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>52,34%</t>
   </si>
   <si>
     <t>41,8%</t>
   </si>
   <si>
-    <t>29,58%</t>
-  </si>
-  <si>
-    <t>55,64%</t>
+    <t>29,27%</t>
+  </si>
+  <si>
+    <t>55,07%</t>
   </si>
   <si>
     <t>39,1%</t>
   </si>
   <si>
-    <t>29,0%</t>
-  </si>
-  <si>
-    <t>49,08%</t>
+    <t>29,95%</t>
+  </si>
+  <si>
+    <t>50,04%</t>
   </si>
   <si>
     <t>64,52%</t>
   </si>
   <si>
-    <t>48,97%</t>
-  </si>
-  <si>
-    <t>78,88%</t>
+    <t>47,66%</t>
+  </si>
+  <si>
+    <t>77,81%</t>
   </si>
   <si>
     <t>58,2%</t>
   </si>
   <si>
-    <t>44,36%</t>
-  </si>
-  <si>
-    <t>70,42%</t>
+    <t>44,93%</t>
+  </si>
+  <si>
+    <t>70,73%</t>
   </si>
   <si>
     <t>60,9%</t>
   </si>
   <si>
-    <t>50,92%</t>
-  </si>
-  <si>
-    <t>71,0%</t>
+    <t>49,96%</t>
+  </si>
+  <si>
+    <t>70,05%</t>
   </si>
   <si>
     <t>3,98%</t>
@@ -605,55 +593,55 @@
     <t>32,82%</t>
   </si>
   <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>46,88%</t>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>47,8%</t>
   </si>
   <si>
     <t>41,79%</t>
   </si>
   <si>
-    <t>27,42%</t>
-  </si>
-  <si>
-    <t>56,41%</t>
+    <t>28,13%</t>
+  </si>
+  <si>
+    <t>55,8%</t>
   </si>
   <si>
     <t>37,17%</t>
   </si>
   <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>48,16%</t>
+    <t>28,32%</t>
+  </si>
+  <si>
+    <t>48,14%</t>
   </si>
   <si>
     <t>67,18%</t>
   </si>
   <si>
-    <t>53,12%</t>
-  </si>
-  <si>
-    <t>80,83%</t>
+    <t>52,2%</t>
+  </si>
+  <si>
+    <t>78,95%</t>
   </si>
   <si>
     <t>58,21%</t>
   </si>
   <si>
-    <t>43,59%</t>
-  </si>
-  <si>
-    <t>72,58%</t>
+    <t>44,2%</t>
+  </si>
+  <si>
+    <t>71,87%</t>
   </si>
   <si>
     <t>62,83%</t>
   </si>
   <si>
-    <t>51,84%</t>
-  </si>
-  <si>
-    <t>72,61%</t>
+    <t>51,86%</t>
+  </si>
+  <si>
+    <t>71,68%</t>
   </si>
   <si>
     <t>2,82%</t>
@@ -668,55 +656,55 @@
     <t>35,41%</t>
   </si>
   <si>
-    <t>24,85%</t>
-  </si>
-  <si>
-    <t>47,68%</t>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>47,4%</t>
   </si>
   <si>
     <t>43,72%</t>
   </si>
   <si>
-    <t>33,22%</t>
-  </si>
-  <si>
-    <t>55,74%</t>
+    <t>32,84%</t>
+  </si>
+  <si>
+    <t>55,18%</t>
   </si>
   <si>
     <t>39,59%</t>
   </si>
   <si>
-    <t>31,21%</t>
-  </si>
-  <si>
-    <t>47,98%</t>
+    <t>30,84%</t>
+  </si>
+  <si>
+    <t>47,09%</t>
   </si>
   <si>
     <t>64,59%</t>
   </si>
   <si>
-    <t>52,32%</t>
-  </si>
-  <si>
-    <t>75,15%</t>
+    <t>52,6%</t>
+  </si>
+  <si>
+    <t>74,78%</t>
   </si>
   <si>
     <t>56,28%</t>
   </si>
   <si>
-    <t>44,26%</t>
-  </si>
-  <si>
-    <t>66,78%</t>
+    <t>44,82%</t>
+  </si>
+  <si>
+    <t>67,16%</t>
   </si>
   <si>
     <t>60,41%</t>
   </si>
   <si>
-    <t>52,02%</t>
-  </si>
-  <si>
-    <t>68,79%</t>
+    <t>52,91%</t>
+  </si>
+  <si>
+    <t>69,16%</t>
   </si>
   <si>
     <t>1,02%</t>
@@ -731,58 +719,58 @@
     <t>33,55%</t>
   </si>
   <si>
-    <t>26,53%</t>
-  </si>
-  <si>
-    <t>40,41%</t>
+    <t>26,67%</t>
+  </si>
+  <si>
+    <t>40,59%</t>
   </si>
   <si>
     <t>43,49%</t>
   </si>
   <si>
-    <t>36,14%</t>
-  </si>
-  <si>
-    <t>50,11%</t>
+    <t>36,83%</t>
+  </si>
+  <si>
+    <t>50,68%</t>
   </si>
   <si>
     <t>38,6%</t>
   </si>
   <si>
-    <t>33,82%</t>
-  </si>
-  <si>
-    <t>43,9%</t>
+    <t>33,62%</t>
+  </si>
+  <si>
+    <t>43,58%</t>
   </si>
   <si>
     <t>66,45%</t>
   </si>
   <si>
-    <t>59,59%</t>
-  </si>
-  <si>
-    <t>73,47%</t>
+    <t>59,41%</t>
+  </si>
+  <si>
+    <t>73,33%</t>
   </si>
   <si>
     <t>56,51%</t>
   </si>
   <si>
-    <t>49,89%</t>
-  </si>
-  <si>
-    <t>63,86%</t>
+    <t>49,32%</t>
+  </si>
+  <si>
+    <t>63,17%</t>
   </si>
   <si>
     <t>61,4%</t>
   </si>
   <si>
-    <t>56,1%</t>
-  </si>
-  <si>
-    <t>66,18%</t>
-  </si>
-  <si>
-    <t>Adultos según si viven actualmente en pareja en 2015 (Tasa respuesta: 26,15%)</t>
+    <t>56,42%</t>
+  </si>
+  <si>
+    <t>66,38%</t>
+  </si>
+  <si>
+    <t>Adultos según si viven actualmente en pareja en 2016 (Tasa respuesta: 26,15%)</t>
   </si>
   <si>
     <t>20,75%</t>
@@ -794,7 +782,7 @@
     <t>75,77%</t>
   </si>
   <si>
-    <t>30,01%</t>
+    <t>30,65%</t>
   </si>
   <si>
     <t>59,65%</t>
@@ -803,28 +791,28 @@
     <t>18,02%</t>
   </si>
   <si>
-    <t>91,96%</t>
+    <t>91,44%</t>
   </si>
   <si>
     <t>67,86%</t>
   </si>
   <si>
-    <t>38,63%</t>
-  </si>
-  <si>
-    <t>88,31%</t>
+    <t>41,06%</t>
+  </si>
+  <si>
+    <t>87,93%</t>
   </si>
   <si>
     <t>24,23%</t>
   </si>
   <si>
-    <t>69,99%</t>
+    <t>69,35%</t>
   </si>
   <si>
     <t>40,35%</t>
   </si>
   <si>
-    <t>8,04%</t>
+    <t>8,56%</t>
   </si>
   <si>
     <t>81,98%</t>
@@ -833,64 +821,52 @@
     <t>32,14%</t>
   </si>
   <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>61,37%</t>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>58,94%</t>
   </si>
   <si>
     <t>48,34%</t>
   </si>
   <si>
-    <t>29,69%</t>
-  </si>
-  <si>
-    <t>66,96%</t>
-  </si>
-  <si>
-    <t>30,65%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>46,2%</t>
+    <t>66,79%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>46,44%</t>
   </si>
   <si>
     <t>38,18%</t>
   </si>
   <si>
-    <t>27,17%</t>
-  </si>
-  <si>
-    <t>49,28%</t>
+    <t>26,02%</t>
+  </si>
+  <si>
+    <t>49,97%</t>
   </si>
   <si>
     <t>51,66%</t>
   </si>
   <si>
-    <t>33,04%</t>
-  </si>
-  <si>
-    <t>70,31%</t>
-  </si>
-  <si>
-    <t>69,35%</t>
-  </si>
-  <si>
-    <t>53,8%</t>
-  </si>
-  <si>
-    <t>81,86%</t>
+    <t>33,21%</t>
+  </si>
+  <si>
+    <t>53,56%</t>
+  </si>
+  <si>
+    <t>83,29%</t>
   </si>
   <si>
     <t>61,82%</t>
   </si>
   <si>
-    <t>50,72%</t>
-  </si>
-  <si>
-    <t>72,83%</t>
+    <t>50,03%</t>
+  </si>
+  <si>
+    <t>73,98%</t>
   </si>
   <si>
     <t>2,39%</t>
@@ -905,55 +881,55 @@
     <t>35,9%</t>
   </si>
   <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>46,99%</t>
+    <t>25,66%</t>
+  </si>
+  <si>
+    <t>45,83%</t>
   </si>
   <si>
     <t>42,0%</t>
   </si>
   <si>
-    <t>30,92%</t>
-  </si>
-  <si>
-    <t>52,06%</t>
+    <t>32,31%</t>
+  </si>
+  <si>
+    <t>53,0%</t>
   </si>
   <si>
     <t>38,85%</t>
   </si>
   <si>
-    <t>31,08%</t>
-  </si>
-  <si>
-    <t>46,19%</t>
+    <t>31,61%</t>
+  </si>
+  <si>
+    <t>46,58%</t>
   </si>
   <si>
     <t>64,1%</t>
   </si>
   <si>
-    <t>53,01%</t>
-  </si>
-  <si>
-    <t>75,27%</t>
+    <t>54,17%</t>
+  </si>
+  <si>
+    <t>74,34%</t>
   </si>
   <si>
     <t>58,0%</t>
   </si>
   <si>
-    <t>47,94%</t>
-  </si>
-  <si>
-    <t>69,08%</t>
+    <t>47,0%</t>
+  </si>
+  <si>
+    <t>67,69%</t>
   </si>
   <si>
     <t>61,15%</t>
   </si>
   <si>
-    <t>53,81%</t>
-  </si>
-  <si>
-    <t>68,92%</t>
+    <t>53,42%</t>
+  </si>
+  <si>
+    <t>68,39%</t>
   </si>
   <si>
     <t>2,55%</t>
@@ -965,55 +941,55 @@
     <t>27,14%</t>
   </si>
   <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>38,01%</t>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>37,91%</t>
   </si>
   <si>
     <t>35,64%</t>
   </si>
   <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>49,22%</t>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>48,05%</t>
   </si>
   <si>
     <t>30,82%</t>
   </si>
   <si>
-    <t>23,45%</t>
-  </si>
-  <si>
-    <t>39,02%</t>
+    <t>23,82%</t>
+  </si>
+  <si>
+    <t>38,43%</t>
   </si>
   <si>
     <t>72,86%</t>
   </si>
   <si>
-    <t>61,99%</t>
-  </si>
-  <si>
-    <t>81,68%</t>
+    <t>62,09%</t>
+  </si>
+  <si>
+    <t>81,62%</t>
   </si>
   <si>
     <t>64,36%</t>
   </si>
   <si>
-    <t>50,78%</t>
-  </si>
-  <si>
-    <t>74,41%</t>
+    <t>51,95%</t>
+  </si>
+  <si>
+    <t>75,64%</t>
   </si>
   <si>
     <t>69,18%</t>
   </si>
   <si>
-    <t>60,98%</t>
-  </si>
-  <si>
-    <t>76,55%</t>
+    <t>61,57%</t>
+  </si>
+  <si>
+    <t>76,18%</t>
   </si>
   <si>
     <t>2,2%</t>
@@ -1028,55 +1004,49 @@
     <t>37,95%</t>
   </si>
   <si>
-    <t>28,12%</t>
-  </si>
-  <si>
-    <t>48,77%</t>
+    <t>49,07%</t>
   </si>
   <si>
     <t>43,47%</t>
   </si>
   <si>
-    <t>33,25%</t>
-  </si>
-  <si>
-    <t>53,25%</t>
+    <t>33,49%</t>
+  </si>
+  <si>
+    <t>53,74%</t>
   </si>
   <si>
     <t>40,8%</t>
   </si>
   <si>
-    <t>34,03%</t>
-  </si>
-  <si>
-    <t>48,35%</t>
+    <t>33,24%</t>
+  </si>
+  <si>
+    <t>47,85%</t>
   </si>
   <si>
     <t>62,05%</t>
   </si>
   <si>
-    <t>51,23%</t>
-  </si>
-  <si>
-    <t>71,88%</t>
+    <t>50,93%</t>
   </si>
   <si>
     <t>56,53%</t>
   </si>
   <si>
-    <t>46,75%</t>
-  </si>
-  <si>
-    <t>66,75%</t>
+    <t>46,26%</t>
+  </si>
+  <si>
+    <t>66,51%</t>
   </si>
   <si>
     <t>59,2%</t>
   </si>
   <si>
-    <t>51,65%</t>
-  </si>
-  <si>
-    <t>65,97%</t>
+    <t>52,15%</t>
+  </si>
+  <si>
+    <t>66,76%</t>
   </si>
   <si>
     <t>0,7%</t>
@@ -1091,55 +1061,55 @@
     <t>36,93%</t>
   </si>
   <si>
-    <t>31,58%</t>
-  </si>
-  <si>
-    <t>42,87%</t>
+    <t>31,67%</t>
+  </si>
+  <si>
+    <t>43,02%</t>
   </si>
   <si>
     <t>40,21%</t>
   </si>
   <si>
-    <t>34,58%</t>
-  </si>
-  <si>
-    <t>46,41%</t>
+    <t>34,91%</t>
+  </si>
+  <si>
+    <t>46,05%</t>
   </si>
   <si>
     <t>38,55%</t>
   </si>
   <si>
-    <t>34,64%</t>
-  </si>
-  <si>
-    <t>42,8%</t>
+    <t>34,33%</t>
+  </si>
+  <si>
+    <t>42,79%</t>
   </si>
   <si>
     <t>63,07%</t>
   </si>
   <si>
-    <t>57,13%</t>
-  </si>
-  <si>
-    <t>68,42%</t>
+    <t>56,98%</t>
+  </si>
+  <si>
+    <t>68,33%</t>
   </si>
   <si>
     <t>59,79%</t>
   </si>
   <si>
-    <t>53,59%</t>
-  </si>
-  <si>
-    <t>65,42%</t>
+    <t>53,95%</t>
+  </si>
+  <si>
+    <t>65,09%</t>
   </si>
   <si>
     <t>61,45%</t>
   </si>
   <si>
-    <t>57,2%</t>
-  </si>
-  <si>
-    <t>65,36%</t>
+    <t>57,21%</t>
+  </si>
+  <si>
+    <t>65,67%</t>
   </si>
   <si>
     <t>Adultos según si viven actualmente en pareja en 2023 (Tasa respuesta: 2,5%)</t>
@@ -1608,7 +1578,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C54539C-2018-4156-A4E9-E4AD8CB5E85A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C00E4B0-556E-477A-9DC5-0FA7681E7613}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2816,10 +2786,10 @@
         <v>112</v>
       </c>
       <c r="F25" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="H25" s="7">
         <v>46</v>
@@ -2828,13 +2798,13 @@
         <v>31145</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="M25" s="7">
         <v>103</v>
@@ -2843,13 +2813,13 @@
         <v>70581</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2864,13 +2834,13 @@
         <v>60140</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="F26" s="7" t="s">
-        <v>122</v>
-      </c>
       <c r="G26" s="7" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="H26" s="7">
         <v>100</v>
@@ -2879,13 +2849,13 @@
         <v>68255</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="M26" s="7">
         <v>191</v>
@@ -2894,13 +2864,13 @@
         <v>128396</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2956,7 +2926,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -2977,7 +2947,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62EAA80A-F637-49C7-A2A5-A3311F1432A7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C97ED82A-E2EC-4CC9-80DD-6B03C4281299}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2994,7 +2964,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3122,7 +3092,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3137,7 +3107,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3152,7 +3122,7 @@
         <v>1863</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
@@ -3167,7 +3137,7 @@
         <v>1715</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>11</v>
@@ -3182,13 +3152,13 @@
         <v>3579</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3203,7 +3173,7 @@
         <v>1641</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>11</v>
@@ -3218,7 +3188,7 @@
         <v>669</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>11</v>
@@ -3233,13 +3203,13 @@
         <v>2310</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3328,7 +3298,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -3343,7 +3313,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3358,13 +3328,13 @@
         <v>5517</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="H9" s="7">
         <v>12</v>
@@ -3373,13 +3343,13 @@
         <v>8644</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="M9" s="7">
         <v>18</v>
@@ -3388,13 +3358,13 @@
         <v>14161</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>153</v>
+        <v>20</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3409,13 +3379,13 @@
         <v>16610</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H10" s="7">
         <v>15</v>
@@ -3424,13 +3394,13 @@
         <v>10533</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="M10" s="7">
         <v>39</v>
@@ -3439,13 +3409,13 @@
         <v>27143</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>163</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3519,7 +3489,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -3534,7 +3504,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -3549,7 +3519,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3564,13 +3534,13 @@
         <v>9612</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="H13" s="7">
         <v>24</v>
@@ -3579,13 +3549,13 @@
         <v>15220</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="M13" s="7">
         <v>38</v>
@@ -3594,13 +3564,13 @@
         <v>24832</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3615,13 +3585,13 @@
         <v>17482</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H14" s="7">
         <v>33</v>
@@ -3630,13 +3600,13 @@
         <v>21192</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="M14" s="7">
         <v>58</v>
@@ -3645,13 +3615,13 @@
         <v>38673</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3725,7 +3695,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -3740,7 +3710,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -3755,7 +3725,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3770,13 +3740,13 @@
         <v>9853</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="H17" s="7">
         <v>19</v>
@@ -3785,13 +3755,13 @@
         <v>11794</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="M17" s="7">
         <v>34</v>
@@ -3800,13 +3770,13 @@
         <v>21648</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3821,13 +3791,13 @@
         <v>20165</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="H18" s="7">
         <v>26</v>
@@ -3836,13 +3806,13 @@
         <v>16428</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="M18" s="7">
         <v>58</v>
@@ -3851,13 +3821,13 @@
         <v>36592</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3931,7 +3901,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -3946,7 +3916,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -3961,7 +3931,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3976,13 +3946,13 @@
         <v>17367</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="H21" s="7">
         <v>29</v>
@@ -3991,13 +3961,13 @@
         <v>21748</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="M21" s="7">
         <v>53</v>
@@ -4006,13 +3976,13 @@
         <v>39115</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4027,13 +3997,13 @@
         <v>31682</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="H22" s="7">
         <v>37</v>
@@ -4042,13 +4012,13 @@
         <v>27993</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="M22" s="7">
         <v>80</v>
@@ -4057,13 +4027,13 @@
         <v>59675</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4137,7 +4107,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -4152,7 +4122,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -4167,7 +4137,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4182,13 +4152,13 @@
         <v>44214</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="H25" s="7">
         <v>86</v>
@@ -4197,13 +4167,13 @@
         <v>59122</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="M25" s="7">
         <v>147</v>
@@ -4212,13 +4182,13 @@
         <v>103336</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4233,13 +4203,13 @@
         <v>87578</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="H26" s="7">
         <v>112</v>
@@ -4248,13 +4218,13 @@
         <v>76814</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="M26" s="7">
         <v>238</v>
@@ -4263,13 +4233,13 @@
         <v>164392</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4325,7 +4295,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -4346,7 +4316,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52749D89-DE7C-4CB7-8EC6-70CAFE0B36A8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D76A104-4C35-4601-82BF-C29C1CECA8FA}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4363,7 +4333,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4476,7 +4446,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4491,7 +4461,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -4506,7 +4476,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4521,10 +4491,10 @@
         <v>5154</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>17</v>
@@ -4536,13 +4506,13 @@
         <v>3911</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="M5" s="7">
         <v>10</v>
@@ -4551,13 +4521,13 @@
         <v>9064</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4572,13 +4542,13 @@
         <v>1648</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="H6" s="7">
         <v>3</v>
@@ -4587,13 +4557,13 @@
         <v>2646</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="M6" s="7">
         <v>5</v>
@@ -4602,13 +4572,13 @@
         <v>4294</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4682,7 +4652,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -4697,7 +4667,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -4712,7 +4682,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4727,13 +4697,13 @@
         <v>9506</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>267</v>
+        <v>118</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="H9" s="7">
         <v>13</v>
@@ -4742,13 +4712,13 @@
         <v>8141</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>269</v>
+        <v>247</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="M9" s="7">
         <v>26</v>
@@ -4757,13 +4727,13 @@
         <v>17648</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4778,13 +4748,13 @@
         <v>10158</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>277</v>
+        <v>127</v>
       </c>
       <c r="H10" s="7">
         <v>26</v>
@@ -4793,13 +4763,13 @@
         <v>18418</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>278</v>
+        <v>255</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="M10" s="7">
         <v>40</v>
@@ -4808,13 +4778,13 @@
         <v>28576</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4888,7 +4858,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -4903,7 +4873,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -4918,7 +4888,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4933,13 +4903,13 @@
         <v>19605</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="H13" s="7">
         <v>36</v>
@@ -4948,13 +4918,13 @@
         <v>21420</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="M13" s="7">
         <v>65</v>
@@ -4963,13 +4933,13 @@
         <v>41026</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4984,13 +4954,13 @@
         <v>35001</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="H14" s="7">
         <v>46</v>
@@ -4999,13 +4969,13 @@
         <v>29581</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="M14" s="7">
         <v>96</v>
@@ -5014,13 +4984,13 @@
         <v>64581</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5094,7 +5064,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -5124,7 +5094,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5139,13 +5109,13 @@
         <v>13715</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="H17" s="7">
         <v>24</v>
@@ -5154,13 +5124,13 @@
         <v>13743</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="M17" s="7">
         <v>45</v>
@@ -5169,13 +5139,13 @@
         <v>27458</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5190,13 +5160,13 @@
         <v>36813</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="H18" s="7">
         <v>41</v>
@@ -5205,13 +5175,13 @@
         <v>24820</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="M18" s="7">
         <v>94</v>
@@ -5220,13 +5190,13 @@
         <v>61633</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5300,7 +5270,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -5315,7 +5285,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -5330,7 +5300,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5345,13 +5315,13 @@
         <v>23111</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>329</v>
+        <v>190</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="H21" s="7">
         <v>40</v>
@@ -5360,13 +5330,13 @@
         <v>28169</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="M21" s="7">
         <v>74</v>
@@ -5375,13 +5345,13 @@
         <v>51279</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5396,13 +5366,13 @@
         <v>37785</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>339</v>
+        <v>200</v>
       </c>
       <c r="H22" s="7">
         <v>49</v>
@@ -5411,13 +5381,13 @@
         <v>36630</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="M22" s="7">
         <v>101</v>
@@ -5426,13 +5396,13 @@
         <v>74416</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5506,7 +5476,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -5521,7 +5491,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -5536,7 +5506,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5551,13 +5521,13 @@
         <v>71091</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="H25" s="7">
         <v>117</v>
@@ -5566,13 +5536,13 @@
         <v>75384</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="M25" s="7">
         <v>220</v>
@@ -5581,13 +5551,13 @@
         <v>146475</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5602,13 +5572,13 @@
         <v>121405</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="H26" s="7">
         <v>165</v>
@@ -5617,13 +5587,13 @@
         <v>112095</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="M26" s="7">
         <v>336</v>
@@ -5632,13 +5602,13 @@
         <v>233500</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5694,7 +5664,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -5715,7 +5685,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF21367B-F278-40AA-8FB2-5B927A22EB0C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BEBBF43-7A34-44F6-8BF9-B45A822FDFAA}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5732,7 +5702,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5837,39 +5807,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5882,39 +5852,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5927,39 +5897,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5972,39 +5942,39 @@
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
       </c>
       <c r="N7" s="7"/>
       <c r="O7" s="7" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6039,7 +6009,7 @@
         <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>19</v>
@@ -6054,7 +6024,7 @@
         <v>17</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>19</v>
@@ -6093,7 +6063,7 @@
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -6108,7 +6078,7 @@
         <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6144,7 +6114,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -6159,7 +6129,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6245,7 +6215,7 @@
         <v>17</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>19</v>
@@ -6260,7 +6230,7 @@
         <v>17</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>19</v>
@@ -6299,7 +6269,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -6314,7 +6284,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6350,7 +6320,7 @@
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -6365,7 +6335,7 @@
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6451,7 +6421,7 @@
         <v>17</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>19</v>
@@ -6466,7 +6436,7 @@
         <v>17</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>19</v>
@@ -6505,7 +6475,7 @@
         <v>12</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -6520,7 +6490,7 @@
         <v>12</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6556,7 +6526,7 @@
         <v>12</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -6571,7 +6541,7 @@
         <v>12</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6657,7 +6627,7 @@
         <v>17</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>19</v>
@@ -6672,7 +6642,7 @@
         <v>17</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>19</v>
@@ -6711,7 +6681,7 @@
         <v>12</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -6726,7 +6696,7 @@
         <v>12</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6762,7 +6732,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -6777,7 +6747,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6848,7 +6818,7 @@
         <v>17</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>19</v>
@@ -6863,7 +6833,7 @@
         <v>17</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>19</v>
@@ -6878,7 +6848,7 @@
         <v>17</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="Q24" s="7" t="s">
         <v>19</v>
@@ -6902,7 +6872,7 @@
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -6932,7 +6902,7 @@
         <v>12</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6953,7 +6923,7 @@
         <v>12</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -6983,7 +6953,7 @@
         <v>12</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7039,7 +7009,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP33A-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP33A-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A9CAF8E5-B187-44B0-97C9-B52BFE81B523}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E7FFE051-ACD4-431A-9139-50608FDAFEBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{081B265B-2005-42FD-B6FF-8E523B028C68}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{959FDACB-5525-4C8A-A13F-9E19F6E664CA}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,15 +39,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="376">
-  <si>
-    <t>Adultos según si viven actualmente en pareja en 2007 (Tasa respuesta: 13,97%)</t>
-  </si>
-  <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="460">
+  <si>
+    <t>Progenitores según si viven actualmente en pareja en 2007 (Tasa respuesta: 13,97%)</t>
+  </si>
+  <si>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>996.0</t>
@@ -80,1093 +80,1345 @@
     <t>0%</t>
   </si>
   <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
+    <t>38,67%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>61,12%</t>
+  </si>
+  <si>
+    <t>37,4%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>60,43%</t>
+  </si>
+  <si>
+    <t>37,97%</t>
+  </si>
+  <si>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>52,45%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>61,33%</t>
+  </si>
+  <si>
+    <t>38,88%</t>
+  </si>
+  <si>
+    <t>82,89%</t>
+  </si>
+  <si>
+    <t>62,6%</t>
+  </si>
+  <si>
+    <t>39,57%</t>
+  </si>
+  <si>
+    <t>80,48%</t>
+  </si>
+  <si>
+    <t>62,03%</t>
+  </si>
+  <si>
+    <t>47,55%</t>
+  </si>
+  <si>
+    <t>76,7%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>69,43%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>46,55%</t>
-  </si>
-  <si>
-    <t>35,02%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>57,91%</t>
-  </si>
-  <si>
-    <t>27,73%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>44,88%</t>
-  </si>
-  <si>
-    <t>79,48%</t>
-  </si>
-  <si>
-    <t>53,45%</t>
-  </si>
-  <si>
-    <t>94,89%</t>
-  </si>
-  <si>
-    <t>64,98%</t>
-  </si>
-  <si>
-    <t>42,09%</t>
-  </si>
-  <si>
-    <t>88,1%</t>
-  </si>
-  <si>
-    <t>72,27%</t>
-  </si>
-  <si>
-    <t>55,12%</t>
-  </si>
-  <si>
-    <t>86,19%</t>
-  </si>
-  <si>
     <t>10-50.000 hab</t>
   </si>
   <si>
+    <t>5,03%</t>
+  </si>
+  <si>
     <t>5,96%</t>
   </si>
   <si>
-    <t>5,03%</t>
-  </si>
-  <si>
     <t>2,77%</t>
   </si>
   <si>
+    <t>29,66%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>45,4%</t>
+  </si>
+  <si>
     <t>38,87%</t>
   </si>
   <si>
+    <t>22,55%</t>
+  </si>
+  <si>
+    <t>57,42%</t>
+  </si>
+  <si>
+    <t>33,95%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>45,72%</t>
+  </si>
+  <si>
+    <t>70,34%</t>
+  </si>
+  <si>
+    <t>54,6%</t>
+  </si>
+  <si>
+    <t>83,69%</t>
+  </si>
+  <si>
+    <t>61,13%</t>
+  </si>
+  <si>
+    <t>42,58%</t>
+  </si>
+  <si>
+    <t>77,45%</t>
+  </si>
+  <si>
+    <t>66,05%</t>
+  </si>
+  <si>
+    <t>54,28%</t>
+  </si>
+  <si>
+    <t>76,54%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>37,19%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>54,08%</t>
+  </si>
+  <si>
+    <t>34,76%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>53,97%</t>
+  </si>
+  <si>
+    <t>36,03%</t>
+  </si>
+  <si>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>47,49%</t>
+  </si>
+  <si>
+    <t>62,81%</t>
+  </si>
+  <si>
+    <t>45,92%</t>
+  </si>
+  <si>
+    <t>76,72%</t>
+  </si>
+  <si>
+    <t>65,24%</t>
+  </si>
+  <si>
+    <t>46,03%</t>
+  </si>
+  <si>
+    <t>81,78%</t>
+  </si>
+  <si>
+    <t>63,97%</t>
+  </si>
+  <si>
+    <t>52,51%</t>
+  </si>
+  <si>
+    <t>74,59%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>38,11%</t>
+  </si>
+  <si>
+    <t>42,82%</t>
+  </si>
+  <si>
+    <t>30,52%</t>
+  </si>
+  <si>
+    <t>55,16%</t>
+  </si>
+  <si>
+    <t>35,16%</t>
+  </si>
+  <si>
+    <t>26,36%</t>
+  </si>
+  <si>
+    <t>43,9%</t>
+  </si>
+  <si>
+    <t>72,94%</t>
+  </si>
+  <si>
+    <t>61,89%</t>
+  </si>
+  <si>
+    <t>84,26%</t>
+  </si>
+  <si>
+    <t>57,18%</t>
+  </si>
+  <si>
+    <t>44,84%</t>
+  </si>
+  <si>
+    <t>69,48%</t>
+  </si>
+  <si>
+    <t>64,84%</t>
+  </si>
+  <si>
+    <t>56,1%</t>
+  </si>
+  <si>
+    <t>73,64%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>31,33%</t>
+  </si>
+  <si>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>39,22%</t>
+  </si>
+  <si>
+    <t>39,6%</t>
+  </si>
+  <si>
+    <t>32,12%</t>
+  </si>
+  <si>
+    <t>49,22%</t>
+  </si>
+  <si>
+    <t>35,47%</t>
+  </si>
+  <si>
+    <t>30,14%</t>
+  </si>
+  <si>
+    <t>41,01%</t>
+  </si>
+  <si>
+    <t>68,67%</t>
+  </si>
+  <si>
+    <t>60,78%</t>
+  </si>
+  <si>
+    <t>75,77%</t>
+  </si>
+  <si>
+    <t>60,4%</t>
+  </si>
+  <si>
+    <t>50,78%</t>
+  </si>
+  <si>
+    <t>67,88%</t>
+  </si>
+  <si>
+    <t>64,53%</t>
+  </si>
+  <si>
+    <t>58,99%</t>
+  </si>
+  <si>
+    <t>69,86%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Progenitores según si viven actualmente en pareja en 2012 (Tasa respuesta: 18,34%)</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>48,05%</t>
+  </si>
+  <si>
+    <t>31,99%</t>
+  </si>
+  <si>
+    <t>66,7%</t>
+  </si>
+  <si>
+    <t>28,8%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>37,59%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>49,74%</t>
+  </si>
+  <si>
+    <t>51,95%</t>
+  </si>
+  <si>
+    <t>33,3%</t>
+  </si>
+  <si>
+    <t>68,01%</t>
+  </si>
+  <si>
+    <t>71,2%</t>
+  </si>
+  <si>
+    <t>86,62%</t>
+  </si>
+  <si>
+    <t>62,41%</t>
+  </si>
+  <si>
+    <t>50,26%</t>
+  </si>
+  <si>
+    <t>74,07%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>41,8%</t>
+  </si>
+  <si>
+    <t>28,85%</t>
+  </si>
+  <si>
+    <t>54,19%</t>
+  </si>
+  <si>
+    <t>35,48%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>52,05%</t>
+  </si>
+  <si>
+    <t>39,1%</t>
+  </si>
+  <si>
+    <t>29,93%</t>
+  </si>
+  <si>
+    <t>49,49%</t>
+  </si>
+  <si>
+    <t>58,2%</t>
+  </si>
+  <si>
+    <t>45,81%</t>
+  </si>
+  <si>
+    <t>71,15%</t>
+  </si>
+  <si>
+    <t>64,52%</t>
+  </si>
+  <si>
+    <t>47,95%</t>
+  </si>
+  <si>
+    <t>78,54%</t>
+  </si>
+  <si>
+    <t>60,9%</t>
+  </si>
+  <si>
+    <t>50,51%</t>
+  </si>
+  <si>
+    <t>70,07%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>41,79%</t>
+  </si>
+  <si>
+    <t>27,82%</t>
+  </si>
+  <si>
+    <t>55,99%</t>
+  </si>
+  <si>
+    <t>32,82%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>47,71%</t>
+  </si>
+  <si>
+    <t>37,17%</t>
+  </si>
+  <si>
+    <t>26,47%</t>
+  </si>
+  <si>
+    <t>48,67%</t>
+  </si>
+  <si>
+    <t>58,21%</t>
+  </si>
+  <si>
+    <t>44,01%</t>
+  </si>
+  <si>
+    <t>72,18%</t>
+  </si>
+  <si>
+    <t>67,18%</t>
+  </si>
+  <si>
+    <t>52,29%</t>
+  </si>
+  <si>
+    <t>80,87%</t>
+  </si>
+  <si>
+    <t>62,83%</t>
+  </si>
+  <si>
+    <t>51,33%</t>
+  </si>
+  <si>
+    <t>73,53%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>43,72%</t>
+  </si>
+  <si>
+    <t>32,42%</t>
+  </si>
+  <si>
+    <t>56,28%</t>
+  </si>
+  <si>
+    <t>35,41%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>47,21%</t>
+  </si>
+  <si>
+    <t>39,59%</t>
+  </si>
+  <si>
+    <t>31,42%</t>
+  </si>
+  <si>
+    <t>47,72%</t>
+  </si>
+  <si>
+    <t>67,58%</t>
+  </si>
+  <si>
+    <t>64,59%</t>
+  </si>
+  <si>
+    <t>52,79%</t>
+  </si>
+  <si>
+    <t>75,35%</t>
+  </si>
+  <si>
+    <t>60,41%</t>
+  </si>
+  <si>
+    <t>52,28%</t>
+  </si>
+  <si>
+    <t>68,58%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>43,49%</t>
+  </si>
+  <si>
+    <t>36,6%</t>
+  </si>
+  <si>
+    <t>50,84%</t>
+  </si>
+  <si>
+    <t>33,55%</t>
+  </si>
+  <si>
+    <t>26,67%</t>
+  </si>
+  <si>
+    <t>40,89%</t>
+  </si>
+  <si>
+    <t>38,6%</t>
+  </si>
+  <si>
+    <t>33,57%</t>
+  </si>
+  <si>
+    <t>43,71%</t>
+  </si>
+  <si>
+    <t>56,51%</t>
+  </si>
+  <si>
+    <t>49,16%</t>
+  </si>
+  <si>
+    <t>63,4%</t>
+  </si>
+  <si>
+    <t>66,45%</t>
+  </si>
+  <si>
+    <t>59,11%</t>
+  </si>
+  <si>
+    <t>73,33%</t>
+  </si>
+  <si>
+    <t>61,4%</t>
+  </si>
+  <si>
+    <t>56,29%</t>
+  </si>
+  <si>
+    <t>66,43%</t>
+  </si>
+  <si>
+    <t>Progenitores según si viven actualmente en pareja en 2016 (Tasa respuesta: 26,15%)</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>36,39%</t>
+  </si>
+  <si>
     <t>22,84%</t>
   </si>
   <si>
-    <t>58,03%</t>
-  </si>
-  <si>
-    <t>29,66%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>48,12%</t>
-  </si>
-  <si>
-    <t>33,95%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
+    <t>51,07%</t>
+  </si>
+  <si>
+    <t>55,39%</t>
+  </si>
+  <si>
+    <t>38,3%</t>
+  </si>
+  <si>
+    <t>70,66%</t>
+  </si>
+  <si>
+    <t>44,83%</t>
+  </si>
+  <si>
+    <t>32,86%</t>
+  </si>
+  <si>
+    <t>55,58%</t>
+  </si>
+  <si>
+    <t>63,61%</t>
+  </si>
+  <si>
+    <t>48,93%</t>
+  </si>
+  <si>
+    <t>77,16%</t>
+  </si>
+  <si>
+    <t>44,61%</t>
+  </si>
+  <si>
+    <t>29,34%</t>
+  </si>
+  <si>
+    <t>61,7%</t>
+  </si>
+  <si>
+    <t>55,17%</t>
+  </si>
+  <si>
+    <t>44,42%</t>
+  </si>
+  <si>
+    <t>67,14%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>42,0%</t>
+  </si>
+  <si>
+    <t>31,29%</t>
+  </si>
+  <si>
+    <t>53,48%</t>
+  </si>
+  <si>
+    <t>35,9%</t>
+  </si>
+  <si>
+    <t>25,02%</t>
+  </si>
+  <si>
+    <t>46,74%</t>
+  </si>
+  <si>
+    <t>38,85%</t>
+  </si>
+  <si>
+    <t>31,82%</t>
+  </si>
+  <si>
+    <t>46,47%</t>
+  </si>
+  <si>
+    <t>58,0%</t>
+  </si>
+  <si>
+    <t>46,52%</t>
+  </si>
+  <si>
+    <t>68,71%</t>
+  </si>
+  <si>
+    <t>64,1%</t>
+  </si>
+  <si>
+    <t>53,26%</t>
+  </si>
+  <si>
+    <t>74,98%</t>
+  </si>
+  <si>
+    <t>61,15%</t>
+  </si>
+  <si>
+    <t>53,53%</t>
+  </si>
+  <si>
+    <t>68,18%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>35,64%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>47,07%</t>
+  </si>
+  <si>
+    <t>27,14%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>38,37%</t>
+  </si>
+  <si>
+    <t>30,82%</t>
+  </si>
+  <si>
+    <t>23,56%</t>
+  </si>
+  <si>
+    <t>39,13%</t>
+  </si>
+  <si>
+    <t>64,36%</t>
+  </si>
+  <si>
+    <t>52,93%</t>
+  </si>
+  <si>
+    <t>76,03%</t>
+  </si>
+  <si>
+    <t>72,86%</t>
+  </si>
+  <si>
+    <t>61,63%</t>
+  </si>
+  <si>
+    <t>81,67%</t>
+  </si>
+  <si>
+    <t>69,18%</t>
+  </si>
+  <si>
+    <t>60,87%</t>
+  </si>
+  <si>
+    <t>76,44%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>43,47%</t>
+  </si>
+  <si>
+    <t>33,42%</t>
+  </si>
+  <si>
+    <t>54,7%</t>
+  </si>
+  <si>
+    <t>37,95%</t>
+  </si>
+  <si>
+    <t>28,38%</t>
+  </si>
+  <si>
+    <t>48,0%</t>
+  </si>
+  <si>
+    <t>40,8%</t>
+  </si>
+  <si>
+    <t>33,87%</t>
+  </si>
+  <si>
+    <t>47,92%</t>
+  </si>
+  <si>
+    <t>56,53%</t>
+  </si>
+  <si>
+    <t>45,3%</t>
+  </si>
+  <si>
+    <t>66,58%</t>
+  </si>
+  <si>
+    <t>62,05%</t>
+  </si>
+  <si>
+    <t>52,0%</t>
+  </si>
+  <si>
+    <t>71,62%</t>
+  </si>
+  <si>
+    <t>59,2%</t>
+  </si>
+  <si>
+    <t>52,08%</t>
+  </si>
+  <si>
+    <t>66,13%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>40,21%</t>
+  </si>
+  <si>
+    <t>34,33%</t>
+  </si>
+  <si>
+    <t>45,67%</t>
+  </si>
+  <si>
+    <t>36,93%</t>
+  </si>
+  <si>
+    <t>31,8%</t>
+  </si>
+  <si>
+    <t>42,89%</t>
+  </si>
+  <si>
+    <t>38,55%</t>
+  </si>
+  <si>
+    <t>34,45%</t>
+  </si>
+  <si>
+    <t>42,84%</t>
+  </si>
+  <si>
+    <t>59,79%</t>
+  </si>
+  <si>
+    <t>54,33%</t>
+  </si>
+  <si>
+    <t>65,67%</t>
+  </si>
+  <si>
+    <t>63,07%</t>
+  </si>
+  <si>
+    <t>57,11%</t>
+  </si>
+  <si>
+    <t>68,2%</t>
+  </si>
+  <si>
+    <t>61,45%</t>
+  </si>
+  <si>
+    <t>57,16%</t>
+  </si>
+  <si>
+    <t>65,55%</t>
+  </si>
+  <si>
+    <t>Progenitores según si viven actualmente en pareja en 2023 (Tasa respuesta: 26,09%)</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>26,93%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>32,83%</t>
+  </si>
+  <si>
+    <t>45,62%</t>
+  </si>
+  <si>
+    <t>20,05%</t>
+  </si>
+  <si>
+    <t>77,68%</t>
+  </si>
+  <si>
+    <t>35,72%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>67,1%</t>
+  </si>
+  <si>
+    <t>67,01%</t>
+  </si>
+  <si>
+    <t>51,81%</t>
+  </si>
+  <si>
+    <t>81,12%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>73,76%</t>
+  </si>
+  <si>
+    <t>55,03%</t>
+  </si>
+  <si>
+    <t>28,54%</t>
+  </si>
+  <si>
+    <t>71,17%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>31,86%</t>
+  </si>
+  <si>
+    <t>20,04%</t>
+  </si>
+  <si>
+    <t>45,23%</t>
+  </si>
+  <si>
+    <t>34,49%</t>
+  </si>
+  <si>
+    <t>24,87%</t>
   </si>
   <si>
     <t>45,95%</t>
   </si>
   <si>
-    <t>61,13%</t>
-  </si>
-  <si>
-    <t>41,97%</t>
-  </si>
-  <si>
-    <t>77,16%</t>
-  </si>
-  <si>
-    <t>70,34%</t>
-  </si>
-  <si>
-    <t>51,88%</t>
-  </si>
-  <si>
-    <t>83,59%</t>
-  </si>
-  <si>
-    <t>66,05%</t>
-  </si>
-  <si>
-    <t>54,05%</t>
-  </si>
-  <si>
-    <t>77,71%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>34,76%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>55,56%</t>
-  </si>
-  <si>
-    <t>37,19%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>52,42%</t>
-  </si>
-  <si>
-    <t>36,03%</t>
-  </si>
-  <si>
-    <t>25,75%</t>
-  </si>
-  <si>
-    <t>48,58%</t>
-  </si>
-  <si>
-    <t>65,24%</t>
-  </si>
-  <si>
-    <t>44,44%</t>
-  </si>
-  <si>
-    <t>79,73%</t>
-  </si>
-  <si>
-    <t>62,81%</t>
-  </si>
-  <si>
-    <t>47,58%</t>
-  </si>
-  <si>
-    <t>77,14%</t>
-  </si>
-  <si>
-    <t>63,97%</t>
-  </si>
-  <si>
-    <t>51,42%</t>
-  </si>
-  <si>
-    <t>74,25%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>42,82%</t>
-  </si>
-  <si>
-    <t>31,49%</t>
-  </si>
-  <si>
-    <t>55,96%</t>
-  </si>
-  <si>
-    <t>27,06%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>40,73%</t>
-  </si>
-  <si>
-    <t>35,16%</t>
-  </si>
-  <si>
-    <t>26,08%</t>
-  </si>
-  <si>
-    <t>43,23%</t>
-  </si>
-  <si>
-    <t>57,18%</t>
-  </si>
-  <si>
-    <t>44,04%</t>
-  </si>
-  <si>
-    <t>68,51%</t>
-  </si>
-  <si>
-    <t>72,94%</t>
-  </si>
-  <si>
-    <t>59,27%</t>
-  </si>
-  <si>
-    <t>82,46%</t>
-  </si>
-  <si>
-    <t>64,84%</t>
-  </si>
-  <si>
-    <t>56,77%</t>
-  </si>
-  <si>
-    <t>73,92%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>39,6%</t>
-  </si>
-  <si>
-    <t>47,52%</t>
-  </si>
-  <si>
-    <t>31,33%</t>
-  </si>
-  <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>39,13%</t>
-  </si>
-  <si>
-    <t>35,47%</t>
-  </si>
-  <si>
-    <t>29,86%</t>
-  </si>
-  <si>
-    <t>40,48%</t>
-  </si>
-  <si>
-    <t>60,4%</t>
-  </si>
-  <si>
-    <t>52,48%</t>
-  </si>
-  <si>
-    <t>68,67%</t>
-  </si>
-  <si>
-    <t>60,87%</t>
-  </si>
-  <si>
-    <t>75,22%</t>
-  </si>
-  <si>
-    <t>64,53%</t>
-  </si>
-  <si>
-    <t>59,52%</t>
-  </si>
-  <si>
-    <t>70,14%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Adultos según si viven actualmente en pareja en 2012 (Tasa respuesta: 18,34%)</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>53,18%</t>
-  </si>
-  <si>
-    <t>71,95%</t>
-  </si>
-  <si>
-    <t>60,78%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>89,9%</t>
-  </si>
-  <si>
-    <t>46,82%</t>
-  </si>
-  <si>
-    <t>28,05%</t>
-  </si>
-  <si>
-    <t>39,22%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>82,63%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>24,94%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>46,84%</t>
-  </si>
-  <si>
-    <t>45,07%</t>
-  </si>
-  <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>64,12%</t>
-  </si>
-  <si>
-    <t>34,29%</t>
-  </si>
-  <si>
-    <t>48,77%</t>
-  </si>
-  <si>
-    <t>75,06%</t>
-  </si>
-  <si>
-    <t>53,16%</t>
-  </si>
-  <si>
-    <t>88,37%</t>
-  </si>
-  <si>
-    <t>54,93%</t>
+    <t>26,22%</t>
+  </si>
+  <si>
+    <t>41,68%</t>
+  </si>
+  <si>
+    <t>63,25%</t>
+  </si>
+  <si>
+    <t>49,41%</t>
+  </si>
+  <si>
+    <t>76,71%</t>
+  </si>
+  <si>
+    <t>58,62%</t>
+  </si>
+  <si>
+    <t>46,45%</t>
+  </si>
+  <si>
+    <t>69,42%</t>
+  </si>
+  <si>
+    <t>60,28%</t>
+  </si>
+  <si>
+    <t>50,68%</t>
+  </si>
+  <si>
+    <t>68,21%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>24,27%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>36,17%</t>
+  </si>
+  <si>
+    <t>24,81%</t>
+  </si>
+  <si>
+    <t>47,94%</t>
+  </si>
+  <si>
+    <t>36,5%</t>
+  </si>
+  <si>
+    <t>26,16%</t>
+  </si>
+  <si>
+    <t>53,85%</t>
+  </si>
+  <si>
+    <t>36,35%</t>
+  </si>
+  <si>
+    <t>28,41%</t>
+  </si>
+  <si>
+    <t>45,98%</t>
+  </si>
+  <si>
+    <t>48,75%</t>
+  </si>
+  <si>
+    <t>61,72%</t>
+  </si>
+  <si>
+    <t>58,4%</t>
+  </si>
+  <si>
+    <t>42,1%</t>
+  </si>
+  <si>
+    <t>68,75%</t>
+  </si>
+  <si>
+    <t>54,11%</t>
+  </si>
+  <si>
+    <t>63,02%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>30,68%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>44,06%</t>
+  </si>
+  <si>
+    <t>27,6%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>40,99%</t>
+  </si>
+  <si>
+    <t>29,29%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>38,84%</t>
+  </si>
+  <si>
+    <t>56,8%</t>
+  </si>
+  <si>
+    <t>45,08%</t>
+  </si>
+  <si>
+    <t>63,84%</t>
+  </si>
+  <si>
+    <t>49,42%</t>
+  </si>
+  <si>
+    <t>76,78%</t>
+  </si>
+  <si>
+    <t>59,97%</t>
+  </si>
+  <si>
+    <t>50,7%</t>
+  </si>
+  <si>
+    <t>69,39%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>30,78%</t>
+  </si>
+  <si>
+    <t>24,73%</t>
+  </si>
+  <si>
+    <t>36,97%</t>
   </si>
   <si>
     <t>35,88%</t>
   </si>
   <si>
-    <t>73,96%</t>
-  </si>
-  <si>
-    <t>65,71%</t>
-  </si>
-  <si>
-    <t>51,23%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>35,48%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>52,34%</t>
-  </si>
-  <si>
-    <t>41,8%</t>
-  </si>
-  <si>
-    <t>29,27%</t>
-  </si>
-  <si>
-    <t>55,07%</t>
-  </si>
-  <si>
-    <t>39,1%</t>
-  </si>
-  <si>
-    <t>29,95%</t>
-  </si>
-  <si>
-    <t>50,04%</t>
-  </si>
-  <si>
-    <t>64,52%</t>
-  </si>
-  <si>
-    <t>47,66%</t>
-  </si>
-  <si>
-    <t>77,81%</t>
-  </si>
-  <si>
-    <t>58,2%</t>
-  </si>
-  <si>
-    <t>44,93%</t>
-  </si>
-  <si>
-    <t>70,73%</t>
-  </si>
-  <si>
-    <t>60,9%</t>
-  </si>
-  <si>
-    <t>49,96%</t>
-  </si>
-  <si>
-    <t>70,05%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>32,82%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>47,8%</t>
-  </si>
-  <si>
-    <t>41,79%</t>
-  </si>
-  <si>
-    <t>28,13%</t>
-  </si>
-  <si>
-    <t>55,8%</t>
-  </si>
-  <si>
-    <t>37,17%</t>
-  </si>
-  <si>
-    <t>28,32%</t>
-  </si>
-  <si>
-    <t>48,14%</t>
-  </si>
-  <si>
-    <t>67,18%</t>
-  </si>
-  <si>
-    <t>52,2%</t>
-  </si>
-  <si>
-    <t>78,95%</t>
-  </si>
-  <si>
-    <t>58,21%</t>
-  </si>
-  <si>
-    <t>44,2%</t>
-  </si>
-  <si>
-    <t>71,87%</t>
-  </si>
-  <si>
-    <t>62,83%</t>
-  </si>
-  <si>
-    <t>51,86%</t>
-  </si>
-  <si>
-    <t>71,68%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>35,41%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>47,4%</t>
-  </si>
-  <si>
-    <t>43,72%</t>
-  </si>
-  <si>
-    <t>32,84%</t>
-  </si>
-  <si>
-    <t>55,18%</t>
-  </si>
-  <si>
-    <t>39,59%</t>
-  </si>
-  <si>
-    <t>30,84%</t>
-  </si>
-  <si>
-    <t>47,09%</t>
-  </si>
-  <si>
-    <t>64,59%</t>
-  </si>
-  <si>
-    <t>52,6%</t>
-  </si>
-  <si>
-    <t>74,78%</t>
-  </si>
-  <si>
-    <t>56,28%</t>
-  </si>
-  <si>
-    <t>44,82%</t>
-  </si>
-  <si>
-    <t>67,16%</t>
-  </si>
-  <si>
-    <t>60,41%</t>
-  </si>
-  <si>
-    <t>52,91%</t>
-  </si>
-  <si>
-    <t>69,16%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>33,55%</t>
-  </si>
-  <si>
-    <t>26,67%</t>
-  </si>
-  <si>
-    <t>40,59%</t>
-  </si>
-  <si>
-    <t>43,49%</t>
-  </si>
-  <si>
-    <t>36,83%</t>
-  </si>
-  <si>
-    <t>50,68%</t>
-  </si>
-  <si>
-    <t>38,6%</t>
-  </si>
-  <si>
-    <t>33,62%</t>
-  </si>
-  <si>
-    <t>43,58%</t>
-  </si>
-  <si>
-    <t>66,45%</t>
-  </si>
-  <si>
-    <t>59,41%</t>
-  </si>
-  <si>
-    <t>73,33%</t>
-  </si>
-  <si>
-    <t>56,51%</t>
-  </si>
-  <si>
-    <t>49,32%</t>
-  </si>
-  <si>
-    <t>63,17%</t>
-  </si>
-  <si>
-    <t>61,4%</t>
-  </si>
-  <si>
-    <t>56,42%</t>
-  </si>
-  <si>
-    <t>66,38%</t>
-  </si>
-  <si>
-    <t>Adultos según si viven actualmente en pareja en 2016 (Tasa respuesta: 26,15%)</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>75,77%</t>
-  </si>
-  <si>
-    <t>30,65%</t>
-  </si>
-  <si>
-    <t>59,65%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
-  </si>
-  <si>
-    <t>67,86%</t>
-  </si>
-  <si>
-    <t>41,06%</t>
-  </si>
-  <si>
-    <t>87,93%</t>
-  </si>
-  <si>
-    <t>24,23%</t>
-  </si>
-  <si>
-    <t>69,35%</t>
-  </si>
-  <si>
-    <t>40,35%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>81,98%</t>
-  </si>
-  <si>
-    <t>32,14%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>58,94%</t>
-  </si>
-  <si>
-    <t>48,34%</t>
-  </si>
-  <si>
-    <t>66,79%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>46,44%</t>
-  </si>
-  <si>
-    <t>38,18%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
-  </si>
-  <si>
-    <t>49,97%</t>
-  </si>
-  <si>
-    <t>51,66%</t>
-  </si>
-  <si>
-    <t>33,21%</t>
-  </si>
-  <si>
-    <t>53,56%</t>
-  </si>
-  <si>
-    <t>83,29%</t>
-  </si>
-  <si>
-    <t>61,82%</t>
-  </si>
-  <si>
-    <t>50,03%</t>
-  </si>
-  <si>
-    <t>73,98%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>35,9%</t>
-  </si>
-  <si>
-    <t>25,66%</t>
-  </si>
-  <si>
-    <t>45,83%</t>
-  </si>
-  <si>
-    <t>42,0%</t>
-  </si>
-  <si>
-    <t>32,31%</t>
-  </si>
-  <si>
-    <t>53,0%</t>
-  </si>
-  <si>
-    <t>38,85%</t>
-  </si>
-  <si>
-    <t>31,61%</t>
-  </si>
-  <si>
-    <t>46,58%</t>
-  </si>
-  <si>
-    <t>64,1%</t>
-  </si>
-  <si>
-    <t>54,17%</t>
-  </si>
-  <si>
-    <t>74,34%</t>
-  </si>
-  <si>
-    <t>58,0%</t>
-  </si>
-  <si>
-    <t>47,0%</t>
-  </si>
-  <si>
-    <t>67,69%</t>
-  </si>
-  <si>
-    <t>61,15%</t>
-  </si>
-  <si>
-    <t>53,42%</t>
-  </si>
-  <si>
-    <t>68,39%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>27,14%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>37,91%</t>
-  </si>
-  <si>
-    <t>35,64%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>48,05%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>23,82%</t>
-  </si>
-  <si>
-    <t>38,43%</t>
-  </si>
-  <si>
-    <t>72,86%</t>
-  </si>
-  <si>
-    <t>62,09%</t>
-  </si>
-  <si>
-    <t>81,62%</t>
-  </si>
-  <si>
-    <t>64,36%</t>
-  </si>
-  <si>
-    <t>51,95%</t>
-  </si>
-  <si>
-    <t>75,64%</t>
-  </si>
-  <si>
-    <t>69,18%</t>
-  </si>
-  <si>
-    <t>61,57%</t>
-  </si>
-  <si>
-    <t>76,18%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>37,95%</t>
-  </si>
-  <si>
-    <t>49,07%</t>
-  </si>
-  <si>
-    <t>43,47%</t>
-  </si>
-  <si>
-    <t>33,49%</t>
-  </si>
-  <si>
-    <t>53,74%</t>
-  </si>
-  <si>
-    <t>40,8%</t>
-  </si>
-  <si>
-    <t>33,24%</t>
-  </si>
-  <si>
-    <t>47,85%</t>
-  </si>
-  <si>
-    <t>62,05%</t>
-  </si>
-  <si>
-    <t>50,93%</t>
-  </si>
-  <si>
-    <t>56,53%</t>
-  </si>
-  <si>
-    <t>46,26%</t>
-  </si>
-  <si>
-    <t>66,51%</t>
-  </si>
-  <si>
-    <t>59,2%</t>
-  </si>
-  <si>
-    <t>52,15%</t>
-  </si>
-  <si>
-    <t>66,76%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>36,93%</t>
-  </si>
-  <si>
-    <t>31,67%</t>
-  </si>
-  <si>
-    <t>43,02%</t>
-  </si>
-  <si>
-    <t>40,21%</t>
-  </si>
-  <si>
-    <t>34,91%</t>
-  </si>
-  <si>
-    <t>46,05%</t>
-  </si>
-  <si>
-    <t>38,55%</t>
-  </si>
-  <si>
-    <t>34,33%</t>
-  </si>
-  <si>
-    <t>42,79%</t>
-  </si>
-  <si>
-    <t>63,07%</t>
-  </si>
-  <si>
-    <t>56,98%</t>
-  </si>
-  <si>
-    <t>68,33%</t>
-  </si>
-  <si>
-    <t>59,79%</t>
-  </si>
-  <si>
-    <t>53,95%</t>
-  </si>
-  <si>
-    <t>65,09%</t>
-  </si>
-  <si>
-    <t>61,45%</t>
-  </si>
-  <si>
-    <t>57,21%</t>
-  </si>
-  <si>
-    <t>65,67%</t>
-  </si>
-  <si>
-    <t>Adultos según si viven actualmente en pareja en 2023 (Tasa respuesta: 2,5%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>73,58%</t>
-  </si>
-  <si>
-    <t>82,92%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>79,25%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>88,85%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>87,39%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
+    <t>28,73%</t>
+  </si>
+  <si>
+    <t>46,46%</t>
+  </si>
+  <si>
+    <t>33,66%</t>
+  </si>
+  <si>
+    <t>29,02%</t>
+  </si>
+  <si>
+    <t>40,2%</t>
+  </si>
+  <si>
+    <t>57,28%</t>
+  </si>
+  <si>
+    <t>50,77%</t>
+  </si>
+  <si>
+    <t>64,34%</t>
+  </si>
+  <si>
+    <t>57,52%</t>
+  </si>
+  <si>
+    <t>47,64%</t>
+  </si>
+  <si>
+    <t>64,65%</t>
+  </si>
+  <si>
+    <t>57,41%</t>
+  </si>
+  <si>
+    <t>50,54%</t>
+  </si>
+  <si>
+    <t>62,27%</t>
   </si>
 </sst>
 </file>
@@ -1578,8 +1830,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C00E4B0-556E-477A-9DC5-0FA7681E7613}">
-  <dimension ref="A1:Q28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36801D36-B63D-4EB2-8C8D-CED95A0F88A9}">
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1747,10 +1999,10 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D5" s="7">
-        <v>3260</v>
+        <v>4911</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
@@ -1762,85 +2014,85 @@
         <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I5" s="7">
-        <v>714</v>
+        <v>5741</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="M5" s="7">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="N5" s="7">
-        <v>3974</v>
+        <v>10651</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D6" s="7">
-        <v>0</v>
+        <v>7788</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="I6" s="7">
-        <v>0</v>
+        <v>9610</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="N6" s="7">
-        <v>0</v>
+        <v>17399</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1849,54 +2101,54 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="D7" s="7">
-        <v>3260</v>
+        <v>12699</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="H7" s="7">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="I7" s="7">
-        <v>714</v>
+        <v>15351</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="M7" s="7">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="N7" s="7">
-        <v>3974</v>
+        <v>28050</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -1914,7 +2166,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -1929,7 +2181,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -1944,7 +2196,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1953,100 +2205,100 @@
         <v>16</v>
       </c>
       <c r="C9" s="7">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D9" s="7">
-        <v>2481</v>
+        <v>6885</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="H9" s="7">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="I9" s="7">
-        <v>4197</v>
+        <v>7849</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="M9" s="7">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="N9" s="7">
-        <v>6677</v>
+        <v>14734</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C10" s="7">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D10" s="7">
-        <v>9610</v>
+        <v>16325</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="H10" s="7">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="I10" s="7">
-        <v>7788</v>
+        <v>12343</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="M10" s="7">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="N10" s="7">
-        <v>17399</v>
+        <v>28669</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2055,54 +2307,54 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="D11" s="7">
-        <v>12091</v>
+        <v>23210</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="H11" s="7">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="I11" s="7">
-        <v>11985</v>
+        <v>20192</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="M11" s="7">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="N11" s="7">
-        <v>24076</v>
+        <v>43403</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -2120,7 +2372,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -2135,7 +2387,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -2150,7 +2402,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2159,100 +2411,100 @@
         <v>16</v>
       </c>
       <c r="C13" s="7">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D13" s="7">
-        <v>7849</v>
+        <v>7961</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="H13" s="7">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I13" s="7">
-        <v>6885</v>
+        <v>6771</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="M13" s="7">
         <v>23</v>
       </c>
       <c r="N13" s="7">
-        <v>14734</v>
+        <v>14733</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="7">
         <v>22</v>
       </c>
-      <c r="C14" s="7">
-        <v>19</v>
-      </c>
       <c r="D14" s="7">
-        <v>12343</v>
+        <v>13447</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="H14" s="7">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I14" s="7">
-        <v>16325</v>
+        <v>12710</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="M14" s="7">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="N14" s="7">
-        <v>28669</v>
+        <v>26157</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2261,54 +2513,54 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D15" s="7">
-        <v>20192</v>
+        <v>21408</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="H15" s="7">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="I15" s="7">
-        <v>23210</v>
+        <v>19481</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="M15" s="7">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="N15" s="7">
-        <v>43403</v>
+        <v>40890</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2326,7 +2578,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -2341,7 +2593,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -2356,7 +2608,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2365,100 +2617,100 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D17" s="7">
-        <v>6771</v>
+        <v>11387</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="H17" s="7">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="I17" s="7">
-        <v>7961</v>
+        <v>19075</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="M17" s="7">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="N17" s="7">
-        <v>14733</v>
+        <v>30462</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C18" s="7">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D18" s="7">
-        <v>12710</v>
+        <v>30695</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="H18" s="7">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="I18" s="7">
-        <v>13447</v>
+        <v>25477</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="M18" s="7">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="N18" s="7">
-        <v>26157</v>
+        <v>56172</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2467,54 +2719,54 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="D19" s="7">
-        <v>19481</v>
+        <v>42082</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="H19" s="7">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="I19" s="7">
-        <v>21408</v>
+        <v>44552</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="M19" s="7">
-        <v>65</v>
+        <v>120</v>
       </c>
       <c r="N19" s="7">
-        <v>40890</v>
+        <v>86634</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -2532,7 +2784,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>69</v>
+        <v>102</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -2547,7 +2799,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -2562,7 +2814,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2571,100 +2823,100 @@
         <v>16</v>
       </c>
       <c r="C21" s="7">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="D21" s="7">
-        <v>19075</v>
+        <v>31145</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="H21" s="7">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="I21" s="7">
-        <v>11387</v>
+        <v>39436</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="M21" s="7">
-        <v>42</v>
+        <v>103</v>
       </c>
       <c r="N21" s="7">
-        <v>30462</v>
+        <v>70581</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C22" s="7">
-        <v>38</v>
+        <v>100</v>
       </c>
       <c r="D22" s="7">
-        <v>25477</v>
+        <v>68255</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="H22" s="7">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="I22" s="7">
-        <v>30695</v>
+        <v>60140</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="M22" s="7">
-        <v>78</v>
+        <v>191</v>
       </c>
       <c r="N22" s="7">
-        <v>56172</v>
+        <v>128396</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2673,268 +2925,61 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>65</v>
+        <v>146</v>
       </c>
       <c r="D23" s="7">
-        <v>44552</v>
+        <v>99400</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="H23" s="7">
-        <v>55</v>
+        <v>148</v>
       </c>
       <c r="I23" s="7">
-        <v>42082</v>
+        <v>99576</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="M23" s="7">
-        <v>120</v>
+        <v>294</v>
       </c>
       <c r="N23" s="7">
-        <v>86634</v>
+        <v>198977</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="7">
-        <v>0</v>
-      </c>
-      <c r="D24" s="7">
-        <v>0</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="H24" s="7">
-        <v>0</v>
-      </c>
-      <c r="I24" s="7">
-        <v>0</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="M24" s="7">
-        <v>0</v>
-      </c>
-      <c r="N24" s="7">
-        <v>0</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" s="7">
-        <v>57</v>
-      </c>
-      <c r="D25" s="7">
-        <v>39436</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="H25" s="7">
-        <v>46</v>
-      </c>
-      <c r="I25" s="7">
-        <v>31145</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="M25" s="7">
-        <v>103</v>
-      </c>
-      <c r="N25" s="7">
-        <v>70581</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C26" s="7">
-        <v>91</v>
-      </c>
-      <c r="D26" s="7">
-        <v>60140</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="H26" s="7">
-        <v>100</v>
-      </c>
-      <c r="I26" s="7">
-        <v>68255</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="K26" s="7" t="s">
+      <c r="A24" t="s">
         <v>123</v>
       </c>
-      <c r="L26" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="M26" s="7">
-        <v>191</v>
-      </c>
-      <c r="N26" s="7">
-        <v>128396</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="7">
-        <v>148</v>
-      </c>
-      <c r="D27" s="7">
-        <v>99576</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H27" s="7">
-        <v>146</v>
-      </c>
-      <c r="I27" s="7">
-        <v>99400</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M27" s="7">
-        <v>294</v>
-      </c>
-      <c r="N27" s="7">
-        <v>198977</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>128</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2947,8 +2992,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C97ED82A-E2EC-4CC9-80DD-6B03C4281299}">
-  <dimension ref="A1:Q28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E49E8F39-77F1-4FB9-9979-E717C9F496C6}">
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2964,7 +3009,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3077,7 +3122,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3092,7 +3137,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3107,7 +3152,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3116,100 +3161,100 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D5" s="7">
-        <v>1863</v>
+        <v>10359</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="H5" s="7">
+        <v>8</v>
+      </c>
+      <c r="I5" s="7">
+        <v>7381</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="M5" s="7">
+        <v>22</v>
+      </c>
+      <c r="N5" s="7">
+        <v>17741</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" s="7">
-        <v>2</v>
-      </c>
-      <c r="I5" s="7">
-        <v>1715</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="P5" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="K5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="M5" s="7">
-        <v>4</v>
-      </c>
-      <c r="N5" s="7">
-        <v>3579</v>
-      </c>
-      <c r="O5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C6" s="7">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D6" s="7">
-        <v>1641</v>
+        <v>11202</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="F6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="H6" s="7">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="I6" s="7">
-        <v>669</v>
+        <v>18250</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>138</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>17</v>
+        <v>139</v>
       </c>
       <c r="M6" s="7">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="N6" s="7">
-        <v>2310</v>
+        <v>29452</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3218,54 +3263,54 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="D7" s="7">
-        <v>3504</v>
+        <v>21561</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="H7" s="7">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="I7" s="7">
-        <v>2384</v>
+        <v>25631</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="M7" s="7">
-        <v>7</v>
+        <v>64</v>
       </c>
       <c r="N7" s="7">
-        <v>5889</v>
+        <v>47193</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -3283,7 +3328,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>67</v>
+        <v>143</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -3298,7 +3343,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -3313,7 +3358,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3322,100 +3367,100 @@
         <v>16</v>
       </c>
       <c r="C9" s="7">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="D9" s="7">
-        <v>5517</v>
+        <v>15220</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H9" s="7">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I9" s="7">
-        <v>8644</v>
+        <v>9612</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M9" s="7">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="N9" s="7">
-        <v>14161</v>
+        <v>24832</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>20</v>
+        <v>153</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C10" s="7">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="D10" s="7">
-        <v>16610</v>
+        <v>21192</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="H10" s="7">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="I10" s="7">
-        <v>10533</v>
+        <v>17482</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="M10" s="7">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="N10" s="7">
-        <v>27143</v>
+        <v>38673</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>14</v>
+        <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3424,54 +3469,54 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="D11" s="7">
-        <v>22127</v>
+        <v>36412</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="H11" s="7">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="I11" s="7">
-        <v>19177</v>
+        <v>27094</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="M11" s="7">
-        <v>57</v>
+        <v>96</v>
       </c>
       <c r="N11" s="7">
-        <v>41304</v>
+        <v>63505</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -3489,7 +3534,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -3504,7 +3549,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>143</v>
+        <v>165</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -3519,7 +3564,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3528,100 +3573,100 @@
         <v>16</v>
       </c>
       <c r="C13" s="7">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D13" s="7">
-        <v>9612</v>
+        <v>11794</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="H13" s="7">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="I13" s="7">
-        <v>15220</v>
+        <v>9853</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="M13" s="7">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="N13" s="7">
-        <v>24832</v>
+        <v>21648</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C14" s="7">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" s="7">
-        <v>17482</v>
+        <v>16428</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="H14" s="7">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I14" s="7">
-        <v>21192</v>
+        <v>20165</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="M14" s="7">
         <v>58</v>
       </c>
       <c r="N14" s="7">
-        <v>38673</v>
+        <v>36592</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3630,54 +3675,54 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D15" s="7">
-        <v>27094</v>
+        <v>28222</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="H15" s="7">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="I15" s="7">
-        <v>36412</v>
+        <v>30018</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="M15" s="7">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="N15" s="7">
-        <v>63505</v>
+        <v>58240</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3695,7 +3740,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -3710,7 +3755,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -3725,7 +3770,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3734,100 +3779,100 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D17" s="7">
-        <v>9853</v>
+        <v>21748</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="H17" s="7">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I17" s="7">
-        <v>11794</v>
+        <v>17367</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="M17" s="7">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="N17" s="7">
-        <v>21648</v>
+        <v>39115</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C18" s="7">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D18" s="7">
-        <v>20165</v>
+        <v>27993</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="H18" s="7">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="I18" s="7">
-        <v>16428</v>
+        <v>31682</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="M18" s="7">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="N18" s="7">
-        <v>36592</v>
+        <v>59675</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3836,54 +3881,54 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="D19" s="7">
-        <v>30018</v>
+        <v>49741</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="H19" s="7">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="I19" s="7">
-        <v>28222</v>
+        <v>49049</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="M19" s="7">
-        <v>92</v>
+        <v>133</v>
       </c>
       <c r="N19" s="7">
-        <v>58240</v>
+        <v>98790</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -3901,7 +3946,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -3916,7 +3961,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -3931,7 +3976,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3940,100 +3985,100 @@
         <v>16</v>
       </c>
       <c r="C21" s="7">
-        <v>24</v>
+        <v>86</v>
       </c>
       <c r="D21" s="7">
-        <v>17367</v>
+        <v>59122</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="H21" s="7">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="I21" s="7">
-        <v>21748</v>
+        <v>44214</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="M21" s="7">
-        <v>53</v>
+        <v>147</v>
       </c>
       <c r="N21" s="7">
-        <v>39115</v>
+        <v>103336</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C22" s="7">
-        <v>43</v>
+        <v>112</v>
       </c>
       <c r="D22" s="7">
-        <v>31682</v>
+        <v>76814</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="H22" s="7">
-        <v>37</v>
+        <v>126</v>
       </c>
       <c r="I22" s="7">
-        <v>27993</v>
+        <v>87578</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="M22" s="7">
-        <v>80</v>
+        <v>238</v>
       </c>
       <c r="N22" s="7">
-        <v>59675</v>
+        <v>164392</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4042,268 +4087,61 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>67</v>
+        <v>198</v>
       </c>
       <c r="D23" s="7">
-        <v>49049</v>
+        <v>135936</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="H23" s="7">
-        <v>66</v>
+        <v>187</v>
       </c>
       <c r="I23" s="7">
-        <v>49741</v>
+        <v>131792</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="M23" s="7">
-        <v>133</v>
+        <v>385</v>
       </c>
       <c r="N23" s="7">
-        <v>98790</v>
+        <v>267728</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="7">
-        <v>0</v>
-      </c>
-      <c r="D24" s="7">
-        <v>0</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="H24" s="7">
-        <v>0</v>
-      </c>
-      <c r="I24" s="7">
-        <v>0</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="M24" s="7">
-        <v>0</v>
-      </c>
-      <c r="N24" s="7">
-        <v>0</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" s="7">
-        <v>61</v>
-      </c>
-      <c r="D25" s="7">
-        <v>44214</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="H25" s="7">
-        <v>86</v>
-      </c>
-      <c r="I25" s="7">
-        <v>59122</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="M25" s="7">
-        <v>147</v>
-      </c>
-      <c r="N25" s="7">
-        <v>103336</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C26" s="7">
-        <v>126</v>
-      </c>
-      <c r="D26" s="7">
-        <v>87578</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="H26" s="7">
-        <v>112</v>
-      </c>
-      <c r="I26" s="7">
-        <v>76814</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="M26" s="7">
-        <v>238</v>
-      </c>
-      <c r="N26" s="7">
-        <v>164392</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="7">
-        <v>187</v>
-      </c>
-      <c r="D27" s="7">
-        <v>131792</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H27" s="7">
-        <v>198</v>
-      </c>
-      <c r="I27" s="7">
-        <v>135936</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M27" s="7">
-        <v>385</v>
-      </c>
-      <c r="N27" s="7">
-        <v>267728</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>128</v>
+      <c r="A24" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4316,8 +4154,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D76A104-4C35-4601-82BF-C29C1CECA8FA}">
-  <dimension ref="A1:Q28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3965FE2B-2F0B-4240-B159-0EC7891BF543}">
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4333,7 +4171,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>243</v>
+        <v>225</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4446,7 +4284,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>244</v>
+        <v>226</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4461,7 +4299,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>131</v>
+        <v>60</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -4476,7 +4314,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>245</v>
+        <v>227</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4485,100 +4323,100 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D5" s="7">
-        <v>5154</v>
+        <v>12052</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>246</v>
+        <v>228</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>247</v>
+        <v>229</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>17</v>
+        <v>230</v>
       </c>
       <c r="H5" s="7">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="I5" s="7">
-        <v>3911</v>
+        <v>14660</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>248</v>
+        <v>231</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>249</v>
+        <v>232</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>250</v>
+        <v>233</v>
       </c>
       <c r="M5" s="7">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="N5" s="7">
-        <v>9064</v>
+        <v>26712</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>253</v>
+        <v>236</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C6" s="7">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="D6" s="7">
-        <v>1648</v>
+        <v>21064</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>254</v>
+        <v>237</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>11</v>
+        <v>238</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="H6" s="7">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="I6" s="7">
-        <v>2646</v>
+        <v>11806</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="M6" s="7">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="N6" s="7">
-        <v>4294</v>
+        <v>32870</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4587,54 +4425,54 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="D7" s="7">
-        <v>6802</v>
+        <v>33116</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="H7" s="7">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="I7" s="7">
-        <v>6557</v>
+        <v>26466</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="M7" s="7">
-        <v>15</v>
+        <v>81</v>
       </c>
       <c r="N7" s="7">
-        <v>13358</v>
+        <v>59582</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -4652,7 +4490,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>142</v>
+        <v>246</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -4667,7 +4505,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>160</v>
+        <v>247</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -4682,7 +4520,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>202</v>
+        <v>248</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4691,100 +4529,100 @@
         <v>16</v>
       </c>
       <c r="C9" s="7">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="D9" s="7">
-        <v>9506</v>
+        <v>21420</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>118</v>
+        <v>250</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="H9" s="7">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="I9" s="7">
-        <v>8141</v>
+        <v>19605</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="M9" s="7">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="N9" s="7">
-        <v>17648</v>
+        <v>41026</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C10" s="7">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="D10" s="7">
-        <v>10158</v>
+        <v>29581</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>127</v>
+        <v>260</v>
       </c>
       <c r="H10" s="7">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="I10" s="7">
-        <v>18418</v>
+        <v>35001</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="M10" s="7">
-        <v>40</v>
+        <v>96</v>
       </c>
       <c r="N10" s="7">
-        <v>28576</v>
+        <v>64581</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4793,54 +4631,54 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>27</v>
+        <v>82</v>
       </c>
       <c r="D11" s="7">
-        <v>19664</v>
+        <v>51001</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="H11" s="7">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="I11" s="7">
-        <v>26559</v>
+        <v>54606</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="M11" s="7">
-        <v>66</v>
+        <v>161</v>
       </c>
       <c r="N11" s="7">
-        <v>46224</v>
+        <v>105607</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -4858,7 +4696,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>276</v>
+        <v>62</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -4873,7 +4711,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -4888,7 +4726,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4897,100 +4735,100 @@
         <v>16</v>
       </c>
       <c r="C13" s="7">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D13" s="7">
-        <v>19605</v>
+        <v>13743</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="H13" s="7">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="I13" s="7">
-        <v>21420</v>
+        <v>13715</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="M13" s="7">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="N13" s="7">
-        <v>41026</v>
+        <v>27458</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C14" s="7">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="D14" s="7">
-        <v>35001</v>
+        <v>24820</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="H14" s="7">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="I14" s="7">
-        <v>29581</v>
+        <v>36813</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="M14" s="7">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="N14" s="7">
-        <v>64581</v>
+        <v>61633</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4999,54 +4837,54 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="D15" s="7">
-        <v>54606</v>
+        <v>38563</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="H15" s="7">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="I15" s="7">
-        <v>51001</v>
+        <v>50528</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="M15" s="7">
-        <v>161</v>
+        <v>139</v>
       </c>
       <c r="N15" s="7">
-        <v>105607</v>
+        <v>89091</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5064,7 +4902,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -5079,7 +4917,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>69</v>
+        <v>288</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -5094,7 +4932,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5103,100 +4941,100 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="D17" s="7">
-        <v>13715</v>
+        <v>28169</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="H17" s="7">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="I17" s="7">
-        <v>13743</v>
+        <v>23111</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="M17" s="7">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="N17" s="7">
-        <v>27458</v>
+        <v>51279</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C18" s="7">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D18" s="7">
-        <v>36813</v>
+        <v>36630</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="H18" s="7">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="I18" s="7">
-        <v>24820</v>
+        <v>37785</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="M18" s="7">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="N18" s="7">
-        <v>61633</v>
+        <v>74416</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5205,54 +5043,54 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="D19" s="7">
-        <v>50528</v>
+        <v>64799</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="H19" s="7">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="I19" s="7">
-        <v>38563</v>
+        <v>60896</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="M19" s="7">
-        <v>139</v>
+        <v>175</v>
       </c>
       <c r="N19" s="7">
-        <v>89091</v>
+        <v>125695</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -5270,7 +5108,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -5285,7 +5123,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -5300,7 +5138,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5309,100 +5147,100 @@
         <v>16</v>
       </c>
       <c r="C21" s="7">
-        <v>34</v>
+        <v>117</v>
       </c>
       <c r="D21" s="7">
-        <v>23111</v>
+        <v>75384</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>190</v>
+        <v>312</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="H21" s="7">
-        <v>40</v>
+        <v>103</v>
       </c>
       <c r="I21" s="7">
-        <v>28169</v>
+        <v>71091</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="M21" s="7">
-        <v>74</v>
+        <v>220</v>
       </c>
       <c r="N21" s="7">
-        <v>51279</v>
+        <v>146475</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C22" s="7">
-        <v>52</v>
+        <v>165</v>
       </c>
       <c r="D22" s="7">
-        <v>37785</v>
+        <v>112095</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="H22" s="7">
+        <v>171</v>
+      </c>
+      <c r="I22" s="7">
+        <v>121405</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="M22" s="7">
+        <v>336</v>
+      </c>
+      <c r="N22" s="7">
+        <v>233500</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>328</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="H22" s="7">
-        <v>49</v>
-      </c>
-      <c r="I22" s="7">
-        <v>36630</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="M22" s="7">
-        <v>101</v>
-      </c>
-      <c r="N22" s="7">
-        <v>74416</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5411,268 +5249,61 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>86</v>
+        <v>282</v>
       </c>
       <c r="D23" s="7">
-        <v>60896</v>
+        <v>187479</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="H23" s="7">
-        <v>89</v>
+        <v>274</v>
       </c>
       <c r="I23" s="7">
-        <v>64799</v>
+        <v>192496</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="M23" s="7">
-        <v>175</v>
+        <v>556</v>
       </c>
       <c r="N23" s="7">
-        <v>125695</v>
+        <v>379975</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="7">
-        <v>0</v>
-      </c>
-      <c r="D24" s="7">
-        <v>0</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="H24" s="7">
-        <v>0</v>
-      </c>
-      <c r="I24" s="7">
-        <v>0</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="M24" s="7">
-        <v>0</v>
-      </c>
-      <c r="N24" s="7">
-        <v>0</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" s="7">
-        <v>103</v>
-      </c>
-      <c r="D25" s="7">
-        <v>71091</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="H25" s="7">
-        <v>117</v>
-      </c>
-      <c r="I25" s="7">
-        <v>75384</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="M25" s="7">
-        <v>220</v>
-      </c>
-      <c r="N25" s="7">
-        <v>146475</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C26" s="7">
-        <v>171</v>
-      </c>
-      <c r="D26" s="7">
-        <v>121405</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="H26" s="7">
-        <v>165</v>
-      </c>
-      <c r="I26" s="7">
-        <v>112095</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="M26" s="7">
-        <v>336</v>
-      </c>
-      <c r="N26" s="7">
-        <v>233500</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="7">
-        <v>274</v>
-      </c>
-      <c r="D27" s="7">
-        <v>192496</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H27" s="7">
-        <v>282</v>
-      </c>
-      <c r="I27" s="7">
-        <v>187479</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M27" s="7">
-        <v>556</v>
-      </c>
-      <c r="N27" s="7">
-        <v>379975</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>128</v>
+      <c r="A24" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -5685,8 +5316,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BEBBF43-7A34-44F6-8BF9-B45A822FDFAA}">
-  <dimension ref="A1:Q28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C330D6CB-4DA0-443B-BFBB-54A3A2BF5D88}">
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5702,7 +5333,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>357</v>
+        <v>329</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5803,43 +5434,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>6</v>
+      </c>
+      <c r="D4" s="7">
+        <v>3529</v>
+      </c>
       <c r="E4" s="7" t="s">
-        <v>358</v>
+        <v>330</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>358</v>
+        <v>331</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>358</v>
+        <v>332</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>4</v>
+      </c>
+      <c r="I4" s="7">
+        <v>2690</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>358</v>
+        <v>333</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>358</v>
+        <v>334</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>358</v>
+        <v>335</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>10</v>
+      </c>
+      <c r="N4" s="7">
+        <v>6219</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>358</v>
+        <v>336</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>358</v>
+        <v>337</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>358</v>
+        <v>338</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5848,88 +5485,100 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>10</v>
+      </c>
+      <c r="D5" s="7">
+        <v>4647</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>358</v>
+        <v>339</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>358</v>
+        <v>340</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>358</v>
+        <v>341</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>14</v>
+      </c>
+      <c r="I5" s="7">
+        <v>19380</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>358</v>
+        <v>342</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>358</v>
+        <v>343</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>358</v>
+        <v>344</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>24</v>
+      </c>
+      <c r="N5" s="7">
+        <v>24026</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>358</v>
+        <v>345</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>27</v>
+      </c>
+      <c r="D6" s="7">
+        <v>16605</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>18</v>
+      </c>
+      <c r="I6" s="7">
+        <v>20409</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>358</v>
+        <v>127</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>45</v>
+      </c>
+      <c r="N6" s="7">
+        <v>37014</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5938,96 +5587,102 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="7"/>
+        <v>43</v>
+      </c>
+      <c r="D7" s="7">
+        <v>24781</v>
+      </c>
       <c r="E7" s="7" t="s">
-        <v>358</v>
+        <v>36</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>358</v>
+        <v>36</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>358</v>
+        <v>36</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7"/>
+        <v>36</v>
+      </c>
+      <c r="I7" s="7">
+        <v>42478</v>
+      </c>
       <c r="J7" s="7" t="s">
-        <v>358</v>
+        <v>36</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>358</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>358</v>
+        <v>36</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
-      </c>
-      <c r="N7" s="7"/>
+        <v>79</v>
+      </c>
+      <c r="N7" s="7">
+        <v>67259</v>
+      </c>
       <c r="O7" s="7" t="s">
-        <v>358</v>
+        <v>36</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>358</v>
+        <v>36</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>358</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8" s="7">
-        <v>2468</v>
+        <v>1687</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>17</v>
+        <v>356</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>18</v>
+        <v>357</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>19</v>
+        <v>358</v>
       </c>
       <c r="H8" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I8" s="7">
-        <v>3739</v>
+        <v>4265</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>17</v>
+        <v>359</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>19</v>
+        <v>361</v>
       </c>
       <c r="M8" s="7">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N8" s="7">
-        <v>6207</v>
+        <v>5952</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>17</v>
+        <v>362</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>19</v>
+        <v>364</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6036,100 +5691,100 @@
         <v>16</v>
       </c>
       <c r="C9" s="7">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D9" s="7">
-        <v>0</v>
+        <v>10993</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>11</v>
+        <v>365</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>12</v>
+        <v>366</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>367</v>
       </c>
       <c r="H9" s="7">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="I9" s="7">
-        <v>0</v>
+        <v>21343</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>11</v>
+        <v>368</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>12</v>
+        <v>369</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="M9" s="7">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="N9" s="7">
-        <v>0</v>
+        <v>32337</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>11</v>
+        <v>210</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>12</v>
+        <v>371</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C10" s="7">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="D10" s="7">
-        <v>0</v>
+        <v>21822</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>11</v>
+        <v>373</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>12</v>
+        <v>374</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>13</v>
+        <v>375</v>
       </c>
       <c r="H10" s="7">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="I10" s="7">
-        <v>0</v>
+        <v>36281</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>11</v>
+        <v>376</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>12</v>
+        <v>377</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>361</v>
+        <v>378</v>
       </c>
       <c r="M10" s="7">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="N10" s="7">
-        <v>0</v>
+        <v>58102</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>11</v>
+        <v>379</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>12</v>
+        <v>380</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>362</v>
+        <v>381</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6138,102 +5793,102 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="D11" s="7">
-        <v>2468</v>
+        <v>34502</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="H11" s="7">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="I11" s="7">
-        <v>3739</v>
+        <v>61889</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="M11" s="7">
-        <v>10</v>
+        <v>137</v>
       </c>
       <c r="N11" s="7">
-        <v>6207</v>
+        <v>96391</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D12" s="7">
-        <v>4313</v>
+        <v>7450</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>17</v>
+        <v>382</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>21</v>
+        <v>383</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>19</v>
+        <v>384</v>
       </c>
       <c r="H12" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I12" s="7">
-        <v>1696</v>
+        <v>3159</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>17</v>
+        <v>385</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>363</v>
+        <v>386</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>19</v>
+        <v>387</v>
       </c>
       <c r="M12" s="7">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="N12" s="7">
-        <v>6010</v>
+        <v>10609</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>17</v>
+        <v>388</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>364</v>
+        <v>389</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>19</v>
+        <v>390</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6242,100 +5897,100 @@
         <v>16</v>
       </c>
       <c r="C13" s="7">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="D13" s="7">
-        <v>0</v>
+        <v>17867</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>11</v>
+        <v>391</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>12</v>
+        <v>392</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>15</v>
+        <v>393</v>
       </c>
       <c r="H13" s="7">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="I13" s="7">
-        <v>0</v>
+        <v>22594</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>11</v>
+        <v>394</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>12</v>
+        <v>395</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>130</v>
+        <v>396</v>
       </c>
       <c r="M13" s="7">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="N13" s="7">
-        <v>0</v>
+        <v>40462</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>11</v>
+        <v>397</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>12</v>
+        <v>398</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>244</v>
+        <v>399</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>24078</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>11</v>
+        <v>400</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>12</v>
+        <v>394</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>15</v>
+        <v>401</v>
       </c>
       <c r="H14" s="7">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I14" s="7">
-        <v>0</v>
+        <v>36150</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>11</v>
+        <v>402</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>12</v>
+        <v>403</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>130</v>
+        <v>404</v>
       </c>
       <c r="M14" s="7">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="N14" s="7">
-        <v>0</v>
+        <v>60229</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>11</v>
+        <v>405</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>12</v>
+        <v>234</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>244</v>
+        <v>406</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6344,102 +5999,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>5</v>
+        <v>72</v>
       </c>
       <c r="D15" s="7">
-        <v>4313</v>
+        <v>49396</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="H15" s="7">
-        <v>3</v>
+        <v>82</v>
       </c>
       <c r="I15" s="7">
-        <v>1696</v>
+        <v>61903</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="M15" s="7">
-        <v>8</v>
+        <v>154</v>
       </c>
       <c r="N15" s="7">
-        <v>6010</v>
+        <v>111300</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>10</v>
+      </c>
+      <c r="D16" s="7">
+        <v>6744</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="H16" s="7">
         <v>4</v>
       </c>
-      <c r="D16" s="7">
-        <v>3098</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H16" s="7">
-        <v>12</v>
-      </c>
       <c r="I16" s="7">
-        <v>7629</v>
+        <v>3783</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>17</v>
+        <v>410</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>365</v>
+        <v>411</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>19</v>
+        <v>412</v>
       </c>
       <c r="M16" s="7">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N16" s="7">
-        <v>10726</v>
+        <v>10527</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>17</v>
+        <v>413</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>366</v>
+        <v>414</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>19</v>
+        <v>415</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6448,100 +6103,100 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="D17" s="7">
-        <v>0</v>
+        <v>16533</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>11</v>
+        <v>416</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>12</v>
+        <v>417</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>13</v>
+        <v>418</v>
       </c>
       <c r="H17" s="7">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="I17" s="7">
-        <v>0</v>
+        <v>12184</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>11</v>
+        <v>419</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>12</v>
+        <v>420</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>367</v>
+        <v>421</v>
       </c>
       <c r="M17" s="7">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="N17" s="7">
-        <v>0</v>
+        <v>28717</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>11</v>
+        <v>422</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>12</v>
+        <v>423</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>368</v>
+        <v>424</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C18" s="7">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="D18" s="7">
-        <v>0</v>
+        <v>30612</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>11</v>
+        <v>425</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>12</v>
+        <v>426</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>13</v>
+        <v>122</v>
       </c>
       <c r="H18" s="7">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="I18" s="7">
-        <v>0</v>
+        <v>28185</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>11</v>
+        <v>427</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>12</v>
+        <v>428</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>367</v>
+        <v>429</v>
       </c>
       <c r="M18" s="7">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="N18" s="7">
-        <v>0</v>
+        <v>58797</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>11</v>
+        <v>430</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>12</v>
+        <v>431</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>368</v>
+        <v>432</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6550,102 +6205,102 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>4</v>
+        <v>75</v>
       </c>
       <c r="D19" s="7">
-        <v>3098</v>
+        <v>53890</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="H19" s="7">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="I19" s="7">
-        <v>7629</v>
+        <v>44152</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="M19" s="7">
-        <v>16</v>
+        <v>131</v>
       </c>
       <c r="N19" s="7">
-        <v>10726</v>
+        <v>98042</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="7">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="D20" s="7">
-        <v>3704</v>
+        <v>19412</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="H20" s="7">
         <v>17</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H20" s="7">
-        <v>10</v>
-      </c>
       <c r="I20" s="7">
-        <v>6989</v>
+        <v>13896</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>17</v>
+        <v>436</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>360</v>
+        <v>437</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>19</v>
+        <v>438</v>
       </c>
       <c r="M20" s="7">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="N20" s="7">
-        <v>10693</v>
+        <v>33308</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>17</v>
+        <v>439</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>369</v>
+        <v>440</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>19</v>
+        <v>441</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6654,100 +6309,100 @@
         <v>16</v>
       </c>
       <c r="C21" s="7">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="D21" s="7">
-        <v>0</v>
+        <v>50041</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>11</v>
+        <v>442</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>12</v>
+        <v>443</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>13</v>
+        <v>444</v>
       </c>
       <c r="H21" s="7">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="I21" s="7">
-        <v>0</v>
+        <v>75501</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>11</v>
+        <v>445</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>12</v>
+        <v>446</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>362</v>
+        <v>447</v>
       </c>
       <c r="M21" s="7">
-        <v>0</v>
+        <v>171</v>
       </c>
       <c r="N21" s="7">
-        <v>0</v>
+        <v>125542</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>11</v>
+        <v>448</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>12</v>
+        <v>449</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>370</v>
+        <v>450</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C22" s="7">
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="D22" s="7">
-        <v>0</v>
+        <v>93117</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>11</v>
+        <v>451</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>12</v>
+        <v>452</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>13</v>
+        <v>453</v>
       </c>
       <c r="H22" s="7">
-        <v>0</v>
+        <v>147</v>
       </c>
       <c r="I22" s="7">
-        <v>0</v>
+        <v>121025</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>11</v>
+        <v>454</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>12</v>
+        <v>455</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>362</v>
+        <v>456</v>
       </c>
       <c r="M22" s="7">
-        <v>0</v>
+        <v>282</v>
       </c>
       <c r="N22" s="7">
-        <v>0</v>
+        <v>214142</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>11</v>
+        <v>457</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>12</v>
+        <v>458</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>370</v>
+        <v>459</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6756,268 +6411,61 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>4</v>
+        <v>244</v>
       </c>
       <c r="D23" s="7">
-        <v>3704</v>
+        <v>162570</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="H23" s="7">
-        <v>10</v>
+        <v>257</v>
       </c>
       <c r="I23" s="7">
-        <v>6989</v>
+        <v>210422</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="M23" s="7">
-        <v>14</v>
+        <v>501</v>
       </c>
       <c r="N23" s="7">
-        <v>10693</v>
+        <v>372992</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="7">
-        <v>17</v>
-      </c>
-      <c r="D24" s="7">
-        <v>13583</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H24" s="7">
-        <v>31</v>
-      </c>
-      <c r="I24" s="7">
-        <v>20053</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M24" s="7">
-        <v>48</v>
-      </c>
-      <c r="N24" s="7">
-        <v>33636</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" s="7">
-        <v>0</v>
-      </c>
-      <c r="D25" s="7">
-        <v>0</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="H25" s="7">
-        <v>0</v>
-      </c>
-      <c r="I25" s="7">
-        <v>0</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="M25" s="7">
-        <v>0</v>
-      </c>
-      <c r="N25" s="7">
-        <v>0</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C26" s="7">
-        <v>0</v>
-      </c>
-      <c r="D26" s="7">
-        <v>0</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="H26" s="7">
-        <v>0</v>
-      </c>
-      <c r="I26" s="7">
-        <v>0</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="M26" s="7">
-        <v>0</v>
-      </c>
-      <c r="N26" s="7">
-        <v>0</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="7">
-        <v>17</v>
-      </c>
-      <c r="D27" s="7">
-        <v>13583</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H27" s="7">
-        <v>31</v>
-      </c>
-      <c r="I27" s="7">
-        <v>20053</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M27" s="7">
-        <v>48</v>
-      </c>
-      <c r="N27" s="7">
-        <v>33636</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>128</v>
+      <c r="A24" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
